--- a/Excel_files_for_MISSAR/Prospective_scenarios/2014_q4_start/Detailed_2025_scenarios_ANSES_income_v3.xlsx
+++ b/Excel_files_for_MISSAR/Prospective_scenarios/2014_q4_start/Detailed_2025_scenarios_ANSES_income_v3.xlsx
@@ -5,14 +5,14 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="movilidad" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="tabla_macro" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area" vbProcedure="false">tabla_macro!$B$2:$Z$51</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area" vbProcedure="false">tabla_macro!$B$3:$Z$52</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="80">
   <si>
     <t xml:space="preserve">ESQUEMAS DE MOVILIDAD PREVISIONAL</t>
   </si>
@@ -155,6 +155,12 @@
     <t xml:space="preserve">ESCENARIO MACRO-FISCAL: INDICADORES BASICOS</t>
   </si>
   <si>
+    <t xml:space="preserve">Recursos fiscales ANSES en % PBI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PAIS</t>
+  </si>
+  <si>
     <t xml:space="preserve">Indicadores</t>
   </si>
   <si>
@@ -275,7 +281,7 @@
     <numFmt numFmtId="171" formatCode="0.0%"/>
     <numFmt numFmtId="172" formatCode="General"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="15">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -352,13 +358,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -855,7 +854,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="178">
+  <cellXfs count="179">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1276,11 +1275,291 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="12" fillId="0" borderId="0" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="6" borderId="3" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="172" fontId="13" fillId="6" borderId="35" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="172" fontId="13" fillId="7" borderId="3" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="36" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="8" borderId="37" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="8" borderId="38" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="7" fillId="0" borderId="39" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="7" fillId="8" borderId="39" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="7" fillId="8" borderId="40" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="7" fillId="8" borderId="41" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="8" borderId="28" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="171" fontId="14" fillId="0" borderId="25" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="171" fontId="14" fillId="0" borderId="25" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="171" fontId="14" fillId="0" borderId="42" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="171" fontId="14" fillId="0" borderId="29" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="8" borderId="11" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="7" fillId="0" borderId="12" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="7" fillId="8" borderId="12" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="7" fillId="8" borderId="43" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="7" fillId="8" borderId="15" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="8" borderId="32" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="171" fontId="14" fillId="0" borderId="33" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="9" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="171" fontId="14" fillId="0" borderId="0" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="171" fontId="14" fillId="0" borderId="0" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="171" fontId="14" fillId="0" borderId="36" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="39" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="7" fillId="8" borderId="39" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="7" fillId="8" borderId="40" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="7" fillId="8" borderId="41" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="12" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="7" fillId="8" borderId="12" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="7" fillId="8" borderId="43" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="7" fillId="8" borderId="15" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="8" borderId="22" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="171" fontId="14" fillId="0" borderId="19" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="8" borderId="44" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="21" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="36" xfId="21" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="8" borderId="45" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="25" xfId="21" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="8" borderId="8" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="33" xfId="21" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="171" fontId="14" fillId="0" borderId="33" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="171" fontId="14" fillId="0" borderId="46" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="171" fontId="14" fillId="0" borderId="34" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="8" borderId="47" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="24" xfId="21" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="8" borderId="23" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="7" fillId="8" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="7" fillId="8" borderId="36" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="7" fillId="8" borderId="19" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="171" fontId="7" fillId="0" borderId="48" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="171" fontId="7" fillId="0" borderId="33" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="171" fontId="7" fillId="0" borderId="46" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="171" fontId="7" fillId="0" borderId="34" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="8" borderId="49" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="7" fillId="0" borderId="24" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="7" fillId="0" borderId="6" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="7" fillId="0" borderId="25" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="7" fillId="0" borderId="42" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="7" fillId="0" borderId="29" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="171" fontId="7" fillId="8" borderId="33" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="171" fontId="7" fillId="8" borderId="50" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="171" fontId="7" fillId="8" borderId="34" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="4" fillId="0" borderId="0" xfId="21" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1288,283 +1567,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="21" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="6" borderId="3" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="172" fontId="14" fillId="6" borderId="35" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="172" fontId="14" fillId="7" borderId="3" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="36" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="8" borderId="37" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="8" borderId="38" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="39" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="7" fillId="8" borderId="39" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="7" fillId="8" borderId="40" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="7" fillId="8" borderId="41" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="8" borderId="28" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="171" fontId="15" fillId="0" borderId="25" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="171" fontId="15" fillId="0" borderId="25" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="171" fontId="15" fillId="0" borderId="42" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="171" fontId="15" fillId="0" borderId="29" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="8" borderId="11" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="12" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="7" fillId="8" borderId="12" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="7" fillId="8" borderId="43" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="7" fillId="8" borderId="15" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="8" borderId="32" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="171" fontId="15" fillId="0" borderId="33" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="9" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="171" fontId="15" fillId="0" borderId="0" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="171" fontId="15" fillId="0" borderId="0" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="171" fontId="15" fillId="0" borderId="36" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="39" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="7" fillId="8" borderId="39" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="7" fillId="8" borderId="40" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="7" fillId="8" borderId="41" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="12" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="7" fillId="8" borderId="12" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="7" fillId="8" borderId="43" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="7" fillId="8" borderId="15" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="8" borderId="22" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="171" fontId="15" fillId="0" borderId="19" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="8" borderId="44" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="21" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="36" xfId="21" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="8" borderId="45" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="25" xfId="21" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="8" borderId="8" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="33" xfId="21" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="171" fontId="15" fillId="0" borderId="33" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="171" fontId="15" fillId="0" borderId="46" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="171" fontId="15" fillId="0" borderId="34" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="8" borderId="47" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="24" xfId="21" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="8" borderId="23" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="7" fillId="8" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="7" fillId="8" borderId="36" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="7" fillId="8" borderId="19" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="171" fontId="7" fillId="0" borderId="48" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="171" fontId="7" fillId="0" borderId="33" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="171" fontId="7" fillId="0" borderId="46" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="171" fontId="7" fillId="0" borderId="34" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="8" borderId="49" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="24" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="6" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="25" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="42" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="29" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="171" fontId="7" fillId="8" borderId="33" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="171" fontId="7" fillId="8" borderId="50" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="171" fontId="7" fillId="8" borderId="34" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="4" fillId="0" borderId="0" xfId="21" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1580,1084 +1583,6 @@
     <cellStyle name="Normal 2" xfId="21"/>
     <cellStyle name="Percent 2" xfId="22"/>
   </cellStyles>
-  <dxfs count="97">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF8CBAD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <i val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <i val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF8CBAD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <i val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF8CBAD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <i val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF8CBAD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <i val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF8CBAD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <i val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF8CBAD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <i val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF8CBAD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <i val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF8CBAD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <i val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF8CBAD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <i val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF8CBAD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <i val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF8CBAD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <i val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF8CBAD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <i val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF8CBAD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <i val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF8CBAD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <i val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF8CBAD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <i val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF8CBAD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <i val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF8CBAD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <i val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF8CBAD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <i val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF8CBAD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <i val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <i val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <i val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF8CBAD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <i val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF8CBAD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <i val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF8CBAD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <i val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF8CBAD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <i val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF8CBAD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <i val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <i val="0"/>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF8CBAD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <i val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -2721,7 +1646,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart89.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart158.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2851,11 +1776,11 @@
         </c:ser>
         <c:gapWidth val="95"/>
         <c:overlap val="-27"/>
-        <c:axId val="70457685"/>
-        <c:axId val="89770471"/>
+        <c:axId val="95049864"/>
+        <c:axId val="61398490"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="70457685"/>
+        <c:axId val="95049864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2887,14 +1812,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="89770471"/>
+        <c:crossAx val="61398490"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="89770471"/>
+        <c:axId val="61398490"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.3"/>
@@ -2934,7 +1859,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="70457685"/>
+        <c:crossAx val="95049864"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -2972,9 +1897,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>63</xdr:col>
-      <xdr:colOff>648000</xdr:colOff>
+      <xdr:colOff>647640</xdr:colOff>
       <xdr:row>51</xdr:row>
-      <xdr:rowOff>152280</xdr:rowOff>
+      <xdr:rowOff>151920</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2982,8 +1907,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="50771160" y="7308720"/>
-        <a:ext cx="4431960" cy="4349520"/>
+        <a:off x="50740200" y="7308720"/>
+        <a:ext cx="4428360" cy="4349160"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3003,15 +1928,15 @@
   </sheetPr>
   <dimension ref="A1:BG88"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="AP27" activePane="bottomRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="AP1" activeCellId="0" sqref="AP1"/>
-      <selection pane="bottomLeft" activeCell="A27" activeCellId="0" sqref="A27"/>
-      <selection pane="bottomRight" activeCell="AS93" activeCellId="0" sqref="AS93"/>
+      <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="BO1" activeCellId="1" sqref="T2:Z2 BO1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.296875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.2890625" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.5"/>
@@ -10155,14 +9080,14 @@
     <tabColor rgb="FFBF9000"/>
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="B1:Z56"/>
+  <dimension ref="B1:Z57"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="10" ySplit="5" topLeftCell="K6" activePane="bottomRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="10" ySplit="5" topLeftCell="S6" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="K1" activeCellId="0" sqref="K1"/>
+      <selection pane="topRight" activeCell="S1" activeCellId="0" sqref="S1"/>
       <selection pane="bottomLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="A6" activeCellId="0" sqref="A6"/>
+      <selection pane="bottomRight" activeCell="T2" activeCellId="0" sqref="T2:Z2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8203125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10177,3677 +9102,3765 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K1" s="104" t="n">
+      <c r="K1" s="104"/>
+      <c r="L1" s="104"/>
+      <c r="M1" s="104"/>
+      <c r="N1" s="104"/>
+      <c r="O1" s="104"/>
+      <c r="P1" s="104"/>
+      <c r="Q1" s="104"/>
+      <c r="R1" s="104"/>
+      <c r="S1" s="104"/>
+      <c r="T1" s="0"/>
+      <c r="U1" s="0"/>
+      <c r="V1" s="0"/>
+      <c r="W1" s="0"/>
+      <c r="X1" s="0"/>
+      <c r="Y1" s="0"/>
+      <c r="Z1" s="0"/>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K2" s="104" t="n">
         <v>0</v>
       </c>
-      <c r="L1" s="104" t="n">
+      <c r="L2" s="104" t="n">
         <v>0</v>
       </c>
-      <c r="M1" s="104" t="n">
+      <c r="M2" s="104" t="n">
         <v>0</v>
       </c>
-      <c r="N1" s="104" t="n">
+      <c r="N2" s="104" t="n">
         <v>0</v>
       </c>
-      <c r="O1" s="104" t="n">
+      <c r="O2" s="104" t="n">
         <v>0</v>
       </c>
-      <c r="P1" s="104" t="n">
+      <c r="P2" s="104" t="n">
         <v>0</v>
       </c>
-      <c r="Q1" s="104" t="n">
+      <c r="Q2" s="104" t="n">
         <v>0</v>
       </c>
-      <c r="R1" s="104" t="n">
+      <c r="R2" s="104" t="n">
         <v>0</v>
       </c>
-      <c r="S1" s="104" t="n">
+      <c r="S2" s="104" t="n">
         <v>0</v>
       </c>
-      <c r="T1" s="104"/>
-      <c r="U1" s="105"/>
-      <c r="V1" s="104" t="n">
-        <v>1</v>
-      </c>
-      <c r="W1" s="104" t="n">
-        <v>1</v>
-      </c>
-      <c r="X1" s="104" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y1" s="104" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z1" s="104" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="106" t="s">
+      <c r="T2" s="105" t="n">
+        <f aca="false">T3-T4</f>
+        <v>0.0260918114750425</v>
+      </c>
+      <c r="U2" s="105" t="n">
+        <f aca="false">U3-U4</f>
+        <v>0.0267542425182499</v>
+      </c>
+      <c r="V2" s="105" t="n">
+        <f aca="false">V3-V4</f>
+        <v>0.028048552347378</v>
+      </c>
+      <c r="W2" s="105" t="n">
+        <f aca="false">W3-W4</f>
+        <v>0.0283172833960412</v>
+      </c>
+      <c r="X2" s="105" t="n">
+        <f aca="false">X3-X4</f>
+        <v>0.0285731836093482</v>
+      </c>
+      <c r="Y2" s="105" t="n">
+        <f aca="false">Y3-Y4</f>
+        <v>0.0287467353175614</v>
+      </c>
+      <c r="Z2" s="105" t="n">
+        <f aca="false">Z3-Z4</f>
+        <v>0.028895274657685</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="106" t="s">
         <v>42</v>
       </c>
-      <c r="T2" s="107"/>
-      <c r="U2" s="108"/>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="U3" s="109"/>
-    </row>
-    <row r="4" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B4" s="110" t="s">
+      <c r="S3" s="103" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="110"/>
-      <c r="D4" s="110" t="n">
+      <c r="T3" s="107" t="n">
+        <f aca="false">SUM(movilidad!$F$5:$F$16)/T$7/1000</f>
+        <v>0.0260918114750425</v>
+      </c>
+      <c r="U3" s="107" t="n">
+        <f aca="false">SUM(movilidad!$F$17:$F$28)/U$7/1000</f>
+        <v>0.0288759443926519</v>
+      </c>
+      <c r="V3" s="107" t="n">
+        <f aca="false">SUM(movilidad!$F$29:$F$40)/V$7/1000</f>
+        <v>0.0294076593509794</v>
+      </c>
+      <c r="W3" s="107" t="n">
+        <f aca="false">SUM(movilidad!$F$41:$F$52)/W$7/1000</f>
+        <v>0.029679903874636</v>
+      </c>
+      <c r="X3" s="107" t="n">
+        <f aca="false">SUM(movilidad!$F$53:$F$64)/X$7/1000</f>
+        <v>0.029932209569845</v>
+      </c>
+      <c r="Y3" s="107" t="n">
+        <f aca="false">SUM(movilidad!$F$65:$F$76)/Y$7/1000</f>
+        <v>0.0300853427343276</v>
+      </c>
+      <c r="Z3" s="107" t="n">
+        <f aca="false">SUM(movilidad!$F$77:$F$88)/Z$7/1000</f>
+        <v>0.0302127091359169</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="S4" s="103" t="s">
+        <v>44</v>
+      </c>
+      <c r="T4" s="107" t="n">
+        <f aca="false">SUM(movilidad!$G$5:$G$16)/T$7/1000</f>
+        <v>0</v>
+      </c>
+      <c r="U4" s="107" t="n">
+        <f aca="false">SUM(movilidad!$G$17:$G$28)/U$7/1000</f>
+        <v>0.00212170187440205</v>
+      </c>
+      <c r="V4" s="107" t="n">
+        <f aca="false">SUM(movilidad!$G$29:$G$40)/V$7/1000</f>
+        <v>0.00135910700360137</v>
+      </c>
+      <c r="W4" s="107" t="n">
+        <f aca="false">SUM(movilidad!$G$41:$G$52)/W$7/1000</f>
+        <v>0.00136262047859479</v>
+      </c>
+      <c r="X4" s="107" t="n">
+        <f aca="false">SUM(movilidad!$G$53:$G$64)/X$7/1000</f>
+        <v>0.00135902596049685</v>
+      </c>
+      <c r="Y4" s="107" t="n">
+        <f aca="false">SUM(movilidad!$G$65:$G$76)/Y$7/1000</f>
+        <v>0.00133860741676623</v>
+      </c>
+      <c r="Z4" s="107" t="n">
+        <f aca="false">SUM(movilidad!$G$77:$G$88)/Z$7/1000</f>
+        <v>0.0013174344782319</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B5" s="108" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="108"/>
+      <c r="D5" s="108" t="n">
         <v>2003</v>
       </c>
-      <c r="E4" s="110" t="n">
+      <c r="E5" s="108" t="n">
         <v>2004</v>
       </c>
-      <c r="F4" s="110" t="n">
+      <c r="F5" s="108" t="n">
         <v>2005</v>
       </c>
-      <c r="G4" s="110" t="n">
+      <c r="G5" s="108" t="n">
         <v>2006</v>
       </c>
-      <c r="H4" s="110" t="n">
+      <c r="H5" s="108" t="n">
         <v>2007</v>
       </c>
-      <c r="I4" s="110" t="n">
+      <c r="I5" s="108" t="n">
         <v>2008</v>
       </c>
-      <c r="J4" s="110" t="n">
+      <c r="J5" s="108" t="n">
         <v>2009</v>
       </c>
-      <c r="K4" s="110" t="n">
+      <c r="K5" s="108" t="n">
         <v>2010</v>
       </c>
-      <c r="L4" s="110" t="n">
+      <c r="L5" s="108" t="n">
         <v>2011</v>
       </c>
-      <c r="M4" s="110" t="n">
+      <c r="M5" s="108" t="n">
         <v>2012</v>
       </c>
-      <c r="N4" s="110" t="n">
+      <c r="N5" s="108" t="n">
         <v>2013</v>
       </c>
-      <c r="O4" s="110" t="n">
+      <c r="O5" s="108" t="n">
         <v>2014</v>
       </c>
-      <c r="P4" s="110" t="n">
+      <c r="P5" s="108" t="n">
         <v>2015</v>
       </c>
-      <c r="Q4" s="110" t="n">
-        <f aca="false">+P4+1</f>
+      <c r="Q5" s="108" t="n">
+        <f aca="false">+P5+1</f>
         <v>2016</v>
       </c>
-      <c r="R4" s="110" t="n">
-        <f aca="false">+Q4+1</f>
+      <c r="R5" s="108" t="n">
+        <f aca="false">+Q5+1</f>
         <v>2017</v>
       </c>
-      <c r="S4" s="110" t="n">
-        <f aca="false">+R4+1</f>
+      <c r="S5" s="108" t="n">
+        <f aca="false">+R5+1</f>
         <v>2018</v>
       </c>
-      <c r="T4" s="111" t="n">
-        <f aca="false">+S4+1</f>
+      <c r="T5" s="109" t="n">
+        <f aca="false">+S5+1</f>
         <v>2019</v>
       </c>
-      <c r="U4" s="112" t="n">
-        <f aca="false">+T4+1</f>
+      <c r="U5" s="110" t="n">
+        <f aca="false">+T5+1</f>
         <v>2020</v>
       </c>
-      <c r="V4" s="112" t="n">
-        <f aca="false">+U4+1</f>
+      <c r="V5" s="110" t="n">
+        <f aca="false">+U5+1</f>
         <v>2021</v>
       </c>
-      <c r="W4" s="112" t="n">
-        <f aca="false">+V4+1</f>
+      <c r="W5" s="110" t="n">
+        <f aca="false">+V5+1</f>
         <v>2022</v>
       </c>
-      <c r="X4" s="112" t="n">
-        <f aca="false">+W4+1</f>
+      <c r="X5" s="110" t="n">
+        <f aca="false">+W5+1</f>
         <v>2023</v>
       </c>
-      <c r="Y4" s="112" t="n">
-        <f aca="false">+X4+1</f>
+      <c r="Y5" s="110" t="n">
+        <f aca="false">+X5+1</f>
         <v>2024</v>
       </c>
-      <c r="Z4" s="112" t="n">
-        <f aca="false">+Y4+1</f>
+      <c r="Z5" s="110" t="n">
+        <f aca="false">+Y5+1</f>
         <v>2025</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D5" s="113"/>
-      <c r="E5" s="113"/>
-      <c r="F5" s="113"/>
-      <c r="G5" s="113"/>
-      <c r="H5" s="113"/>
-      <c r="I5" s="113"/>
-      <c r="J5" s="113"/>
-      <c r="K5" s="113"/>
-      <c r="L5" s="113"/>
-      <c r="M5" s="113"/>
-      <c r="N5" s="113"/>
-      <c r="O5" s="113"/>
-      <c r="P5" s="113"/>
-      <c r="Q5" s="113"/>
-      <c r="R5" s="113"/>
-      <c r="S5" s="113"/>
-      <c r="T5" s="114"/>
-      <c r="U5" s="113"/>
-      <c r="V5" s="113"/>
-      <c r="W5" s="113"/>
-      <c r="X5" s="113"/>
-      <c r="Y5" s="113"/>
-      <c r="Z5" s="113"/>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B6" s="115" t="s">
-        <v>44</v>
-      </c>
-      <c r="C6" s="116" t="s">
-        <v>45</v>
-      </c>
-      <c r="D6" s="117" t="n">
+    <row r="6" customFormat="false" ht="8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D6" s="111"/>
+      <c r="E6" s="111"/>
+      <c r="F6" s="111"/>
+      <c r="G6" s="111"/>
+      <c r="H6" s="111"/>
+      <c r="I6" s="111"/>
+      <c r="J6" s="111"/>
+      <c r="K6" s="111"/>
+      <c r="L6" s="111"/>
+      <c r="M6" s="111"/>
+      <c r="N6" s="111"/>
+      <c r="O6" s="111"/>
+      <c r="P6" s="111"/>
+      <c r="Q6" s="111"/>
+      <c r="R6" s="111"/>
+      <c r="S6" s="111"/>
+      <c r="T6" s="112"/>
+      <c r="U6" s="111"/>
+      <c r="V6" s="111"/>
+      <c r="W6" s="111"/>
+      <c r="X6" s="111"/>
+      <c r="Y6" s="111"/>
+      <c r="Z6" s="111"/>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B7" s="113" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="114" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="115" t="n">
         <v>375909.361396649</v>
       </c>
-      <c r="E6" s="117" t="n">
+      <c r="E7" s="115" t="n">
         <v>485115.194724755</v>
       </c>
-      <c r="F6" s="117" t="n">
+      <c r="F7" s="115" t="n">
         <v>582538.172937275</v>
       </c>
-      <c r="G6" s="117" t="n">
+      <c r="G7" s="115" t="n">
         <v>715904.271733849</v>
       </c>
-      <c r="H6" s="117" t="n">
+      <c r="H7" s="115" t="n">
         <v>896980.174071903</v>
       </c>
-      <c r="I6" s="117" t="n">
+      <c r="I7" s="115" t="n">
         <v>1149646.09058364</v>
       </c>
-      <c r="J6" s="117" t="n">
+      <c r="J7" s="115" t="n">
         <v>1247929.26892502</v>
       </c>
-      <c r="K6" s="118" t="n">
+      <c r="K7" s="116" t="n">
         <v>1661720.92594458</v>
       </c>
-      <c r="L6" s="118" t="n">
+      <c r="L7" s="116" t="n">
         <v>2179024.10363078</v>
       </c>
-      <c r="M6" s="118" t="n">
+      <c r="M7" s="116" t="n">
         <v>2637913.84821555</v>
       </c>
-      <c r="N6" s="118" t="n">
+      <c r="N7" s="116" t="n">
         <v>3348308.48822721</v>
       </c>
-      <c r="O6" s="118" t="n">
+      <c r="O7" s="116" t="n">
         <v>4579086.42541011</v>
       </c>
-      <c r="P6" s="118" t="n">
+      <c r="P7" s="116" t="n">
         <v>5954510.89569234</v>
       </c>
-      <c r="Q6" s="118" t="n">
+      <c r="Q7" s="116" t="n">
         <v>8228159.55653643</v>
       </c>
-      <c r="R6" s="118" t="n">
+      <c r="R7" s="116" t="n">
         <v>10660228.4948085</v>
       </c>
-      <c r="S6" s="118" t="n">
+      <c r="S7" s="116" t="n">
         <v>14542722.1480953</v>
       </c>
-      <c r="T6" s="119" t="n">
+      <c r="T7" s="117" t="n">
         <v>21447249.8597987</v>
       </c>
-      <c r="U6" s="118" t="n">
+      <c r="U7" s="116" t="n">
         <v>26808471.6408324</v>
       </c>
-      <c r="V6" s="118" t="n">
+      <c r="V7" s="116" t="n">
         <v>36930570.9939396</v>
       </c>
-      <c r="W6" s="118" t="n">
+      <c r="W7" s="116" t="n">
         <v>48331674.4474294</v>
       </c>
-      <c r="X6" s="118" t="n">
+      <c r="X7" s="116" t="n">
         <v>60516598.9276823</v>
       </c>
-      <c r="Y6" s="118" t="n">
+      <c r="Y7" s="116" t="n">
         <v>73256385.3394037</v>
       </c>
-      <c r="Z6" s="120" t="n">
+      <c r="Z7" s="118" t="n">
         <v>86393748.7998389</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="115"/>
-      <c r="C7" s="121" t="s">
-        <v>46</v>
-      </c>
-      <c r="D7" s="122"/>
-      <c r="E7" s="122"/>
-      <c r="F7" s="122"/>
-      <c r="G7" s="122"/>
-      <c r="H7" s="122"/>
-      <c r="I7" s="122"/>
-      <c r="J7" s="122"/>
-      <c r="K7" s="123" t="n">
-        <f aca="false">+K6/J6-1</f>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="113"/>
+      <c r="C8" s="119" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="120"/>
+      <c r="E8" s="120"/>
+      <c r="F8" s="120"/>
+      <c r="G8" s="120"/>
+      <c r="H8" s="120"/>
+      <c r="I8" s="120"/>
+      <c r="J8" s="120"/>
+      <c r="K8" s="121" t="n">
+        <f aca="false">+K7/J7-1</f>
         <v>0.331582620364379</v>
       </c>
-      <c r="L7" s="123" t="n">
-        <f aca="false">+L6/K6-1</f>
+      <c r="L8" s="121" t="n">
+        <f aca="false">+L7/K7-1</f>
         <v>0.311305688945418</v>
       </c>
-      <c r="M7" s="123" t="n">
-        <f aca="false">+M6/L6-1</f>
+      <c r="M8" s="121" t="n">
+        <f aca="false">+M7/L7-1</f>
         <v>0.210594157182635</v>
       </c>
-      <c r="N7" s="123" t="n">
-        <f aca="false">+N6/M6-1</f>
+      <c r="N8" s="121" t="n">
+        <f aca="false">+N7/M7-1</f>
         <v>0.269301683408733</v>
       </c>
-      <c r="O7" s="123" t="n">
-        <f aca="false">+O6/N6-1</f>
+      <c r="O8" s="121" t="n">
+        <f aca="false">+O7/N7-1</f>
         <v>0.367582001930336</v>
       </c>
-      <c r="P7" s="123" t="n">
-        <f aca="false">+P6/O6-1</f>
+      <c r="P8" s="121" t="n">
+        <f aca="false">+P7/O7-1</f>
         <v>0.300370934833153</v>
       </c>
-      <c r="Q7" s="123" t="n">
-        <f aca="false">+Q6/P6-1</f>
+      <c r="Q8" s="121" t="n">
+        <f aca="false">+Q7/P7-1</f>
         <v>0.381836342341553</v>
       </c>
-      <c r="R7" s="123" t="n">
-        <f aca="false">+R6/Q6-1</f>
+      <c r="R8" s="121" t="n">
+        <f aca="false">+R7/Q7-1</f>
         <v>0.295578728336642</v>
       </c>
-      <c r="S7" s="123" t="n">
-        <f aca="false">+S6/R6-1</f>
+      <c r="S8" s="121" t="n">
+        <f aca="false">+S7/R7-1</f>
         <v>0.364203605502228</v>
       </c>
-      <c r="T7" s="124" t="n">
-        <f aca="false">+T6/S6-1</f>
+      <c r="T8" s="122" t="n">
+        <f aca="false">+T7/S7-1</f>
         <v>0.474775467851992</v>
       </c>
-      <c r="U7" s="123" t="n">
-        <f aca="false">+U6/T6-1</f>
+      <c r="U8" s="121" t="n">
+        <f aca="false">+U7/T7-1</f>
         <v>0.249972458757188</v>
       </c>
-      <c r="V7" s="123" t="n">
-        <f aca="false">+V6/U6-1</f>
+      <c r="V8" s="121" t="n">
+        <f aca="false">+V7/U7-1</f>
         <v>0.377570921935367</v>
       </c>
-      <c r="W7" s="123" t="n">
-        <f aca="false">+W6/V6-1</f>
+      <c r="W8" s="121" t="n">
+        <f aca="false">+W7/V7-1</f>
         <v>0.30871722658609</v>
       </c>
-      <c r="X7" s="123" t="n">
-        <f aca="false">+X6/W6-1</f>
+      <c r="X8" s="121" t="n">
+        <f aca="false">+X7/W7-1</f>
         <v>0.252110538680107</v>
       </c>
-      <c r="Y7" s="123" t="n">
-        <f aca="false">+Y6/X6-1</f>
+      <c r="Y8" s="121" t="n">
+        <f aca="false">+Y7/X7-1</f>
         <v>0.21051722399247</v>
       </c>
-      <c r="Z7" s="125" t="n">
-        <f aca="false">+Z6/Y6-1</f>
+      <c r="Z8" s="123" t="n">
+        <f aca="false">+Z7/Y7-1</f>
         <v>0.179334038931467</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B8" s="115"/>
-      <c r="C8" s="126" t="s">
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B9" s="113"/>
+      <c r="C9" s="124" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" s="125"/>
+      <c r="E9" s="125"/>
+      <c r="F9" s="125"/>
+      <c r="G9" s="125"/>
+      <c r="H9" s="125"/>
+      <c r="I9" s="125"/>
+      <c r="J9" s="125" t="n">
+        <v>608872.876412875</v>
+      </c>
+      <c r="K9" s="126" t="n">
+        <v>670523.679441799</v>
+      </c>
+      <c r="L9" s="126" t="n">
+        <v>710781.597220602</v>
+      </c>
+      <c r="M9" s="126" t="n">
+        <v>703485.98945895</v>
+      </c>
+      <c r="N9" s="126" t="n">
+        <v>720407.105302816</v>
+      </c>
+      <c r="O9" s="126" t="n">
+        <v>702306.045963366</v>
+      </c>
+      <c r="P9" s="126" t="n">
+        <v>721487.14663804</v>
+      </c>
+      <c r="Q9" s="126" t="n">
+        <v>706477.848597662</v>
+      </c>
+      <c r="R9" s="126" t="n">
+        <v>726389.947762824</v>
+      </c>
+      <c r="S9" s="126" t="n">
+        <v>707755.489603643</v>
+      </c>
+      <c r="T9" s="127" t="n">
+        <v>692977.449783545</v>
+      </c>
+      <c r="U9" s="126" t="n">
+        <v>615491.229293968</v>
+      </c>
+      <c r="V9" s="126" t="n">
+        <v>650572.349334066</v>
+      </c>
+      <c r="W9" s="126" t="n">
+        <v>680173.492550486</v>
+      </c>
+      <c r="X9" s="126" t="n">
+        <v>704134.189994833</v>
+      </c>
+      <c r="Y9" s="126" t="n">
+        <v>725168.734003683</v>
+      </c>
+      <c r="Z9" s="128" t="n">
+        <v>743091.347413238</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="113"/>
+      <c r="C10" s="119" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" s="120"/>
+      <c r="E10" s="120"/>
+      <c r="F10" s="120"/>
+      <c r="G10" s="120"/>
+      <c r="H10" s="120"/>
+      <c r="I10" s="120"/>
+      <c r="J10" s="120"/>
+      <c r="K10" s="121" t="n">
+        <f aca="false">+K9/J9-1</f>
+        <v>0.101253981606365</v>
+      </c>
+      <c r="L10" s="121" t="n">
+        <f aca="false">+L9/K9-1</f>
+        <v>0.0600395168927024</v>
+      </c>
+      <c r="M10" s="121" t="n">
+        <f aca="false">+M9/L9-1</f>
+        <v>-0.0102642046307625</v>
+      </c>
+      <c r="N10" s="121" t="n">
+        <f aca="false">+N9/M9-1</f>
+        <v>0.0240532378717031</v>
+      </c>
+      <c r="O10" s="121" t="n">
+        <f aca="false">+O9/N9-1</f>
+        <v>-0.025126153262802</v>
+      </c>
+      <c r="P10" s="121" t="n">
+        <f aca="false">+P9/O9-1</f>
+        <v>0.0273115983906453</v>
+      </c>
+      <c r="Q10" s="121" t="n">
+        <f aca="false">+Q9/P9-1</f>
+        <v>-0.0208032784926491</v>
+      </c>
+      <c r="R10" s="121" t="n">
+        <f aca="false">+R9/Q9-1</f>
+        <v>0.0281850297283734</v>
+      </c>
+      <c r="S10" s="121" t="n">
+        <f aca="false">+S9/R9-1</f>
+        <v>-0.0256535187698731</v>
+      </c>
+      <c r="T10" s="122" t="n">
+        <f aca="false">+T9/S9-1</f>
+        <v>-0.0208801486349114</v>
+      </c>
+      <c r="U10" s="121" t="n">
+        <f aca="false">+U9/T9-1</f>
+        <v>-0.111816366483181</v>
+      </c>
+      <c r="V10" s="121" t="n">
+        <f aca="false">+V9/U9-1</f>
+        <v>0.0569969454809944</v>
+      </c>
+      <c r="W10" s="121" t="n">
+        <f aca="false">+W9/V9-1</f>
+        <v>0.0455001557424313</v>
+      </c>
+      <c r="X10" s="121" t="n">
+        <f aca="false">+X9/W9-1</f>
+        <v>0.0352273320068683</v>
+      </c>
+      <c r="Y10" s="121" t="n">
+        <f aca="false">+Y9/X9-1</f>
+        <v>0.0298729195481968</v>
+      </c>
+      <c r="Z10" s="123" t="n">
+        <f aca="false">+Z9/Y9-1</f>
+        <v>0.0247150939762715</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B11" s="113"/>
+      <c r="C11" s="124" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" s="125"/>
+      <c r="E11" s="125"/>
+      <c r="F11" s="125"/>
+      <c r="G11" s="125"/>
+      <c r="H11" s="125"/>
+      <c r="I11" s="125"/>
+      <c r="J11" s="125" t="n">
+        <v>15349.9019817637</v>
+      </c>
+      <c r="K11" s="126" t="n">
+        <v>16714.1629454385</v>
+      </c>
+      <c r="L11" s="126" t="n">
+        <v>17518.2367351344</v>
+      </c>
+      <c r="M11" s="126" t="n">
+        <v>17142.9473356716</v>
+      </c>
+      <c r="N11" s="126" t="n">
+        <v>17357.0500172351</v>
+      </c>
+      <c r="O11" s="126" t="n">
+        <v>16729.5491177609</v>
+      </c>
+      <c r="P11" s="126" t="n">
+        <v>16991.7569633036</v>
+      </c>
+      <c r="Q11" s="126" t="n">
+        <v>16449.4734460917</v>
+      </c>
+      <c r="R11" s="126" t="n">
+        <v>16720.8705337052</v>
+      </c>
+      <c r="S11" s="126" t="n">
+        <v>16106.4452068068</v>
+      </c>
+      <c r="T11" s="127" t="n">
+        <v>15590.3073385409</v>
+      </c>
+      <c r="U11" s="126" t="n">
+        <v>13688.8899038663</v>
+      </c>
+      <c r="V11" s="126" t="n">
+        <v>14303.5670005577</v>
+      </c>
+      <c r="W11" s="126" t="n">
+        <v>14782.9935958474</v>
+      </c>
+      <c r="X11" s="126" t="n">
+        <v>15128.0700323523</v>
+      </c>
+      <c r="Y11" s="126" t="n">
+        <v>15400.8248577787</v>
+      </c>
+      <c r="Z11" s="128" t="n">
+        <v>15599.6650676538</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="113"/>
+      <c r="C12" s="119" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="120"/>
+      <c r="E12" s="120"/>
+      <c r="F12" s="120"/>
+      <c r="G12" s="120"/>
+      <c r="H12" s="120"/>
+      <c r="I12" s="120"/>
+      <c r="J12" s="120"/>
+      <c r="K12" s="121" t="n">
+        <f aca="false">+K11/J11-1</f>
+        <v>0.088877503276281</v>
+      </c>
+      <c r="L12" s="121" t="n">
+        <f aca="false">+L11/K11-1</f>
+        <v>0.0481073322260104</v>
+      </c>
+      <c r="M12" s="121" t="n">
+        <f aca="false">+M11/L11-1</f>
+        <v>-0.0214227838758495</v>
+      </c>
+      <c r="N12" s="121" t="n">
+        <f aca="false">+N11/M11-1</f>
+        <v>0.0124892573821256</v>
+      </c>
+      <c r="O12" s="121" t="n">
+        <f aca="false">+O11/N11-1</f>
+        <v>-0.0361525085686246</v>
+      </c>
+      <c r="P12" s="121" t="n">
+        <f aca="false">+P11/O11-1</f>
+        <v>0.015673336065247</v>
+      </c>
+      <c r="Q12" s="121" t="n">
+        <f aca="false">+Q11/P11-1</f>
+        <v>-0.0319145052735356</v>
+      </c>
+      <c r="R12" s="121" t="n">
+        <f aca="false">+R11/Q11-1</f>
+        <v>0.0164988313153605</v>
+      </c>
+      <c r="S12" s="121" t="n">
+        <f aca="false">+S11/R11-1</f>
+        <v>-0.0367460130535623</v>
+      </c>
+      <c r="T12" s="122" t="n">
+        <f aca="false">+T11/S11-1</f>
+        <v>-0.0320454241540347</v>
+      </c>
+      <c r="U12" s="121" t="n">
+        <f aca="false">+U11/T11-1</f>
+        <v>-0.121961510660801</v>
+      </c>
+      <c r="V12" s="121" t="n">
+        <f aca="false">+V11/U11-1</f>
+        <v>0.0449033560068142</v>
+      </c>
+      <c r="W12" s="121" t="n">
+        <f aca="false">+W11/V11-1</f>
+        <v>0.0335179745913068</v>
+      </c>
+      <c r="X12" s="121" t="n">
+        <f aca="false">+X11/W11-1</f>
+        <v>0.0233427982138736</v>
+      </c>
+      <c r="Y12" s="121" t="n">
+        <f aca="false">+Y11/X11-1</f>
+        <v>0.018029717263542</v>
+      </c>
+      <c r="Z12" s="123" t="n">
+        <f aca="false">+Z11/Y11-1</f>
+        <v>0.0129110103979073</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B13" s="113"/>
+      <c r="C13" s="124" t="s">
         <v>47</v>
       </c>
-      <c r="D8" s="127"/>
-      <c r="E8" s="127"/>
-      <c r="F8" s="127"/>
-      <c r="G8" s="127"/>
-      <c r="H8" s="127"/>
-      <c r="I8" s="127"/>
-      <c r="J8" s="127" t="n">
-        <v>608872.876412875</v>
-      </c>
-      <c r="K8" s="128" t="n">
-        <v>670523.679441799</v>
-      </c>
-      <c r="L8" s="128" t="n">
-        <v>710781.597220602</v>
-      </c>
-      <c r="M8" s="128" t="n">
-        <v>703485.98945895</v>
-      </c>
-      <c r="N8" s="128" t="n">
-        <v>720407.105302816</v>
-      </c>
-      <c r="O8" s="128" t="n">
-        <v>702306.045963366</v>
-      </c>
-      <c r="P8" s="128" t="n">
-        <v>721487.14663804</v>
-      </c>
-      <c r="Q8" s="128" t="n">
-        <v>706477.848597662</v>
-      </c>
-      <c r="R8" s="128" t="n">
-        <v>726389.947762824</v>
-      </c>
-      <c r="S8" s="128" t="n">
-        <v>707755.489603643</v>
-      </c>
-      <c r="T8" s="129" t="n">
-        <v>692977.449783545</v>
-      </c>
-      <c r="U8" s="128" t="n">
-        <v>615491.229293968</v>
-      </c>
-      <c r="V8" s="128" t="n">
-        <v>650572.349334066</v>
-      </c>
-      <c r="W8" s="128" t="n">
-        <v>680173.492550486</v>
-      </c>
-      <c r="X8" s="128" t="n">
-        <v>704134.189994833</v>
-      </c>
-      <c r="Y8" s="128" t="n">
-        <v>725168.734003683</v>
-      </c>
-      <c r="Z8" s="130" t="n">
-        <v>743091.347413238</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="115"/>
-      <c r="C9" s="121" t="s">
-        <v>48</v>
-      </c>
-      <c r="D9" s="122"/>
-      <c r="E9" s="122"/>
-      <c r="F9" s="122"/>
-      <c r="G9" s="122"/>
-      <c r="H9" s="122"/>
-      <c r="I9" s="122"/>
-      <c r="J9" s="122"/>
-      <c r="K9" s="123" t="n">
-        <f aca="false">+K8/J8-1</f>
-        <v>0.101253981606365</v>
-      </c>
-      <c r="L9" s="123" t="n">
-        <f aca="false">+L8/K8-1</f>
-        <v>0.0600395168927024</v>
-      </c>
-      <c r="M9" s="123" t="n">
-        <f aca="false">+M8/L8-1</f>
-        <v>-0.0102642046307625</v>
-      </c>
-      <c r="N9" s="123" t="n">
-        <f aca="false">+N8/M8-1</f>
-        <v>0.0240532378717031</v>
-      </c>
-      <c r="O9" s="123" t="n">
-        <f aca="false">+O8/N8-1</f>
-        <v>-0.025126153262802</v>
-      </c>
-      <c r="P9" s="123" t="n">
-        <f aca="false">+P8/O8-1</f>
-        <v>0.0273115983906453</v>
-      </c>
-      <c r="Q9" s="123" t="n">
-        <f aca="false">+Q8/P8-1</f>
-        <v>-0.0208032784926491</v>
-      </c>
-      <c r="R9" s="123" t="n">
-        <f aca="false">+R8/Q8-1</f>
-        <v>0.0281850297283734</v>
-      </c>
-      <c r="S9" s="123" t="n">
-        <f aca="false">+S8/R8-1</f>
-        <v>-0.0256535187698731</v>
-      </c>
-      <c r="T9" s="124" t="n">
-        <f aca="false">+T8/S8-1</f>
-        <v>-0.0208801486349114</v>
-      </c>
-      <c r="U9" s="123" t="n">
-        <f aca="false">+U8/T8-1</f>
-        <v>-0.111816366483181</v>
-      </c>
-      <c r="V9" s="123" t="n">
-        <f aca="false">+V8/U8-1</f>
-        <v>0.0569969454809944</v>
-      </c>
-      <c r="W9" s="123" t="n">
-        <f aca="false">+W8/V8-1</f>
-        <v>0.0455001557424313</v>
-      </c>
-      <c r="X9" s="123" t="n">
-        <f aca="false">+X8/W8-1</f>
-        <v>0.0352273320068683</v>
-      </c>
-      <c r="Y9" s="123" t="n">
-        <f aca="false">+Y8/X8-1</f>
-        <v>0.0298729195481968</v>
-      </c>
-      <c r="Z9" s="125" t="n">
-        <f aca="false">+Z8/Y8-1</f>
-        <v>0.0247150939762715</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B10" s="115"/>
-      <c r="C10" s="126" t="s">
-        <v>49</v>
-      </c>
-      <c r="D10" s="127"/>
-      <c r="E10" s="127"/>
-      <c r="F10" s="127"/>
-      <c r="G10" s="127"/>
-      <c r="H10" s="127"/>
-      <c r="I10" s="127"/>
-      <c r="J10" s="127" t="n">
-        <v>15349.9019817637</v>
-      </c>
-      <c r="K10" s="128" t="n">
-        <v>16714.1629454385</v>
-      </c>
-      <c r="L10" s="128" t="n">
-        <v>17518.2367351344</v>
-      </c>
-      <c r="M10" s="128" t="n">
-        <v>17142.9473356716</v>
-      </c>
-      <c r="N10" s="128" t="n">
-        <v>17357.0500172351</v>
-      </c>
-      <c r="O10" s="128" t="n">
-        <v>16729.5491177609</v>
-      </c>
-      <c r="P10" s="128" t="n">
-        <v>16991.7569633036</v>
-      </c>
-      <c r="Q10" s="128" t="n">
-        <v>16449.4734460917</v>
-      </c>
-      <c r="R10" s="128" t="n">
-        <v>16720.8705337052</v>
-      </c>
-      <c r="S10" s="128" t="n">
-        <v>16106.4452068068</v>
-      </c>
-      <c r="T10" s="129" t="n">
-        <v>15590.3073385409</v>
-      </c>
-      <c r="U10" s="128" t="n">
-        <v>13688.8899038663</v>
-      </c>
-      <c r="V10" s="128" t="n">
-        <v>14303.5670005577</v>
-      </c>
-      <c r="W10" s="128" t="n">
-        <v>14782.9935958474</v>
-      </c>
-      <c r="X10" s="128" t="n">
-        <v>15128.0700323523</v>
-      </c>
-      <c r="Y10" s="128" t="n">
-        <v>15400.8248577787</v>
-      </c>
-      <c r="Z10" s="130" t="n">
-        <v>15599.6650676538</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="115"/>
-      <c r="C11" s="121" t="s">
-        <v>50</v>
-      </c>
-      <c r="D11" s="122"/>
-      <c r="E11" s="122"/>
-      <c r="F11" s="122"/>
-      <c r="G11" s="122"/>
-      <c r="H11" s="122"/>
-      <c r="I11" s="122"/>
-      <c r="J11" s="122"/>
-      <c r="K11" s="123" t="n">
-        <f aca="false">+K10/J10-1</f>
-        <v>0.088877503276281</v>
-      </c>
-      <c r="L11" s="123" t="n">
-        <f aca="false">+L10/K10-1</f>
-        <v>0.0481073322260104</v>
-      </c>
-      <c r="M11" s="123" t="n">
-        <f aca="false">+M10/L10-1</f>
-        <v>-0.0214227838758495</v>
-      </c>
-      <c r="N11" s="123" t="n">
-        <f aca="false">+N10/M10-1</f>
-        <v>0.0124892573821256</v>
-      </c>
-      <c r="O11" s="123" t="n">
-        <f aca="false">+O10/N10-1</f>
-        <v>-0.0361525085686246</v>
-      </c>
-      <c r="P11" s="123" t="n">
-        <f aca="false">+P10/O10-1</f>
-        <v>0.015673336065247</v>
-      </c>
-      <c r="Q11" s="123" t="n">
-        <f aca="false">+Q10/P10-1</f>
-        <v>-0.0319145052735356</v>
-      </c>
-      <c r="R11" s="123" t="n">
-        <f aca="false">+R10/Q10-1</f>
-        <v>0.0164988313153605</v>
-      </c>
-      <c r="S11" s="123" t="n">
-        <f aca="false">+S10/R10-1</f>
-        <v>-0.0367460130535623</v>
-      </c>
-      <c r="T11" s="124" t="n">
-        <f aca="false">+T10/S10-1</f>
-        <v>-0.0320454241540347</v>
-      </c>
-      <c r="U11" s="123" t="n">
-        <f aca="false">+U10/T10-1</f>
-        <v>-0.121961510660801</v>
-      </c>
-      <c r="V11" s="123" t="n">
-        <f aca="false">+V10/U10-1</f>
-        <v>0.0449033560068142</v>
-      </c>
-      <c r="W11" s="123" t="n">
-        <f aca="false">+W10/V10-1</f>
-        <v>0.0335179745913068</v>
-      </c>
-      <c r="X11" s="123" t="n">
-        <f aca="false">+X10/W10-1</f>
-        <v>0.0233427982138736</v>
-      </c>
-      <c r="Y11" s="123" t="n">
-        <f aca="false">+Y10/X10-1</f>
-        <v>0.018029717263542</v>
-      </c>
-      <c r="Z11" s="125" t="n">
-        <f aca="false">+Z10/Y10-1</f>
-        <v>0.0129110103979073</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B12" s="115"/>
-      <c r="C12" s="126" t="s">
-        <v>45</v>
-      </c>
-      <c r="D12" s="127"/>
-      <c r="E12" s="127"/>
-      <c r="F12" s="127"/>
-      <c r="G12" s="127"/>
-      <c r="H12" s="127"/>
-      <c r="I12" s="127"/>
-      <c r="J12" s="127" t="n">
-        <f aca="false">J6/J17</f>
+      <c r="D13" s="125"/>
+      <c r="E13" s="125"/>
+      <c r="F13" s="125"/>
+      <c r="G13" s="125"/>
+      <c r="H13" s="125"/>
+      <c r="I13" s="125"/>
+      <c r="J13" s="125" t="n">
+        <f aca="false">J7/J18</f>
         <v>334632.773057591</v>
       </c>
-      <c r="K12" s="128" t="n">
-        <f aca="false">K6/K17</f>
+      <c r="K13" s="126" t="n">
+        <f aca="false">K7/K18</f>
         <v>424728.240552235</v>
       </c>
-      <c r="L12" s="128" t="n">
-        <f aca="false">L6/L17</f>
+      <c r="L13" s="126" t="n">
+        <f aca="false">L7/L18</f>
         <v>527643.875471316</v>
       </c>
-      <c r="M12" s="128" t="n">
-        <f aca="false">M6/M17</f>
+      <c r="M13" s="126" t="n">
+        <f aca="false">M7/M18</f>
         <v>579665.736024953</v>
       </c>
-      <c r="N12" s="128" t="n">
-        <f aca="false">N6/N17</f>
+      <c r="N13" s="126" t="n">
+        <f aca="false">N7/N18</f>
         <v>611470.124162632</v>
       </c>
-      <c r="O12" s="128" t="n">
-        <f aca="false">O6/O17</f>
+      <c r="O13" s="126" t="n">
+        <f aca="false">O7/O18</f>
         <v>563613.973614006</v>
       </c>
-      <c r="P12" s="128" t="n">
-        <f aca="false">P6/P17</f>
+      <c r="P13" s="126" t="n">
+        <f aca="false">P7/P18</f>
         <v>642463.922483571</v>
       </c>
-      <c r="Q12" s="128" t="n">
-        <f aca="false">Q6/Q17</f>
+      <c r="Q13" s="126" t="n">
+        <f aca="false">Q7/Q18</f>
         <v>556805.245742913</v>
       </c>
-      <c r="R12" s="128" t="n">
-        <f aca="false">R6/R17</f>
+      <c r="R13" s="126" t="n">
+        <f aca="false">R7/R18</f>
         <v>643861.262436803</v>
       </c>
-      <c r="S12" s="128" t="n">
-        <f aca="false">S6/S17</f>
+      <c r="S13" s="126" t="n">
+        <f aca="false">S7/S18</f>
         <v>517305.760105542</v>
       </c>
-      <c r="T12" s="129" t="n">
-        <f aca="false">T6/T17</f>
+      <c r="T13" s="127" t="n">
+        <f aca="false">T7/T18</f>
         <v>444457.834932312</v>
       </c>
-      <c r="U12" s="128" t="n">
-        <f aca="false">U6/U17</f>
+      <c r="U13" s="126" t="n">
+        <f aca="false">U7/U18</f>
         <v>379420.291443739</v>
       </c>
-      <c r="V12" s="128" t="n">
-        <f aca="false">V6/V17</f>
+      <c r="V13" s="126" t="n">
+        <f aca="false">V7/V18</f>
         <v>408447.888210319</v>
       </c>
-      <c r="W12" s="128" t="n">
-        <f aca="false">W6/W17</f>
+      <c r="W13" s="126" t="n">
+        <f aca="false">W7/W18</f>
         <v>427528.910706018</v>
       </c>
-      <c r="X12" s="128" t="n">
-        <f aca="false">X6/X17</f>
+      <c r="X13" s="126" t="n">
+        <f aca="false">X7/X18</f>
         <v>444864.600823374</v>
       </c>
-      <c r="Y12" s="128" t="n">
-        <f aca="false">Y6/Y17</f>
+      <c r="Y13" s="126" t="n">
+        <f aca="false">Y7/Y18</f>
         <v>465614.127959192</v>
       </c>
-      <c r="Z12" s="130" t="n">
-        <f aca="false">Z6/Z17</f>
+      <c r="Z13" s="128" t="n">
+        <f aca="false">Z7/Z18</f>
         <v>484917.637566069</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="115"/>
-      <c r="C13" s="121" t="s">
-        <v>51</v>
-      </c>
-      <c r="D13" s="122"/>
-      <c r="E13" s="122"/>
-      <c r="F13" s="122"/>
-      <c r="G13" s="122"/>
-      <c r="H13" s="122"/>
-      <c r="I13" s="122"/>
-      <c r="J13" s="122"/>
-      <c r="K13" s="123" t="n">
-        <f aca="false">+K12/J12-1</f>
+    <row r="14" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="113"/>
+      <c r="C14" s="119" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" s="120"/>
+      <c r="E14" s="120"/>
+      <c r="F14" s="120"/>
+      <c r="G14" s="120"/>
+      <c r="H14" s="120"/>
+      <c r="I14" s="120"/>
+      <c r="J14" s="120"/>
+      <c r="K14" s="121" t="n">
+        <f aca="false">+K13/J13-1</f>
         <v>0.269236831382139</v>
       </c>
-      <c r="L13" s="123" t="n">
-        <f aca="false">+L12/K12-1</f>
+      <c r="L14" s="121" t="n">
+        <f aca="false">+L13/K13-1</f>
         <v>0.24230937595595</v>
       </c>
-      <c r="M13" s="123" t="n">
-        <f aca="false">+M12/L12-1</f>
+      <c r="M14" s="121" t="n">
+        <f aca="false">+M13/L13-1</f>
         <v>0.0985927497162136</v>
       </c>
-      <c r="N13" s="123" t="n">
-        <f aca="false">+N12/M12-1</f>
+      <c r="N14" s="121" t="n">
+        <f aca="false">+N13/M13-1</f>
         <v>0.0548667726261982</v>
       </c>
-      <c r="O13" s="123" t="n">
-        <f aca="false">+O12/N12-1</f>
+      <c r="O14" s="121" t="n">
+        <f aca="false">+O13/N13-1</f>
         <v>-0.078264086269401</v>
       </c>
-      <c r="P13" s="123" t="n">
-        <f aca="false">+P12/O12-1</f>
+      <c r="P14" s="121" t="n">
+        <f aca="false">+P13/O13-1</f>
         <v>0.13990062802021</v>
       </c>
-      <c r="Q13" s="123" t="n">
-        <f aca="false">+Q12/P12-1</f>
+      <c r="Q14" s="121" t="n">
+        <f aca="false">+Q13/P13-1</f>
         <v>-0.133328384276472</v>
       </c>
-      <c r="R13" s="123" t="n">
-        <f aca="false">+R12/Q12-1</f>
+      <c r="R14" s="121" t="n">
+        <f aca="false">+R13/Q13-1</f>
         <v>0.156349131692782</v>
       </c>
-      <c r="S13" s="123" t="n">
-        <f aca="false">+S12/R12-1</f>
+      <c r="S14" s="121" t="n">
+        <f aca="false">+S13/R13-1</f>
         <v>-0.196557099665059</v>
       </c>
-      <c r="T13" s="124" t="n">
-        <f aca="false">+T12/S12-1</f>
+      <c r="T14" s="122" t="n">
+        <f aca="false">+T13/S13-1</f>
         <v>-0.140821793978029</v>
       </c>
-      <c r="U13" s="123" t="n">
-        <f aca="false">+U12/T12-1</f>
+      <c r="U14" s="121" t="n">
+        <f aca="false">+U13/T13-1</f>
         <v>-0.146330064129654</v>
       </c>
-      <c r="V13" s="123" t="n">
-        <f aca="false">+V12/U12-1</f>
+      <c r="V14" s="121" t="n">
+        <f aca="false">+V13/U13-1</f>
         <v>0.0765051248475033</v>
       </c>
-      <c r="W13" s="123" t="n">
-        <f aca="false">+W12/V12-1</f>
+      <c r="W14" s="121" t="n">
+        <f aca="false">+W13/V13-1</f>
         <v>0.0467159288772578</v>
       </c>
-      <c r="X13" s="123" t="n">
-        <f aca="false">+X12/W12-1</f>
+      <c r="X14" s="121" t="n">
+        <f aca="false">+X13/W13-1</f>
         <v>0.0405485797176337</v>
       </c>
-      <c r="Y13" s="123" t="n">
-        <f aca="false">+Y12/X12-1</f>
+      <c r="Y14" s="121" t="n">
+        <f aca="false">+Y13/X13-1</f>
         <v>0.0466423426305767</v>
       </c>
-      <c r="Z13" s="125" t="n">
-        <f aca="false">+Z12/Y12-1</f>
+      <c r="Z14" s="123" t="n">
+        <f aca="false">+Z13/Y13-1</f>
         <v>0.0414581698615646</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B14" s="115"/>
-      <c r="C14" s="126" t="s">
-        <v>52</v>
-      </c>
-      <c r="D14" s="127"/>
-      <c r="E14" s="127"/>
-      <c r="F14" s="127"/>
-      <c r="G14" s="127"/>
-      <c r="H14" s="127"/>
-      <c r="I14" s="127"/>
-      <c r="J14" s="127" t="n">
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B15" s="113"/>
+      <c r="C15" s="124" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" s="125"/>
+      <c r="E15" s="125"/>
+      <c r="F15" s="125"/>
+      <c r="G15" s="125"/>
+      <c r="H15" s="125"/>
+      <c r="I15" s="125"/>
+      <c r="J15" s="125" t="n">
         <v>8436.21134280368</v>
       </c>
-      <c r="K14" s="128" t="n">
+      <c r="K15" s="126" t="n">
         <v>10587.2130064508</v>
       </c>
-      <c r="L14" s="128" t="n">
+      <c r="L15" s="126" t="n">
         <v>13004.5436720577</v>
       </c>
-      <c r="M14" s="128" t="n">
+      <c r="M15" s="126" t="n">
         <v>14125.624865126</v>
       </c>
-      <c r="N14" s="128" t="n">
+      <c r="N15" s="126" t="n">
         <v>14732.3887438263</v>
       </c>
-      <c r="O14" s="128" t="n">
+      <c r="O15" s="126" t="n">
         <v>13425.7816933613</v>
       </c>
-      <c r="P14" s="128" t="n">
+      <c r="P15" s="126" t="n">
         <v>15130.6795684446</v>
       </c>
-      <c r="Q14" s="128" t="n">
+      <c r="Q15" s="126" t="n">
         <v>12964.5297763734</v>
       </c>
-      <c r="R14" s="128" t="n">
+      <c r="R15" s="126" t="n">
         <v>14821.1313276447</v>
       </c>
-      <c r="S14" s="128" t="n">
+      <c r="S15" s="126" t="n">
         <v>11772.3663082733</v>
       </c>
-      <c r="T14" s="129" t="n">
+      <c r="T15" s="127" t="n">
         <v>9999.22038990101</v>
       </c>
-      <c r="U14" s="128" t="n">
+      <c r="U15" s="126" t="n">
         <v>8438.53226442249</v>
       </c>
-      <c r="V14" s="128" t="n">
+      <c r="V15" s="126" t="n">
         <v>8980.18758595073</v>
       </c>
-      <c r="W14" s="128" t="n">
+      <c r="W15" s="126" t="n">
         <v>9291.97802946957</v>
       </c>
-      <c r="X14" s="128" t="n">
+      <c r="X15" s="126" t="n">
         <v>9557.75608086838</v>
       </c>
-      <c r="Y14" s="128" t="n">
+      <c r="Y15" s="126" t="n">
         <v>9888.51463081756</v>
       </c>
-      <c r="Z14" s="130" t="n">
+      <c r="Z15" s="128" t="n">
         <v>10179.8423003598</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="115"/>
-      <c r="C15" s="131" t="s">
-        <v>53</v>
-      </c>
-      <c r="D15" s="132"/>
-      <c r="E15" s="132"/>
-      <c r="F15" s="132"/>
-      <c r="G15" s="132"/>
-      <c r="H15" s="132"/>
-      <c r="I15" s="132"/>
-      <c r="J15" s="132"/>
-      <c r="K15" s="123" t="n">
-        <f aca="false">+K14/J14-1</f>
+    <row r="16" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="113"/>
+      <c r="C16" s="129" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16" s="130"/>
+      <c r="E16" s="130"/>
+      <c r="F16" s="130"/>
+      <c r="G16" s="130"/>
+      <c r="H16" s="130"/>
+      <c r="I16" s="130"/>
+      <c r="J16" s="130"/>
+      <c r="K16" s="121" t="n">
+        <f aca="false">+K15/J15-1</f>
         <v>0.254972472386195</v>
       </c>
-      <c r="L15" s="123" t="n">
-        <f aca="false">+L14/K14-1</f>
+      <c r="L16" s="121" t="n">
+        <f aca="false">+L15/K15-1</f>
         <v>0.228325496439344</v>
       </c>
-      <c r="M15" s="123" t="n">
-        <f aca="false">+M14/L14-1</f>
+      <c r="M16" s="121" t="n">
+        <f aca="false">+M15/L15-1</f>
         <v>0.0862068844043369</v>
       </c>
-      <c r="N15" s="123" t="n">
-        <f aca="false">+N14/M14-1</f>
+      <c r="N16" s="121" t="n">
+        <f aca="false">+N15/M15-1</f>
         <v>0.0429548345290101</v>
       </c>
-      <c r="O15" s="123" t="n">
-        <f aca="false">+O14/N14-1</f>
+      <c r="O16" s="121" t="n">
+        <f aca="false">+O15/N15-1</f>
         <v>-0.0886894225495223</v>
       </c>
-      <c r="P15" s="123" t="n">
-        <f aca="false">+P14/O14-1</f>
+      <c r="P16" s="121" t="n">
+        <f aca="false">+P15/O15-1</f>
         <v>0.126986861102199</v>
       </c>
-      <c r="Q15" s="123" t="n">
-        <f aca="false">+Q14/P14-1</f>
+      <c r="Q16" s="121" t="n">
+        <f aca="false">+Q15/P15-1</f>
         <v>-0.143162756323834</v>
       </c>
-      <c r="R15" s="123" t="n">
-        <f aca="false">+R14/Q14-1</f>
+      <c r="R16" s="121" t="n">
+        <f aca="false">+R15/Q15-1</f>
         <v>0.143206239122904</v>
       </c>
-      <c r="S15" s="123" t="n">
-        <f aca="false">+S14/R14-1</f>
+      <c r="S16" s="121" t="n">
+        <f aca="false">+S15/R15-1</f>
         <v>-0.205703933928764</v>
       </c>
-      <c r="T15" s="124" t="n">
-        <f aca="false">+T14/S14-1</f>
+      <c r="T16" s="122" t="n">
+        <f aca="false">+T15/S15-1</f>
         <v>-0.150619329363392</v>
       </c>
-      <c r="U15" s="123" t="n">
-        <f aca="false">+U14/T14-1</f>
+      <c r="U16" s="121" t="n">
+        <f aca="false">+U15/T15-1</f>
         <v>-0.156080980778739</v>
       </c>
-      <c r="V15" s="123" t="n">
-        <f aca="false">+V14/U14-1</f>
+      <c r="V16" s="121" t="n">
+        <f aca="false">+V15/U15-1</f>
         <v>0.0641883332972375</v>
       </c>
-      <c r="W15" s="123" t="n">
-        <f aca="false">+W14/V14-1</f>
+      <c r="W16" s="121" t="n">
+        <f aca="false">+W15/V15-1</f>
         <v>0.0347198140945983</v>
       </c>
-      <c r="X15" s="123" t="n">
-        <f aca="false">+X14/W14-1</f>
+      <c r="X16" s="121" t="n">
+        <f aca="false">+X15/W15-1</f>
         <v>0.028602957363427</v>
       </c>
-      <c r="Y15" s="123" t="n">
-        <f aca="false">+Y14/X14-1</f>
+      <c r="Y16" s="121" t="n">
+        <f aca="false">+Y15/X15-1</f>
         <v>0.0346062974562875</v>
       </c>
-      <c r="Z15" s="125" t="n">
-        <f aca="false">+Z14/Y14-1</f>
+      <c r="Z16" s="123" t="n">
+        <f aca="false">+Z15/Y15-1</f>
         <v>0.0294612164130574</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B16" s="133"/>
-      <c r="C16" s="133"/>
-      <c r="D16" s="134"/>
-      <c r="E16" s="134"/>
-      <c r="F16" s="134"/>
-      <c r="G16" s="134"/>
-      <c r="H16" s="134"/>
-      <c r="I16" s="134"/>
-      <c r="J16" s="134"/>
-      <c r="K16" s="135"/>
-      <c r="L16" s="135"/>
-      <c r="M16" s="135"/>
-      <c r="N16" s="135"/>
-      <c r="O16" s="135"/>
-      <c r="P16" s="135"/>
-      <c r="Q16" s="135"/>
-      <c r="R16" s="135"/>
-      <c r="S16" s="135"/>
-      <c r="T16" s="136"/>
-      <c r="U16" s="135"/>
-      <c r="V16" s="135"/>
-      <c r="W16" s="135"/>
-      <c r="X16" s="135"/>
-      <c r="Y16" s="135"/>
-      <c r="Z16" s="135"/>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B17" s="115" t="s">
-        <v>54</v>
-      </c>
-      <c r="C17" s="116" t="s">
-        <v>55</v>
-      </c>
-      <c r="D17" s="137"/>
-      <c r="E17" s="137"/>
-      <c r="F17" s="137"/>
-      <c r="G17" s="137"/>
-      <c r="H17" s="137"/>
-      <c r="I17" s="137"/>
-      <c r="J17" s="137" t="n">
+    <row r="17" customFormat="false" ht="8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B17" s="131"/>
+      <c r="C17" s="131"/>
+      <c r="D17" s="132"/>
+      <c r="E17" s="132"/>
+      <c r="F17" s="132"/>
+      <c r="G17" s="132"/>
+      <c r="H17" s="132"/>
+      <c r="I17" s="132"/>
+      <c r="J17" s="132"/>
+      <c r="K17" s="133"/>
+      <c r="L17" s="133"/>
+      <c r="M17" s="133"/>
+      <c r="N17" s="133"/>
+      <c r="O17" s="133"/>
+      <c r="P17" s="133"/>
+      <c r="Q17" s="133"/>
+      <c r="R17" s="133"/>
+      <c r="S17" s="133"/>
+      <c r="T17" s="134"/>
+      <c r="U17" s="133"/>
+      <c r="V17" s="133"/>
+      <c r="W17" s="133"/>
+      <c r="X17" s="133"/>
+      <c r="Y17" s="133"/>
+      <c r="Z17" s="133"/>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B18" s="113" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" s="114" t="s">
+        <v>57</v>
+      </c>
+      <c r="D18" s="135"/>
+      <c r="E18" s="135"/>
+      <c r="F18" s="135"/>
+      <c r="G18" s="135"/>
+      <c r="H18" s="135"/>
+      <c r="I18" s="135"/>
+      <c r="J18" s="135" t="n">
         <v>3.72925</v>
       </c>
-      <c r="K17" s="138" t="n">
+      <c r="K18" s="136" t="n">
         <v>3.91243333333333</v>
       </c>
-      <c r="L17" s="138" t="n">
+      <c r="L18" s="136" t="n">
         <v>4.129725</v>
       </c>
-      <c r="M17" s="138" t="n">
+      <c r="M18" s="136" t="n">
         <v>4.55075</v>
       </c>
-      <c r="N17" s="138" t="n">
+      <c r="N18" s="136" t="n">
         <v>5.47583333333333</v>
       </c>
-      <c r="O17" s="138" t="n">
+      <c r="O18" s="136" t="n">
         <v>8.12450833333333</v>
       </c>
-      <c r="P17" s="138" t="n">
+      <c r="P18" s="136" t="n">
         <v>9.26824166666667</v>
       </c>
-      <c r="Q17" s="138" t="n">
+      <c r="Q18" s="136" t="n">
         <v>14.7774461886724</v>
       </c>
-      <c r="R17" s="138" t="n">
+      <c r="R18" s="136" t="n">
         <v>16.5567166666667</v>
       </c>
-      <c r="S17" s="138" t="n">
+      <c r="S18" s="136" t="n">
         <v>28.1124303451178</v>
       </c>
-      <c r="T17" s="139" t="n">
+      <c r="T18" s="137" t="n">
         <v>48.2548583333333</v>
       </c>
-      <c r="U17" s="138" t="n">
+      <c r="U18" s="136" t="n">
         <v>70.6563993686869</v>
       </c>
-      <c r="V17" s="138" t="n">
+      <c r="V18" s="136" t="n">
         <v>90.4168489051492</v>
       </c>
-      <c r="W17" s="138" t="n">
+      <c r="W18" s="136" t="n">
         <v>113.048903213621</v>
       </c>
-      <c r="X17" s="138" t="n">
+      <c r="X18" s="136" t="n">
         <v>136.033747831758</v>
       </c>
-      <c r="Y17" s="138" t="n">
+      <c r="Y18" s="136" t="n">
         <v>157.332823341271</v>
       </c>
-      <c r="Z17" s="140" t="n">
+      <c r="Z18" s="138" t="n">
         <v>178.161696145911</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="115"/>
-      <c r="C18" s="121" t="s">
-        <v>56</v>
-      </c>
-      <c r="D18" s="122"/>
-      <c r="E18" s="122"/>
-      <c r="F18" s="122"/>
-      <c r="G18" s="122"/>
-      <c r="H18" s="122"/>
-      <c r="I18" s="122"/>
-      <c r="J18" s="122"/>
-      <c r="K18" s="123" t="n">
-        <f aca="false">+K17/J17-1</f>
+    <row r="19" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="113"/>
+      <c r="C19" s="119" t="s">
+        <v>58</v>
+      </c>
+      <c r="D19" s="120"/>
+      <c r="E19" s="120"/>
+      <c r="F19" s="120"/>
+      <c r="G19" s="120"/>
+      <c r="H19" s="120"/>
+      <c r="I19" s="120"/>
+      <c r="J19" s="120"/>
+      <c r="K19" s="121" t="n">
+        <f aca="false">+K18/J18-1</f>
         <v>0.0491206900404462</v>
       </c>
-      <c r="L18" s="123" t="n">
-        <f aca="false">+L17/K17-1</f>
+      <c r="L19" s="121" t="n">
+        <f aca="false">+L18/K18-1</f>
         <v>0.0555387525240048</v>
       </c>
-      <c r="M18" s="123" t="n">
-        <f aca="false">+M17/L17-1</f>
+      <c r="M19" s="121" t="n">
+        <f aca="false">+M18/L18-1</f>
         <v>0.101949887704387</v>
       </c>
-      <c r="N18" s="123" t="n">
-        <f aca="false">+N17/M17-1</f>
+      <c r="N19" s="121" t="n">
+        <f aca="false">+N18/M18-1</f>
         <v>0.203281510373748</v>
       </c>
-      <c r="O18" s="123" t="n">
-        <f aca="false">+O17/N17-1</f>
+      <c r="O19" s="121" t="n">
+        <f aca="false">+O18/N18-1</f>
         <v>0.483702632780399</v>
       </c>
-      <c r="P18" s="123" t="n">
-        <f aca="false">+P17/O17-1</f>
+      <c r="P19" s="121" t="n">
+        <f aca="false">+P18/O18-1</f>
         <v>0.140775698221739</v>
       </c>
-      <c r="Q18" s="123" t="n">
-        <f aca="false">+Q17/P17-1</f>
+      <c r="Q19" s="121" t="n">
+        <f aca="false">+Q18/P18-1</f>
         <v>0.594417444014185</v>
       </c>
-      <c r="R18" s="123" t="n">
-        <f aca="false">+R17/Q17-1</f>
+      <c r="R19" s="121" t="n">
+        <f aca="false">+R18/Q18-1</f>
         <v>0.120404463347538</v>
       </c>
-      <c r="S18" s="123" t="n">
-        <f aca="false">+S17/R17-1</f>
+      <c r="S19" s="121" t="n">
+        <f aca="false">+S18/R18-1</f>
         <v>0.697947178241933</v>
       </c>
-      <c r="T18" s="124" t="n">
-        <f aca="false">+T17/S17-1</f>
+      <c r="T19" s="122" t="n">
+        <f aca="false">+T18/S18-1</f>
         <v>0.716495434259512</v>
       </c>
-      <c r="U18" s="123" t="n">
-        <f aca="false">+U17/T17-1</f>
+      <c r="U19" s="121" t="n">
+        <f aca="false">+U18/T18-1</f>
         <v>0.464233899115585</v>
       </c>
-      <c r="V18" s="123" t="n">
-        <f aca="false">+V17/U17-1</f>
+      <c r="V19" s="121" t="n">
+        <f aca="false">+V18/U18-1</f>
         <v>0.279669636622039</v>
       </c>
-      <c r="W18" s="123" t="n">
-        <f aca="false">+W17/V17-1</f>
+      <c r="W19" s="121" t="n">
+        <f aca="false">+W18/V18-1</f>
         <v>0.250307930242223</v>
       </c>
-      <c r="X18" s="123" t="n">
-        <f aca="false">+X17/W17-1</f>
+      <c r="X19" s="121" t="n">
+        <f aca="false">+X18/W18-1</f>
         <v>0.203317714411645</v>
       </c>
-      <c r="Y18" s="123" t="n">
-        <f aca="false">+Y17/X17-1</f>
+      <c r="Y19" s="121" t="n">
+        <f aca="false">+Y18/X18-1</f>
         <v>0.15657199664789</v>
       </c>
-      <c r="Z18" s="125" t="n">
-        <f aca="false">+Z17/Y17-1</f>
+      <c r="Z19" s="123" t="n">
+        <f aca="false">+Z18/Y18-1</f>
         <v>0.132387332549544</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B19" s="115"/>
-      <c r="C19" s="126" t="s">
-        <v>57</v>
-      </c>
-      <c r="D19" s="141"/>
-      <c r="E19" s="141"/>
-      <c r="F19" s="141"/>
-      <c r="G19" s="141"/>
-      <c r="H19" s="141"/>
-      <c r="I19" s="141"/>
-      <c r="J19" s="141" t="n">
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B20" s="113"/>
+      <c r="C20" s="124" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" s="139"/>
+      <c r="E20" s="139"/>
+      <c r="F20" s="139"/>
+      <c r="G20" s="139"/>
+      <c r="H20" s="139"/>
+      <c r="I20" s="139"/>
+      <c r="J20" s="139" t="n">
         <v>3.807</v>
       </c>
-      <c r="K19" s="142" t="n">
+      <c r="K20" s="140" t="n">
         <v>3.9776</v>
       </c>
-      <c r="L19" s="142" t="n">
+      <c r="L20" s="140" t="n">
         <v>4.2888</v>
       </c>
-      <c r="M19" s="142" t="n">
+      <c r="M20" s="140" t="n">
         <v>4.88</v>
       </c>
-      <c r="N19" s="142" t="n">
+      <c r="N20" s="140" t="n">
         <v>6.3192</v>
       </c>
-      <c r="O19" s="142" t="n">
+      <c r="O20" s="140" t="n">
         <v>8.5495</v>
       </c>
-      <c r="P19" s="142" t="n">
+      <c r="P20" s="140" t="n">
         <v>11.4278</v>
       </c>
-      <c r="Q19" s="142" t="n">
+      <c r="Q20" s="140" t="n">
         <v>15.8296</v>
       </c>
-      <c r="R19" s="142" t="n">
+      <c r="R20" s="140" t="n">
         <v>17.7001</v>
       </c>
-      <c r="S19" s="142" t="n">
+      <c r="S20" s="140" t="n">
         <v>37.8852</v>
       </c>
-      <c r="T19" s="143" t="n">
+      <c r="T20" s="141" t="n">
         <v>59.8832</v>
       </c>
-      <c r="U19" s="142" t="n">
+      <c r="U20" s="140" t="n">
         <v>81.4</v>
       </c>
-      <c r="V19" s="142" t="n">
+      <c r="V20" s="140" t="n">
         <v>102.4</v>
       </c>
-      <c r="W19" s="142" t="n">
+      <c r="W20" s="140" t="n">
         <v>124.8</v>
       </c>
-      <c r="X19" s="142" t="n">
+      <c r="X20" s="140" t="n">
         <v>146.6</v>
       </c>
-      <c r="Y19" s="142" t="n">
+      <c r="Y20" s="140" t="n">
         <v>166.8132157387</v>
       </c>
-      <c r="Z19" s="144" t="n">
+      <c r="Z20" s="142" t="n">
         <v>188.156766242959</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="115"/>
-      <c r="C20" s="121" t="s">
-        <v>56</v>
-      </c>
-      <c r="D20" s="122"/>
-      <c r="E20" s="122"/>
-      <c r="F20" s="122"/>
-      <c r="G20" s="122"/>
-      <c r="H20" s="122"/>
-      <c r="I20" s="122"/>
-      <c r="J20" s="122"/>
-      <c r="K20" s="123" t="n">
-        <f aca="false">+K19/J19-1</f>
+    <row r="21" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="113"/>
+      <c r="C21" s="119" t="s">
+        <v>58</v>
+      </c>
+      <c r="D21" s="120"/>
+      <c r="E21" s="120"/>
+      <c r="F21" s="120"/>
+      <c r="G21" s="120"/>
+      <c r="H21" s="120"/>
+      <c r="I21" s="120"/>
+      <c r="J21" s="120"/>
+      <c r="K21" s="121" t="n">
+        <f aca="false">+K20/J20-1</f>
         <v>0.0448121880745993</v>
       </c>
-      <c r="L20" s="123" t="n">
-        <f aca="false">+L19/K19-1</f>
+      <c r="L21" s="121" t="n">
+        <f aca="false">+L20/K20-1</f>
         <v>0.0782381335478681</v>
       </c>
-      <c r="M20" s="123" t="n">
-        <f aca="false">+M19/L19-1</f>
+      <c r="M21" s="121" t="n">
+        <f aca="false">+M20/L20-1</f>
         <v>0.137847416526767</v>
       </c>
-      <c r="N20" s="123" t="n">
-        <f aca="false">+N19/M19-1</f>
+      <c r="N21" s="121" t="n">
+        <f aca="false">+N20/M20-1</f>
         <v>0.294918032786885</v>
       </c>
-      <c r="O20" s="123" t="n">
-        <f aca="false">+O19/N19-1</f>
+      <c r="O21" s="121" t="n">
+        <f aca="false">+O20/N20-1</f>
         <v>0.352940245600709</v>
       </c>
-      <c r="P20" s="123" t="n">
-        <f aca="false">+P19/O19-1</f>
+      <c r="P21" s="121" t="n">
+        <f aca="false">+P20/O20-1</f>
         <v>0.336662962746359</v>
       </c>
-      <c r="Q20" s="123" t="n">
-        <f aca="false">+Q19/P19-1</f>
+      <c r="Q21" s="121" t="n">
+        <f aca="false">+Q20/P20-1</f>
         <v>0.385183499886242</v>
       </c>
-      <c r="R20" s="123" t="n">
-        <f aca="false">+R19/Q19-1</f>
+      <c r="R21" s="121" t="n">
+        <f aca="false">+R20/Q20-1</f>
         <v>0.118164704098651</v>
       </c>
-      <c r="S20" s="123" t="n">
-        <f aca="false">+S19/R19-1</f>
+      <c r="S21" s="121" t="n">
+        <f aca="false">+S20/R20-1</f>
         <v>1.14039468703567</v>
       </c>
-      <c r="T20" s="124" t="n">
-        <f aca="false">+T19/S19-1</f>
+      <c r="T21" s="122" t="n">
+        <f aca="false">+T20/S20-1</f>
         <v>0.580648907752895</v>
       </c>
-      <c r="U20" s="123" t="n">
-        <f aca="false">+U19/T19-1</f>
+      <c r="U21" s="121" t="n">
+        <f aca="false">+U20/T20-1</f>
         <v>0.359312795575387</v>
       </c>
-      <c r="V20" s="123" t="n">
-        <f aca="false">+V19/U19-1</f>
+      <c r="V21" s="121" t="n">
+        <f aca="false">+V20/U20-1</f>
         <v>0.257985257985258</v>
       </c>
-      <c r="W20" s="123" t="n">
-        <f aca="false">+W19/V19-1</f>
+      <c r="W21" s="121" t="n">
+        <f aca="false">+W20/V20-1</f>
         <v>0.21875</v>
       </c>
-      <c r="X20" s="123" t="n">
-        <f aca="false">+X19/W19-1</f>
+      <c r="X21" s="121" t="n">
+        <f aca="false">+X20/W20-1</f>
         <v>0.174679487179487</v>
       </c>
-      <c r="Y20" s="123" t="n">
-        <f aca="false">+Y19/X19-1</f>
+      <c r="Y21" s="121" t="n">
+        <f aca="false">+Y20/X20-1</f>
         <v>0.137880052787856</v>
       </c>
-      <c r="Z20" s="125" t="n">
-        <f aca="false">+Z19/Y19-1</f>
+      <c r="Z21" s="123" t="n">
+        <f aca="false">+Z20/Y20-1</f>
         <v>0.127948798359552</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B21" s="115"/>
-      <c r="C21" s="126" t="s">
-        <v>58</v>
-      </c>
-      <c r="D21" s="141"/>
-      <c r="E21" s="141"/>
-      <c r="F21" s="141"/>
-      <c r="G21" s="141"/>
-      <c r="H21" s="141"/>
-      <c r="I21" s="141"/>
-      <c r="J21" s="141" t="n">
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B22" s="113"/>
+      <c r="C22" s="124" t="s">
+        <v>60</v>
+      </c>
+      <c r="D22" s="139"/>
+      <c r="E22" s="139"/>
+      <c r="F22" s="139"/>
+      <c r="G22" s="139"/>
+      <c r="H22" s="139"/>
+      <c r="I22" s="139"/>
+      <c r="J22" s="139" t="n">
         <v>15.9764615663015</v>
       </c>
-      <c r="K21" s="142" t="n">
+      <c r="K22" s="140" t="n">
         <v>19.7622050563663</v>
       </c>
-      <c r="L21" s="142" t="n">
+      <c r="L22" s="140" t="n">
         <v>24.6589905419079</v>
       </c>
-      <c r="M21" s="142" t="n">
+      <c r="M22" s="140" t="n">
         <v>31.0371919033548</v>
       </c>
-      <c r="N21" s="142" t="n">
+      <c r="N22" s="140" t="n">
         <v>37.5306040347735</v>
       </c>
-      <c r="O21" s="142" t="n">
+      <c r="O22" s="140" t="n">
         <v>52.002966806338</v>
       </c>
-      <c r="P21" s="142" t="n">
+      <c r="P22" s="140" t="n">
         <v>66.1083033380949</v>
       </c>
-      <c r="Q21" s="142" t="n">
+      <c r="Q22" s="140" t="n">
         <v>90.7075699755002</v>
       </c>
-      <c r="R21" s="142" t="n">
+      <c r="R22" s="140" t="n">
         <v>112.887108333333</v>
       </c>
-      <c r="S21" s="142" t="n">
+      <c r="S22" s="140" t="n">
         <v>151.581675</v>
       </c>
-      <c r="T21" s="143" t="n">
+      <c r="T22" s="141" t="n">
         <v>232.751091666667</v>
       </c>
-      <c r="U21" s="142" t="n">
+      <c r="U22" s="140" t="n">
         <v>329.13602041049</v>
       </c>
-      <c r="V21" s="142" t="n">
+      <c r="V22" s="140" t="n">
         <v>431.999533210302</v>
       </c>
-      <c r="W21" s="142" t="n">
+      <c r="W22" s="140" t="n">
         <v>545.108126118721</v>
       </c>
-      <c r="X21" s="142" t="n">
+      <c r="X22" s="140" t="n">
         <v>663.678402157269</v>
       </c>
-      <c r="Y21" s="142" t="n">
+      <c r="Y22" s="140" t="n">
         <v>784.374331156924</v>
       </c>
-      <c r="Z21" s="144" t="n">
+      <c r="Z22" s="142" t="n">
         <v>906.901768595253</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="115"/>
-      <c r="C22" s="121" t="s">
-        <v>59</v>
-      </c>
-      <c r="D22" s="122"/>
-      <c r="E22" s="122"/>
-      <c r="F22" s="122"/>
-      <c r="G22" s="122"/>
-      <c r="H22" s="122"/>
-      <c r="I22" s="122"/>
-      <c r="J22" s="122"/>
-      <c r="K22" s="123" t="n">
-        <f aca="false">K21/J21-1</f>
+    <row r="23" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="113"/>
+      <c r="C23" s="119" t="s">
+        <v>61</v>
+      </c>
+      <c r="D23" s="120"/>
+      <c r="E23" s="120"/>
+      <c r="F23" s="120"/>
+      <c r="G23" s="120"/>
+      <c r="H23" s="120"/>
+      <c r="I23" s="120"/>
+      <c r="J23" s="120"/>
+      <c r="K23" s="121" t="n">
+        <f aca="false">K22/J22-1</f>
         <v>0.236957568755388</v>
       </c>
-      <c r="L22" s="123" t="n">
-        <f aca="false">L21/K21-1</f>
+      <c r="L23" s="121" t="n">
+        <f aca="false">L22/K22-1</f>
         <v>0.247785379798202</v>
       </c>
-      <c r="M22" s="123" t="n">
-        <f aca="false">M21/L21-1</f>
+      <c r="M23" s="121" t="n">
+        <f aca="false">M22/L22-1</f>
         <v>0.258656223198073</v>
       </c>
-      <c r="N22" s="123" t="n">
-        <f aca="false">N21/M21-1</f>
+      <c r="N23" s="121" t="n">
+        <f aca="false">N22/M22-1</f>
         <v>0.209213905421538</v>
       </c>
-      <c r="O22" s="123" t="n">
-        <f aca="false">O21/N21-1</f>
+      <c r="O23" s="121" t="n">
+        <f aca="false">O22/N22-1</f>
         <v>0.385614970602534</v>
       </c>
-      <c r="P22" s="123" t="n">
-        <f aca="false">P21/O21-1</f>
+      <c r="P23" s="121" t="n">
+        <f aca="false">P22/O22-1</f>
         <v>0.271240996389418</v>
       </c>
-      <c r="Q22" s="123" t="n">
-        <f aca="false">Q21/P21-1</f>
+      <c r="Q23" s="121" t="n">
+        <f aca="false">Q22/P22-1</f>
         <v>0.372105550971386</v>
       </c>
-      <c r="R22" s="123" t="n">
-        <f aca="false">R21/Q21-1</f>
+      <c r="R23" s="121" t="n">
+        <f aca="false">R22/Q22-1</f>
         <v>0.244516950060769</v>
       </c>
-      <c r="S22" s="123" t="n">
-        <f aca="false">S21/R21-1</f>
+      <c r="S23" s="121" t="n">
+        <f aca="false">S22/R22-1</f>
         <v>0.342772237131004</v>
       </c>
-      <c r="T22" s="124" t="n">
-        <f aca="false">T21/S21-1</f>
+      <c r="T23" s="122" t="n">
+        <f aca="false">T22/S22-1</f>
         <v>0.535483043492339</v>
       </c>
-      <c r="U22" s="123" t="n">
-        <f aca="false">U21/T21-1</f>
+      <c r="U23" s="121" t="n">
+        <f aca="false">U22/T22-1</f>
         <v>0.414111607613256</v>
       </c>
-      <c r="V22" s="123" t="n">
-        <f aca="false">V21/U21-1</f>
+      <c r="V23" s="121" t="n">
+        <f aca="false">V22/U22-1</f>
         <v>0.312525844699475</v>
       </c>
-      <c r="W22" s="123" t="n">
-        <f aca="false">W21/V21-1</f>
+      <c r="W23" s="121" t="n">
+        <f aca="false">W22/V22-1</f>
         <v>0.261825729458268</v>
       </c>
-      <c r="X22" s="123" t="n">
-        <f aca="false">X21/W21-1</f>
+      <c r="X23" s="121" t="n">
+        <f aca="false">X22/W22-1</f>
         <v>0.217516984901313</v>
       </c>
-      <c r="Y22" s="123" t="n">
-        <f aca="false">Y21/X21-1</f>
+      <c r="Y23" s="121" t="n">
+        <f aca="false">Y22/X22-1</f>
         <v>0.181859057952369</v>
       </c>
-      <c r="Z22" s="125" t="n">
-        <f aca="false">Z21/Y21-1</f>
+      <c r="Z23" s="123" t="n">
+        <f aca="false">Z22/Y22-1</f>
         <v>0.156210412007753</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B23" s="115"/>
-      <c r="C23" s="126" t="s">
-        <v>58</v>
-      </c>
-      <c r="D23" s="141"/>
-      <c r="E23" s="141"/>
-      <c r="F23" s="141"/>
-      <c r="G23" s="141"/>
-      <c r="H23" s="141"/>
-      <c r="I23" s="141"/>
-      <c r="J23" s="141" t="n">
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B24" s="113"/>
+      <c r="C24" s="124" t="s">
+        <v>60</v>
+      </c>
+      <c r="D24" s="139"/>
+      <c r="E24" s="139"/>
+      <c r="F24" s="139"/>
+      <c r="G24" s="139"/>
+      <c r="H24" s="139"/>
+      <c r="I24" s="139"/>
+      <c r="J24" s="139" t="n">
         <v>17.2779932399405</v>
       </c>
-      <c r="K23" s="142" t="n">
+      <c r="K24" s="140" t="n">
         <v>21.7614736820307</v>
       </c>
-      <c r="L23" s="142" t="n">
+      <c r="L24" s="140" t="n">
         <v>27.0596881032152</v>
       </c>
-      <c r="M23" s="142" t="n">
+      <c r="M24" s="140" t="n">
         <v>33.9968018489994</v>
       </c>
-      <c r="N23" s="142" t="n">
+      <c r="N24" s="140" t="n">
         <v>42.2574210730912</v>
       </c>
-      <c r="O23" s="142" t="n">
+      <c r="O24" s="140" t="n">
         <v>58.1382112955302</v>
       </c>
-      <c r="P23" s="142" t="n">
+      <c r="P24" s="140" t="n">
         <v>74.3813088176791</v>
       </c>
-      <c r="Q23" s="142" t="n">
+      <c r="Q24" s="140" t="n">
         <v>100</v>
       </c>
-      <c r="R23" s="142" t="n">
+      <c r="R24" s="140" t="n">
         <v>124.7956</v>
       </c>
-      <c r="S23" s="142" t="n">
+      <c r="S24" s="140" t="n">
         <v>184.2552</v>
       </c>
-      <c r="T23" s="143" t="n">
+      <c r="T24" s="141" t="n">
         <v>283.4442</v>
       </c>
-      <c r="U23" s="142" t="n">
+      <c r="U24" s="140" t="n">
         <v>375.324686020269</v>
       </c>
-      <c r="V23" s="142" t="n">
+      <c r="V24" s="140" t="n">
         <v>484.186284579505</v>
       </c>
-      <c r="W23" s="142" t="n">
+      <c r="W24" s="140" t="n">
         <v>600.478873709243</v>
       </c>
-      <c r="X23" s="142" t="n">
+      <c r="X24" s="140" t="n">
         <v>720.493996959588</v>
       </c>
-      <c r="Y23" s="142" t="n">
+      <c r="Y24" s="140" t="n">
         <v>841.286095341108</v>
       </c>
-      <c r="Z23" s="144" t="n">
+      <c r="Z24" s="142" t="n">
         <v>965.015649534035</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="115"/>
-      <c r="C24" s="145" t="s">
-        <v>60</v>
-      </c>
-      <c r="D24" s="134"/>
-      <c r="E24" s="134"/>
-      <c r="F24" s="134"/>
-      <c r="G24" s="134"/>
-      <c r="H24" s="134"/>
-      <c r="I24" s="134"/>
-      <c r="J24" s="134"/>
-      <c r="K24" s="135" t="n">
-        <f aca="false">K23/J23-1</f>
+    <row r="25" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="113"/>
+      <c r="C25" s="143" t="s">
+        <v>62</v>
+      </c>
+      <c r="D25" s="132"/>
+      <c r="E25" s="132"/>
+      <c r="F25" s="132"/>
+      <c r="G25" s="132"/>
+      <c r="H25" s="132"/>
+      <c r="I25" s="132"/>
+      <c r="J25" s="132"/>
+      <c r="K25" s="133" t="n">
+        <f aca="false">K24/J24-1</f>
         <v>0.259490808905172</v>
       </c>
-      <c r="L24" s="135" t="n">
-        <f aca="false">L23/K23-1</f>
+      <c r="L25" s="133" t="n">
+        <f aca="false">L24/K24-1</f>
         <v>0.243467629931674</v>
       </c>
-      <c r="M24" s="135" t="n">
-        <f aca="false">M23/L23-1</f>
+      <c r="M25" s="133" t="n">
+        <f aca="false">M24/L24-1</f>
         <v>0.256363403721565</v>
       </c>
-      <c r="N24" s="135" t="n">
-        <f aca="false">N23/M23-1</f>
+      <c r="N25" s="133" t="n">
+        <f aca="false">N24/M24-1</f>
         <v>0.242982244647076</v>
       </c>
-      <c r="O24" s="135" t="n">
-        <f aca="false">O23/N23-1</f>
+      <c r="O25" s="133" t="n">
+        <f aca="false">O24/N24-1</f>
         <v>0.375810681749142</v>
       </c>
-      <c r="P24" s="135" t="n">
-        <f aca="false">P23/O23-1</f>
+      <c r="P25" s="133" t="n">
+        <f aca="false">P24/O24-1</f>
         <v>0.279387637840825</v>
       </c>
-      <c r="Q24" s="135" t="n">
-        <f aca="false">Q23/P23-1</f>
+      <c r="Q25" s="133" t="n">
+        <f aca="false">Q24/P24-1</f>
         <v>0.344423775133032</v>
       </c>
-      <c r="R24" s="135" t="n">
-        <f aca="false">R23/Q23-1</f>
+      <c r="R25" s="133" t="n">
+        <f aca="false">R24/Q24-1</f>
         <v>0.247956</v>
       </c>
-      <c r="S24" s="135" t="n">
-        <f aca="false">S23/R23-1</f>
+      <c r="S25" s="133" t="n">
+        <f aca="false">S24/R24-1</f>
         <v>0.476455900688806</v>
       </c>
-      <c r="T24" s="136" t="n">
-        <f aca="false">T23/S23-1</f>
+      <c r="T25" s="134" t="n">
+        <f aca="false">T24/S24-1</f>
         <v>0.538324020163339</v>
       </c>
-      <c r="U24" s="135" t="n">
-        <f aca="false">U23/T23-1</f>
+      <c r="U25" s="133" t="n">
+        <f aca="false">U24/T24-1</f>
         <v>0.324157227490522</v>
       </c>
-      <c r="V24" s="135" t="n">
-        <f aca="false">V23/U23-1</f>
+      <c r="V25" s="133" t="n">
+        <f aca="false">V24/U24-1</f>
         <v>0.290046465404509</v>
       </c>
-      <c r="W24" s="135" t="n">
-        <f aca="false">W23/V23-1</f>
+      <c r="W25" s="133" t="n">
+        <f aca="false">W24/V24-1</f>
         <v>0.240181502106639</v>
       </c>
-      <c r="X24" s="135" t="n">
-        <f aca="false">X23/W23-1</f>
+      <c r="X25" s="133" t="n">
+        <f aca="false">X24/W24-1</f>
         <v>0.199865688044935</v>
       </c>
-      <c r="Y24" s="135" t="n">
-        <f aca="false">Y23/X23-1</f>
+      <c r="Y25" s="133" t="n">
+        <f aca="false">Y24/X24-1</f>
         <v>0.167651776269129</v>
       </c>
-      <c r="Z24" s="146" t="n">
-        <f aca="false">Z23/Y23-1</f>
+      <c r="Z25" s="144" t="n">
+        <f aca="false">Z24/Y24-1</f>
         <v>0.147071911538915</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="115"/>
-      <c r="C25" s="145"/>
-      <c r="D25" s="134"/>
-      <c r="E25" s="134"/>
-      <c r="F25" s="134"/>
-      <c r="G25" s="134"/>
-      <c r="H25" s="134"/>
-      <c r="I25" s="134"/>
-      <c r="J25" s="134"/>
-      <c r="K25" s="135"/>
-      <c r="L25" s="135"/>
-      <c r="M25" s="135"/>
-      <c r="N25" s="135"/>
-      <c r="O25" s="135"/>
-      <c r="P25" s="135"/>
-      <c r="Q25" s="135"/>
-      <c r="R25" s="135"/>
-      <c r="S25" s="135"/>
-      <c r="T25" s="136"/>
-      <c r="U25" s="135"/>
-      <c r="V25" s="135"/>
-      <c r="W25" s="135"/>
-      <c r="X25" s="135"/>
-      <c r="Y25" s="135"/>
-      <c r="Z25" s="146"/>
-    </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B26" s="115"/>
-      <c r="C26" s="147" t="s">
-        <v>61</v>
-      </c>
-      <c r="D26" s="141"/>
-      <c r="E26" s="141"/>
-      <c r="F26" s="141"/>
-      <c r="G26" s="141"/>
-      <c r="H26" s="141"/>
-      <c r="I26" s="141"/>
-      <c r="J26" s="141" t="n">
+    <row r="26" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B26" s="113"/>
+      <c r="C26" s="143"/>
+      <c r="D26" s="132"/>
+      <c r="E26" s="132"/>
+      <c r="F26" s="132"/>
+      <c r="G26" s="132"/>
+      <c r="H26" s="132"/>
+      <c r="I26" s="132"/>
+      <c r="J26" s="132"/>
+      <c r="K26" s="133"/>
+      <c r="L26" s="133"/>
+      <c r="M26" s="133"/>
+      <c r="N26" s="133"/>
+      <c r="O26" s="133"/>
+      <c r="P26" s="133"/>
+      <c r="Q26" s="133"/>
+      <c r="R26" s="133"/>
+      <c r="S26" s="133"/>
+      <c r="T26" s="134"/>
+      <c r="U26" s="133"/>
+      <c r="V26" s="133"/>
+      <c r="W26" s="133"/>
+      <c r="X26" s="133"/>
+      <c r="Y26" s="133"/>
+      <c r="Z26" s="144"/>
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B27" s="113"/>
+      <c r="C27" s="145" t="s">
+        <v>63</v>
+      </c>
+      <c r="D27" s="139"/>
+      <c r="E27" s="139"/>
+      <c r="F27" s="139"/>
+      <c r="G27" s="139"/>
+      <c r="H27" s="139"/>
+      <c r="I27" s="139"/>
+      <c r="J27" s="139" t="n">
         <v>66.3246381213388</v>
       </c>
-      <c r="K26" s="142" t="n">
+      <c r="K27" s="140" t="n">
         <v>57.3401038369932</v>
       </c>
-      <c r="L26" s="142" t="n">
+      <c r="L27" s="140" t="n">
         <v>49.9505528665098</v>
       </c>
-      <c r="M26" s="142" t="n">
+      <c r="M27" s="140" t="n">
         <v>44.6260813582049</v>
       </c>
-      <c r="N26" s="142" t="n">
+      <c r="N27" s="140" t="n">
         <v>44.9414371639363</v>
       </c>
-      <c r="O26" s="142" t="n">
+      <c r="O27" s="140" t="n">
         <v>49.0425834332014</v>
       </c>
-      <c r="P26" s="142" t="n">
+      <c r="P27" s="140" t="n">
         <v>43.9677543453985</v>
       </c>
-      <c r="Q26" s="142" t="n">
+      <c r="Q27" s="140" t="n">
         <v>51.9027726849522</v>
       </c>
-      <c r="R26" s="142" t="n">
+      <c r="R27" s="140" t="n">
         <v>47.587182432228</v>
       </c>
-      <c r="S26" s="142" t="n">
+      <c r="S27" s="140" t="n">
         <v>60.416354815098</v>
       </c>
-      <c r="T26" s="143" t="n">
+      <c r="T27" s="141" t="n">
         <v>69.7119874593845</v>
       </c>
-      <c r="U26" s="142" t="n">
+      <c r="U27" s="140" t="n">
         <v>73.9619394770436</v>
       </c>
-      <c r="V26" s="142" t="n">
+      <c r="V27" s="140" t="n">
         <v>73.7839497009741</v>
       </c>
-      <c r="W26" s="142" t="n">
+      <c r="W27" s="140" t="n">
         <v>74.6508878086574</v>
       </c>
-      <c r="X26" s="142" t="n">
+      <c r="X27" s="140" t="n">
         <v>75.3320596608829</v>
       </c>
-      <c r="Y26" s="142" t="n">
+      <c r="Y27" s="140" t="n">
         <v>75.2781397187004</v>
       </c>
-      <c r="Z26" s="144" t="n">
+      <c r="Z27" s="142" t="n">
         <v>75.2803384283251</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="115"/>
-      <c r="C27" s="147"/>
-      <c r="D27" s="132"/>
-      <c r="E27" s="132"/>
-      <c r="F27" s="132"/>
-      <c r="G27" s="132"/>
-      <c r="H27" s="132"/>
-      <c r="I27" s="132"/>
-      <c r="J27" s="132"/>
-      <c r="K27" s="123" t="n">
-        <f aca="false">K26/J26-1</f>
+    <row r="28" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B28" s="113"/>
+      <c r="C28" s="145"/>
+      <c r="D28" s="130"/>
+      <c r="E28" s="130"/>
+      <c r="F28" s="130"/>
+      <c r="G28" s="130"/>
+      <c r="H28" s="130"/>
+      <c r="I28" s="130"/>
+      <c r="J28" s="130"/>
+      <c r="K28" s="121" t="n">
+        <f aca="false">K27/J27-1</f>
         <v>-0.135462997444611</v>
       </c>
-      <c r="L27" s="123" t="n">
-        <f aca="false">L26/K26-1</f>
+      <c r="L28" s="121" t="n">
+        <f aca="false">L27/K27-1</f>
         <v>-0.128872298374109</v>
       </c>
-      <c r="M27" s="123" t="n">
-        <f aca="false">M26/L26-1</f>
+      <c r="M28" s="121" t="n">
+        <f aca="false">M27/L27-1</f>
         <v>-0.106594846358042</v>
       </c>
-      <c r="N27" s="123" t="n">
-        <f aca="false">N26/M26-1</f>
+      <c r="N28" s="121" t="n">
+        <f aca="false">N27/M27-1</f>
         <v>0.00706662552779536</v>
       </c>
-      <c r="O27" s="123" t="n">
-        <f aca="false">O26/N26-1</f>
+      <c r="O28" s="121" t="n">
+        <f aca="false">O27/N27-1</f>
         <v>0.0912553431325545</v>
       </c>
-      <c r="P27" s="123" t="n">
-        <f aca="false">P26/O26-1</f>
+      <c r="P28" s="121" t="n">
+        <f aca="false">P27/O27-1</f>
         <v>-0.103478013035653</v>
       </c>
-      <c r="Q27" s="123" t="n">
-        <f aca="false">Q26/P26-1</f>
+      <c r="Q28" s="121" t="n">
+        <f aca="false">Q27/P27-1</f>
         <v>0.180473587011481</v>
       </c>
-      <c r="R27" s="123" t="n">
-        <f aca="false">R26/Q26-1</f>
+      <c r="R28" s="121" t="n">
+        <f aca="false">R27/Q27-1</f>
         <v>-0.0831475859472804</v>
       </c>
-      <c r="S27" s="123" t="n">
-        <f aca="false">S26/R26-1</f>
+      <c r="S28" s="121" t="n">
+        <f aca="false">S27/R27-1</f>
         <v>0.269593023313386</v>
       </c>
-      <c r="T27" s="124" t="n">
-        <f aca="false">T26/S26-1</f>
+      <c r="T28" s="122" t="n">
+        <f aca="false">T27/S27-1</f>
         <v>0.15385954138967</v>
       </c>
-      <c r="U27" s="123" t="n">
-        <f aca="false">U26/T26-1</f>
+      <c r="U28" s="121" t="n">
+        <f aca="false">U27/T27-1</f>
         <v>0.0609644362834334</v>
       </c>
-      <c r="V27" s="123" t="n">
-        <f aca="false">V26/U26-1</f>
+      <c r="V28" s="121" t="n">
+        <f aca="false">V27/U27-1</f>
         <v>-0.00240650498523998</v>
       </c>
-      <c r="W27" s="123" t="n">
-        <f aca="false">W26/V26-1</f>
+      <c r="W28" s="121" t="n">
+        <f aca="false">W27/V27-1</f>
         <v>0.011749684195502</v>
       </c>
-      <c r="X27" s="123" t="n">
-        <f aca="false">X26/W26-1</f>
+      <c r="X28" s="121" t="n">
+        <f aca="false">X27/W27-1</f>
         <v>0.00912476558847497</v>
       </c>
-      <c r="Y27" s="123" t="n">
-        <f aca="false">Y26/X26-1</f>
+      <c r="Y28" s="121" t="n">
+        <f aca="false">Y27/X27-1</f>
         <v>-0.000715763546426551</v>
       </c>
-      <c r="Z27" s="125" t="n">
-        <f aca="false">Z26/Y26-1</f>
+      <c r="Z28" s="123" t="n">
+        <f aca="false">Z27/Y27-1</f>
         <v>2.92078103001359E-005</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="K28" s="148"/>
-      <c r="L28" s="148"/>
-      <c r="M28" s="148"/>
-      <c r="N28" s="148"/>
-      <c r="O28" s="148"/>
-      <c r="P28" s="148"/>
-      <c r="Q28" s="148"/>
-      <c r="R28" s="148"/>
-      <c r="S28" s="148"/>
-      <c r="T28" s="149"/>
-      <c r="U28" s="148"/>
-      <c r="V28" s="148"/>
-      <c r="W28" s="148"/>
-      <c r="X28" s="148"/>
-      <c r="Y28" s="148"/>
-      <c r="Z28" s="148"/>
-    </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B29" s="115" t="s">
-        <v>62</v>
-      </c>
-      <c r="C29" s="150" t="s">
-        <v>63</v>
-      </c>
-      <c r="D29" s="117"/>
-      <c r="E29" s="117"/>
-      <c r="F29" s="117"/>
-      <c r="G29" s="117"/>
-      <c r="H29" s="117"/>
-      <c r="I29" s="117"/>
-      <c r="J29" s="117" t="n">
+    <row r="29" customFormat="false" ht="8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="K29" s="146"/>
+      <c r="L29" s="146"/>
+      <c r="M29" s="146"/>
+      <c r="N29" s="146"/>
+      <c r="O29" s="146"/>
+      <c r="P29" s="146"/>
+      <c r="Q29" s="146"/>
+      <c r="R29" s="146"/>
+      <c r="S29" s="146"/>
+      <c r="T29" s="147"/>
+      <c r="U29" s="146"/>
+      <c r="V29" s="146"/>
+      <c r="W29" s="146"/>
+      <c r="X29" s="146"/>
+      <c r="Y29" s="146"/>
+      <c r="Z29" s="146"/>
+    </row>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B30" s="113" t="s">
+        <v>64</v>
+      </c>
+      <c r="C30" s="148" t="s">
+        <v>65</v>
+      </c>
+      <c r="D30" s="115"/>
+      <c r="E30" s="115"/>
+      <c r="F30" s="115"/>
+      <c r="G30" s="115"/>
+      <c r="H30" s="115"/>
+      <c r="I30" s="115"/>
+      <c r="J30" s="115" t="n">
         <v>5591231.66666667</v>
       </c>
-      <c r="K29" s="118" t="n">
+      <c r="K30" s="116" t="n">
         <v>5721839.08333333</v>
       </c>
-      <c r="L29" s="118" t="n">
+      <c r="L30" s="116" t="n">
         <v>5985949.25</v>
       </c>
-      <c r="M29" s="118" t="n">
+      <c r="M30" s="116" t="n">
         <v>6066269.75</v>
       </c>
-      <c r="N29" s="118" t="n">
+      <c r="N30" s="116" t="n">
         <v>6111761.41666667</v>
       </c>
-      <c r="O29" s="118" t="n">
+      <c r="O30" s="116" t="n">
         <v>6114564.66666667</v>
       </c>
-      <c r="P29" s="118" t="n">
+      <c r="P30" s="116" t="n">
         <v>6229256.66666667</v>
       </c>
-      <c r="Q29" s="118" t="n">
+      <c r="Q30" s="116" t="n">
         <v>6184871.83333333</v>
       </c>
-      <c r="R29" s="118" t="n">
+      <c r="R30" s="116" t="n">
         <v>6228469.66666667</v>
       </c>
-      <c r="S29" s="118" t="n">
+      <c r="S30" s="116" t="n">
         <v>6236790</v>
       </c>
-      <c r="T29" s="119" t="n">
+      <c r="T30" s="117" t="n">
         <v>6093393.58333333</v>
       </c>
-      <c r="U29" s="118" t="n">
+      <c r="U30" s="116" t="n">
         <v>5806182.42301104</v>
       </c>
-      <c r="V29" s="118" t="n">
+      <c r="V30" s="116" t="n">
         <v>5857509.3503082</v>
       </c>
-      <c r="W29" s="118" t="n">
+      <c r="W30" s="116" t="n">
         <v>5948583.36743891</v>
       </c>
-      <c r="X29" s="118" t="n">
+      <c r="X30" s="116" t="n">
         <v>6018767.1421203</v>
       </c>
-      <c r="Y29" s="118" t="n">
+      <c r="Y30" s="116" t="n">
         <v>6077302.61931037</v>
       </c>
-      <c r="Z29" s="120" t="n">
+      <c r="Z30" s="118" t="n">
         <v>6125964.0760036</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="115"/>
-      <c r="C30" s="150"/>
-      <c r="D30" s="122"/>
-      <c r="E30" s="122"/>
-      <c r="F30" s="122"/>
-      <c r="G30" s="122"/>
-      <c r="H30" s="122"/>
-      <c r="I30" s="122"/>
-      <c r="J30" s="122"/>
-      <c r="K30" s="123" t="n">
-        <f aca="false">K29/J29-1</f>
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B31" s="113"/>
+      <c r="C31" s="148"/>
+      <c r="D31" s="120"/>
+      <c r="E31" s="120"/>
+      <c r="F31" s="120"/>
+      <c r="G31" s="120"/>
+      <c r="H31" s="120"/>
+      <c r="I31" s="120"/>
+      <c r="J31" s="120"/>
+      <c r="K31" s="121" t="n">
+        <f aca="false">K30/J30-1</f>
         <v>0.0233593284008085</v>
       </c>
-      <c r="L30" s="123" t="n">
-        <f aca="false">L29/K29-1</f>
+      <c r="L31" s="121" t="n">
+        <f aca="false">L30/K30-1</f>
         <v>0.0461582653444363</v>
       </c>
-      <c r="M30" s="123" t="n">
-        <f aca="false">M29/L29-1</f>
+      <c r="M31" s="121" t="n">
+        <f aca="false">M30/L30-1</f>
         <v>0.0134181725646938</v>
       </c>
-      <c r="N30" s="123" t="n">
-        <f aca="false">N29/M29-1</f>
+      <c r="N31" s="121" t="n">
+        <f aca="false">N30/M30-1</f>
         <v>0.00749911700953732</v>
       </c>
-      <c r="O30" s="123" t="n">
-        <f aca="false">O29/N29-1</f>
+      <c r="O31" s="121" t="n">
+        <f aca="false">O30/N30-1</f>
         <v>0.000458664828171473</v>
       </c>
-      <c r="P30" s="123" t="n">
-        <f aca="false">P29/O29-1</f>
+      <c r="P31" s="121" t="n">
+        <f aca="false">P30/O30-1</f>
         <v>0.018757181623287</v>
       </c>
-      <c r="Q30" s="123" t="n">
-        <f aca="false">Q29/P29-1</f>
+      <c r="Q31" s="121" t="n">
+        <f aca="false">Q30/P30-1</f>
         <v>-0.00712522146837225</v>
       </c>
-      <c r="R30" s="123" t="n">
-        <f aca="false">R29/Q29-1</f>
+      <c r="R31" s="121" t="n">
+        <f aca="false">R30/Q30-1</f>
         <v>0.00704910861666752</v>
       </c>
-      <c r="S30" s="123" t="n">
-        <f aca="false">S29/R29-1</f>
+      <c r="S31" s="121" t="n">
+        <f aca="false">S30/R30-1</f>
         <v>0.0013358551584286</v>
       </c>
-      <c r="T30" s="124" t="n">
-        <f aca="false">T29/S29-1</f>
+      <c r="T31" s="122" t="n">
+        <f aca="false">T30/S30-1</f>
         <v>-0.022992022605646</v>
       </c>
-      <c r="U30" s="123" t="n">
-        <f aca="false">U29/T29-1</f>
+      <c r="U31" s="121" t="n">
+        <f aca="false">U30/T30-1</f>
         <v>-0.0471348447124563</v>
       </c>
-      <c r="V30" s="123" t="n">
-        <f aca="false">V29/U29-1</f>
+      <c r="V31" s="121" t="n">
+        <f aca="false">V30/U30-1</f>
         <v>0.00884004730780452</v>
       </c>
-      <c r="W30" s="123" t="n">
-        <f aca="false">W29/V29-1</f>
+      <c r="W31" s="121" t="n">
+        <f aca="false">W30/V30-1</f>
         <v>0.0155482495518193</v>
       </c>
-      <c r="X30" s="123" t="n">
-        <f aca="false">X29/W29-1</f>
+      <c r="X31" s="121" t="n">
+        <f aca="false">X30/W30-1</f>
         <v>0.0117984014590036</v>
       </c>
-      <c r="Y30" s="123" t="n">
-        <f aca="false">Y29/X29-1</f>
+      <c r="Y31" s="121" t="n">
+        <f aca="false">Y30/X30-1</f>
         <v>0.0097254929137276</v>
       </c>
-      <c r="Z30" s="125" t="n">
-        <f aca="false">Z29/Y29-1</f>
+      <c r="Z31" s="123" t="n">
+        <f aca="false">Z30/Y30-1</f>
         <v>0.00800708138814876</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B31" s="115"/>
-      <c r="C31" s="126" t="s">
-        <v>64</v>
-      </c>
-      <c r="D31" s="141"/>
-      <c r="E31" s="141"/>
-      <c r="F31" s="141"/>
-      <c r="G31" s="141"/>
-      <c r="H31" s="141"/>
-      <c r="I31" s="141"/>
-      <c r="J31" s="141" t="n">
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B32" s="113"/>
+      <c r="C32" s="124" t="s">
+        <v>66</v>
+      </c>
+      <c r="D32" s="139"/>
+      <c r="E32" s="139"/>
+      <c r="F32" s="139"/>
+      <c r="G32" s="139"/>
+      <c r="H32" s="139"/>
+      <c r="I32" s="139"/>
+      <c r="J32" s="139" t="n">
         <v>107.290302710186</v>
       </c>
-      <c r="K31" s="142" t="n">
+      <c r="K32" s="140" t="n">
         <v>110.476929634037</v>
       </c>
-      <c r="L31" s="142" t="n">
+      <c r="L32" s="140" t="n">
         <v>109.811133302484</v>
       </c>
-      <c r="M31" s="142" t="n">
+      <c r="M32" s="140" t="n">
         <v>110.253876958519</v>
       </c>
-      <c r="N31" s="142" t="n">
+      <c r="N32" s="140" t="n">
         <v>107.911479834419</v>
       </c>
-      <c r="O31" s="142" t="n">
+      <c r="O32" s="140" t="n">
         <v>105.774952461293</v>
       </c>
-      <c r="P31" s="142" t="n">
+      <c r="P32" s="140" t="n">
         <v>104.244313920581</v>
       </c>
-      <c r="Q31" s="142" t="n">
+      <c r="Q32" s="140" t="n">
         <v>104.663769775333</v>
       </c>
-      <c r="R31" s="142" t="n">
+      <c r="R32" s="140" t="n">
         <v>105.767356975346</v>
       </c>
-      <c r="S31" s="142" t="n">
+      <c r="S32" s="140" t="n">
         <v>105.592071837954</v>
       </c>
-      <c r="T31" s="143" t="n">
+      <c r="T32" s="141" t="n">
         <v>105.305063377878</v>
       </c>
-      <c r="U31" s="142" t="n">
+      <c r="U32" s="140" t="n">
         <v>66.8508120877055</v>
       </c>
-      <c r="V31" s="142" t="n">
+      <c r="V32" s="140" t="n">
         <v>67.8848617499236</v>
       </c>
-      <c r="W31" s="142" t="n">
+      <c r="W32" s="140" t="n">
         <v>69.9674416457912</v>
       </c>
-      <c r="X31" s="142" t="n">
+      <c r="X32" s="140" t="n">
         <v>72.3695661437788</v>
       </c>
-      <c r="Y31" s="142" t="n">
+      <c r="Y32" s="140" t="n">
         <v>74.7915432008659</v>
       </c>
-      <c r="Z31" s="144" t="n">
+      <c r="Z32" s="142" t="n">
         <v>76.9820110659504</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="115"/>
-      <c r="C32" s="121" t="s">
-        <v>65</v>
-      </c>
-      <c r="D32" s="151"/>
-      <c r="E32" s="151"/>
-      <c r="F32" s="151"/>
-      <c r="G32" s="151"/>
-      <c r="H32" s="151"/>
-      <c r="I32" s="151"/>
-      <c r="J32" s="151"/>
-      <c r="K32" s="123" t="n">
-        <f aca="false">K31/J31-1</f>
+    <row r="33" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B33" s="113"/>
+      <c r="C33" s="119" t="s">
+        <v>67</v>
+      </c>
+      <c r="D33" s="149"/>
+      <c r="E33" s="149"/>
+      <c r="F33" s="149"/>
+      <c r="G33" s="149"/>
+      <c r="H33" s="149"/>
+      <c r="I33" s="149"/>
+      <c r="J33" s="149"/>
+      <c r="K33" s="121" t="n">
+        <f aca="false">K32/J32-1</f>
         <v>0.0297009780320852</v>
       </c>
-      <c r="L32" s="123" t="n">
-        <f aca="false">L31/K31-1</f>
+      <c r="L33" s="121" t="n">
+        <f aca="false">L32/K32-1</f>
         <v>-0.00602656440361615</v>
       </c>
-      <c r="M32" s="123" t="n">
-        <f aca="false">M31/L31-1</f>
+      <c r="M33" s="121" t="n">
+        <f aca="false">M32/L32-1</f>
         <v>0.00403186491860641</v>
       </c>
-      <c r="N32" s="123" t="n">
-        <f aca="false">N31/M31-1</f>
+      <c r="N33" s="121" t="n">
+        <f aca="false">N32/M32-1</f>
         <v>-0.0212454853173191</v>
       </c>
-      <c r="O32" s="123" t="n">
-        <f aca="false">O31/N31-1</f>
+      <c r="O33" s="121" t="n">
+        <f aca="false">O32/N32-1</f>
         <v>-0.0197988886484005</v>
       </c>
-      <c r="P32" s="123" t="n">
-        <f aca="false">P31/O31-1</f>
+      <c r="P33" s="121" t="n">
+        <f aca="false">P32/O32-1</f>
         <v>-0.0144707088502073</v>
       </c>
-      <c r="Q32" s="123" t="n">
-        <f aca="false">Q31/P31-1</f>
+      <c r="Q33" s="121" t="n">
+        <f aca="false">Q32/P32-1</f>
         <v>0.00402377682749178</v>
       </c>
-      <c r="R32" s="123" t="n">
-        <f aca="false">R31/Q31-1</f>
+      <c r="R33" s="121" t="n">
+        <f aca="false">R32/Q32-1</f>
         <v>0.0105441185845165</v>
       </c>
-      <c r="S32" s="123" t="n">
-        <f aca="false">S31/R31-1</f>
+      <c r="S33" s="121" t="n">
+        <f aca="false">S32/R32-1</f>
         <v>-0.00165727065897003</v>
       </c>
-      <c r="T32" s="124" t="n">
-        <f aca="false">T31/S31-1</f>
+      <c r="T33" s="122" t="n">
+        <f aca="false">T32/S32-1</f>
         <v>-0.00271808721128597</v>
       </c>
-      <c r="U32" s="123" t="n">
-        <f aca="false">U31/T31-1</f>
+      <c r="U33" s="121" t="n">
+        <f aca="false">U32/T32-1</f>
         <v>-0.365170012311592</v>
       </c>
-      <c r="V32" s="123" t="n">
-        <f aca="false">V31/U31-1</f>
+      <c r="V33" s="121" t="n">
+        <f aca="false">V32/U32-1</f>
         <v>0.0154680194589325</v>
       </c>
-      <c r="W32" s="123" t="n">
-        <f aca="false">W31/V31-1</f>
+      <c r="W33" s="121" t="n">
+        <f aca="false">W32/V32-1</f>
         <v>0.0306781194243204</v>
       </c>
-      <c r="X32" s="123" t="n">
-        <f aca="false">X31/W31-1</f>
+      <c r="X33" s="121" t="n">
+        <f aca="false">X32/W32-1</f>
         <v>0.0343320327495789</v>
       </c>
-      <c r="Y32" s="123" t="n">
-        <f aca="false">Y31/X31-1</f>
+      <c r="Y33" s="121" t="n">
+        <f aca="false">Y32/X32-1</f>
         <v>0.0334667897866801</v>
       </c>
-      <c r="Z32" s="125" t="n">
-        <f aca="false">Z31/Y31-1</f>
+      <c r="Z33" s="123" t="n">
+        <f aca="false">Z32/Y32-1</f>
         <v>0.029287640973013</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B33" s="115"/>
-      <c r="C33" s="152" t="s">
-        <v>66</v>
-      </c>
-      <c r="D33" s="127"/>
-      <c r="E33" s="127"/>
-      <c r="F33" s="127"/>
-      <c r="G33" s="127"/>
-      <c r="H33" s="127"/>
-      <c r="I33" s="127"/>
-      <c r="J33" s="127" t="n">
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B34" s="113"/>
+      <c r="C34" s="150" t="s">
+        <v>68</v>
+      </c>
+      <c r="D34" s="125"/>
+      <c r="E34" s="125"/>
+      <c r="F34" s="125"/>
+      <c r="G34" s="125"/>
+      <c r="H34" s="125"/>
+      <c r="I34" s="125"/>
+      <c r="J34" s="125" t="n">
         <v>3223.91166666667</v>
       </c>
-      <c r="K33" s="128" t="n">
+      <c r="K34" s="126" t="n">
         <v>4073.03333333333</v>
       </c>
-      <c r="L33" s="128" t="n">
+      <c r="L34" s="126" t="n">
         <v>5378.90583333333</v>
       </c>
-      <c r="M33" s="128" t="n">
+      <c r="M34" s="126" t="n">
         <v>6973.25583333333</v>
       </c>
-      <c r="N33" s="128" t="n">
+      <c r="N34" s="126" t="n">
         <v>8834.965</v>
       </c>
-      <c r="O33" s="128" t="n">
+      <c r="O34" s="126" t="n">
         <v>11648.9316666667</v>
       </c>
-      <c r="P33" s="128" t="n">
+      <c r="P34" s="126" t="n">
         <v>15277.0208333333</v>
       </c>
-      <c r="Q33" s="128" t="n">
+      <c r="Q34" s="126" t="n">
         <v>20294.7079223526</v>
       </c>
-      <c r="R33" s="128" t="n">
+      <c r="R34" s="126" t="n">
         <v>26232.6911153568</v>
       </c>
-      <c r="S33" s="128" t="n">
+      <c r="S34" s="126" t="n">
         <v>33439.2724783445</v>
       </c>
-      <c r="T33" s="129" t="n">
+      <c r="T34" s="127" t="n">
         <v>48452.5768635017</v>
       </c>
-      <c r="U33" s="128" t="n">
+      <c r="U34" s="126" t="n">
         <v>66757.2959115761</v>
       </c>
-      <c r="V33" s="128" t="n">
+      <c r="V34" s="126" t="n">
         <v>85137.7056361776</v>
       </c>
-      <c r="W33" s="128" t="n">
+      <c r="W34" s="126" t="n">
         <v>109175.19233752</v>
       </c>
-      <c r="X33" s="128" t="n">
+      <c r="X34" s="126" t="n">
         <v>134012.152479685</v>
       </c>
-      <c r="Y33" s="128" t="n">
+      <c r="Y34" s="126" t="n">
         <v>159087.214299471</v>
       </c>
-      <c r="Z33" s="130" t="n">
+      <c r="Z34" s="128" t="n">
         <v>184561.154038726</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="115"/>
-      <c r="C34" s="152"/>
-      <c r="D34" s="151"/>
-      <c r="E34" s="151"/>
-      <c r="F34" s="151"/>
-      <c r="G34" s="151"/>
-      <c r="H34" s="151"/>
-      <c r="I34" s="151"/>
-      <c r="J34" s="151"/>
-      <c r="K34" s="123" t="n">
-        <f aca="false">K33/J33-1</f>
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B35" s="113"/>
+      <c r="C35" s="150"/>
+      <c r="D35" s="149"/>
+      <c r="E35" s="149"/>
+      <c r="F35" s="149"/>
+      <c r="G35" s="149"/>
+      <c r="H35" s="149"/>
+      <c r="I35" s="149"/>
+      <c r="J35" s="149"/>
+      <c r="K35" s="121" t="n">
+        <f aca="false">K34/J34-1</f>
         <v>0.263382423112296</v>
       </c>
-      <c r="L34" s="123" t="n">
-        <f aca="false">L33/K33-1</f>
+      <c r="L35" s="121" t="n">
+        <f aca="false">L34/K34-1</f>
         <v>0.320614243274873</v>
       </c>
-      <c r="M34" s="123" t="n">
-        <f aca="false">M33/L33-1</f>
+      <c r="M35" s="121" t="n">
+        <f aca="false">M34/L34-1</f>
         <v>0.296407866097922</v>
       </c>
-      <c r="N34" s="123" t="n">
-        <f aca="false">N33/M33-1</f>
+      <c r="N35" s="121" t="n">
+        <f aca="false">N34/M34-1</f>
         <v>0.266978469048473</v>
       </c>
-      <c r="O34" s="123" t="n">
-        <f aca="false">O33/N33-1</f>
+      <c r="O35" s="121" t="n">
+        <f aca="false">O34/N34-1</f>
         <v>0.318503431158659</v>
       </c>
-      <c r="P34" s="123" t="n">
-        <f aca="false">P33/O33-1</f>
+      <c r="P35" s="121" t="n">
+        <f aca="false">P34/O34-1</f>
         <v>0.311452523757901</v>
       </c>
-      <c r="Q34" s="123" t="n">
-        <f aca="false">Q33/P33-1</f>
+      <c r="Q35" s="121" t="n">
+        <f aca="false">Q34/P34-1</f>
         <v>0.328446700685974</v>
       </c>
-      <c r="R34" s="123" t="n">
-        <f aca="false">R33/Q33-1</f>
+      <c r="R35" s="121" t="n">
+        <f aca="false">R34/Q34-1</f>
         <v>0.292587763062319</v>
       </c>
-      <c r="S34" s="123" t="n">
-        <f aca="false">S33/R33-1</f>
+      <c r="S35" s="121" t="n">
+        <f aca="false">S34/R34-1</f>
         <v>0.274717577822922</v>
       </c>
-      <c r="T34" s="124" t="n">
-        <f aca="false">T33/S33-1</f>
+      <c r="T35" s="122" t="n">
+        <f aca="false">T34/S34-1</f>
         <v>0.448972219562488</v>
       </c>
-      <c r="U34" s="123" t="n">
-        <f aca="false">U33/T33-1</f>
+      <c r="U35" s="121" t="n">
+        <f aca="false">U34/T34-1</f>
         <v>0.377786285745783</v>
       </c>
-      <c r="V34" s="123" t="n">
-        <f aca="false">V33/U33-1</f>
+      <c r="V35" s="121" t="n">
+        <f aca="false">V34/U34-1</f>
         <v>0.275331849105264</v>
       </c>
-      <c r="W34" s="123" t="n">
-        <f aca="false">W33/V33-1</f>
+      <c r="W35" s="121" t="n">
+        <f aca="false">W34/V34-1</f>
         <v>0.282336557248362</v>
       </c>
-      <c r="X34" s="123" t="n">
-        <f aca="false">X33/W33-1</f>
+      <c r="X35" s="121" t="n">
+        <f aca="false">X34/W34-1</f>
         <v>0.227496371752479</v>
       </c>
-      <c r="Y34" s="123" t="n">
-        <f aca="false">Y33/X33-1</f>
+      <c r="Y35" s="121" t="n">
+        <f aca="false">Y34/X34-1</f>
         <v>0.187110357947475</v>
       </c>
-      <c r="Z34" s="125" t="n">
-        <f aca="false">Z33/Y33-1</f>
+      <c r="Z35" s="123" t="n">
+        <f aca="false">Z34/Y34-1</f>
         <v>0.160125625754576</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B35" s="115"/>
-      <c r="C35" s="152" t="s">
-        <v>67</v>
-      </c>
-      <c r="D35" s="127"/>
-      <c r="E35" s="127"/>
-      <c r="F35" s="127"/>
-      <c r="G35" s="127"/>
-      <c r="H35" s="127"/>
-      <c r="I35" s="127"/>
-      <c r="J35" s="127" t="n">
-        <f aca="false">J33*$R$21/J21</f>
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B36" s="113"/>
+      <c r="C36" s="150" t="s">
+        <v>69</v>
+      </c>
+      <c r="D36" s="125"/>
+      <c r="E36" s="125"/>
+      <c r="F36" s="125"/>
+      <c r="G36" s="125"/>
+      <c r="H36" s="125"/>
+      <c r="I36" s="125"/>
+      <c r="J36" s="125" t="n">
+        <f aca="false">J34*$R$22/J22</f>
         <v>22779.6414157022</v>
       </c>
-      <c r="K35" s="128" t="n">
-        <f aca="false">K33*$R$21/K21</f>
+      <c r="K36" s="126" t="n">
+        <f aca="false">K34*$R$22/K22</f>
         <v>23266.2779195866</v>
       </c>
-      <c r="L35" s="128" t="n">
-        <f aca="false">L33*$R$21/L21</f>
+      <c r="L36" s="126" t="n">
+        <f aca="false">L34*$R$22/L22</f>
         <v>24624.2490944772</v>
       </c>
-      <c r="M35" s="128" t="n">
-        <f aca="false">M33*$R$21/M21</f>
+      <c r="M36" s="126" t="n">
+        <f aca="false">M34*$R$22/M22</f>
         <v>25362.8191991319</v>
       </c>
-      <c r="N35" s="128" t="n">
-        <f aca="false">N33*$R$21/N21</f>
+      <c r="N36" s="126" t="n">
+        <f aca="false">N34*$R$22/N22</f>
         <v>26574.4097844022</v>
       </c>
-      <c r="O35" s="128" t="n">
-        <f aca="false">O33*$U$21/O21</f>
+      <c r="O36" s="126" t="n">
+        <f aca="false">O34*$U$22/O22</f>
         <v>73728.1591082822</v>
       </c>
-      <c r="P35" s="128" t="n">
-        <f aca="false">P33*$U$21/P21</f>
+      <c r="P36" s="126" t="n">
+        <f aca="false">P34*$U$22/P22</f>
         <v>76060.3069042005</v>
       </c>
-      <c r="Q35" s="128" t="n">
-        <f aca="false">Q33*$U$21/Q21</f>
+      <c r="Q36" s="126" t="n">
+        <f aca="false">Q34*$U$22/Q22</f>
         <v>73640.153768429</v>
       </c>
-      <c r="R35" s="128" t="n">
-        <f aca="false">R33*$U$21/R21</f>
+      <c r="R36" s="126" t="n">
+        <f aca="false">R34*$U$22/R22</f>
         <v>76484.5843412988</v>
       </c>
-      <c r="S35" s="128" t="n">
-        <f aca="false">S33*$U$21/S21</f>
+      <c r="S36" s="126" t="n">
+        <f aca="false">S34*$U$22/S22</f>
         <v>72608.1768719362</v>
       </c>
-      <c r="T35" s="129" t="n">
-        <f aca="false">T33*$U$21/T21</f>
+      <c r="T36" s="127" t="n">
+        <f aca="false">T34*$U$22/T22</f>
         <v>68517.3513614512</v>
       </c>
-      <c r="U35" s="128" t="n">
-        <f aca="false">U33*$U$21/U21</f>
+      <c r="U36" s="126" t="n">
+        <f aca="false">U34*$U$22/U22</f>
         <v>66757.2959115761</v>
       </c>
-      <c r="V35" s="128" t="n">
-        <f aca="false">V33*$U$21/V21</f>
+      <c r="V36" s="126" t="n">
+        <f aca="false">V34*$U$22/V22</f>
         <v>64865.546061435</v>
       </c>
-      <c r="W35" s="128" t="n">
-        <f aca="false">W33*$U$21/W21</f>
+      <c r="W36" s="126" t="n">
+        <f aca="false">W34*$U$22/W22</f>
         <v>65919.9278304196</v>
       </c>
-      <c r="X35" s="128" t="n">
-        <f aca="false">X33*$U$21/X21</f>
+      <c r="X36" s="126" t="n">
+        <f aca="false">X34*$U$22/X22</f>
         <v>66460.2409999102</v>
       </c>
-      <c r="Y35" s="128" t="n">
-        <f aca="false">Y33*$U$21/Y21</f>
+      <c r="Y36" s="126" t="n">
+        <f aca="false">Y34*$U$22/Y22</f>
         <v>66755.5407320477</v>
       </c>
-      <c r="Z35" s="130" t="n">
-        <f aca="false">Z33*$U$21/Z21</f>
+      <c r="Z36" s="128" t="n">
+        <f aca="false">Z34*$U$22/Z22</f>
         <v>66981.591464714</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="115"/>
-      <c r="C36" s="152"/>
-      <c r="D36" s="151"/>
-      <c r="E36" s="151"/>
-      <c r="F36" s="151"/>
-      <c r="G36" s="151"/>
-      <c r="H36" s="151"/>
-      <c r="I36" s="151"/>
-      <c r="J36" s="151"/>
-      <c r="K36" s="123" t="n">
-        <f aca="false">K35/J35-1</f>
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B37" s="113"/>
+      <c r="C37" s="150"/>
+      <c r="D37" s="149"/>
+      <c r="E37" s="149"/>
+      <c r="F37" s="149"/>
+      <c r="G37" s="149"/>
+      <c r="H37" s="149"/>
+      <c r="I37" s="149"/>
+      <c r="J37" s="149"/>
+      <c r="K37" s="121" t="n">
+        <f aca="false">K36/J36-1</f>
         <v>0.0213627815734181</v>
       </c>
-      <c r="L36" s="123" t="n">
-        <f aca="false">L35/K35-1</f>
+      <c r="L37" s="121" t="n">
+        <f aca="false">L36/K36-1</f>
         <v>0.0583664984826546</v>
       </c>
-      <c r="M36" s="123" t="n">
-        <f aca="false">M35/L35-1</f>
+      <c r="M37" s="121" t="n">
+        <f aca="false">M36/L36-1</f>
         <v>0.029993609219146</v>
       </c>
-      <c r="N36" s="123" t="n">
-        <f aca="false">N35/M35-1</f>
+      <c r="N37" s="121" t="n">
+        <f aca="false">N36/M36-1</f>
         <v>0.0477703434999766</v>
       </c>
-      <c r="O36" s="123" t="n">
-        <f aca="false">O35/N35-1</f>
+      <c r="O37" s="121" t="n">
+        <f aca="false">O36/N36-1</f>
         <v>1.77440438777146</v>
       </c>
-      <c r="P36" s="123" t="n">
-        <f aca="false">P35/O35-1</f>
+      <c r="P37" s="121" t="n">
+        <f aca="false">P36/O36-1</f>
         <v>0.031631710653363</v>
       </c>
-      <c r="Q36" s="123" t="n">
-        <f aca="false">Q35/P35-1</f>
+      <c r="Q37" s="121" t="n">
+        <f aca="false">Q36/P36-1</f>
         <v>-0.0318188715543805</v>
       </c>
-      <c r="R36" s="123" t="n">
-        <f aca="false">R35/Q35-1</f>
+      <c r="R37" s="121" t="n">
+        <f aca="false">R36/Q36-1</f>
         <v>0.0386260813878048</v>
       </c>
-      <c r="S36" s="123" t="n">
-        <f aca="false">S35/R35-1</f>
+      <c r="S37" s="121" t="n">
+        <f aca="false">S36/R36-1</f>
         <v>-0.0506822061301248</v>
       </c>
-      <c r="T36" s="124" t="n">
-        <f aca="false">T35/S35-1</f>
+      <c r="T37" s="122" t="n">
+        <f aca="false">T36/S36-1</f>
         <v>-0.056341113173799</v>
       </c>
-      <c r="U36" s="123" t="n">
-        <f aca="false">U35/T35-1</f>
+      <c r="U37" s="121" t="n">
+        <f aca="false">U36/T36-1</f>
         <v>-0.0256877333245163</v>
       </c>
-      <c r="V36" s="123" t="n">
-        <f aca="false">V35/U35-1</f>
+      <c r="V37" s="121" t="n">
+        <f aca="false">V36/U36-1</f>
         <v>-0.0283377243537073</v>
       </c>
-      <c r="W36" s="123" t="n">
-        <f aca="false">W35/V35-1</f>
+      <c r="W37" s="121" t="n">
+        <f aca="false">W36/V36-1</f>
         <v>0.016254881566649</v>
       </c>
-      <c r="X36" s="123" t="n">
-        <f aca="false">X35/W35-1</f>
+      <c r="X37" s="121" t="n">
+        <f aca="false">X36/W36-1</f>
         <v>0.00819650729716503</v>
       </c>
-      <c r="Y36" s="123" t="n">
-        <f aca="false">Y35/X35-1</f>
+      <c r="Y37" s="121" t="n">
+        <f aca="false">Y36/X36-1</f>
         <v>0.00444325400712664</v>
       </c>
-      <c r="Z36" s="125" t="n">
-        <f aca="false">Z35/Y35-1</f>
+      <c r="Z37" s="123" t="n">
+        <f aca="false">Z36/Y36-1</f>
         <v>0.00338624674727228</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B37" s="115"/>
-      <c r="C37" s="147" t="s">
-        <v>68</v>
-      </c>
-      <c r="D37" s="127"/>
-      <c r="E37" s="127"/>
-      <c r="F37" s="127"/>
-      <c r="G37" s="127"/>
-      <c r="H37" s="127"/>
-      <c r="I37" s="127"/>
-      <c r="J37" s="127" t="n">
-        <f aca="false">J33/J17</f>
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B38" s="113"/>
+      <c r="C38" s="145" t="s">
+        <v>70</v>
+      </c>
+      <c r="D38" s="125"/>
+      <c r="E38" s="125"/>
+      <c r="F38" s="125"/>
+      <c r="G38" s="125"/>
+      <c r="H38" s="125"/>
+      <c r="I38" s="125"/>
+      <c r="J38" s="125" t="n">
+        <f aca="false">J34/J18</f>
         <v>864.493307412125</v>
       </c>
-      <c r="K37" s="128" t="n">
-        <f aca="false">K33/K17</f>
+      <c r="K38" s="126" t="n">
+        <f aca="false">K34/K18</f>
         <v>1041.04862276674</v>
       </c>
-      <c r="L37" s="128" t="n">
-        <f aca="false">L33/L17</f>
+      <c r="L38" s="126" t="n">
+        <f aca="false">L34/L18</f>
         <v>1302.4852340854</v>
       </c>
-      <c r="M37" s="128" t="n">
-        <f aca="false">M33/M17</f>
+      <c r="M38" s="126" t="n">
+        <f aca="false">M34/M18</f>
         <v>1532.33111758135</v>
       </c>
-      <c r="N37" s="128" t="n">
-        <f aca="false">N33/N17</f>
+      <c r="N38" s="126" t="n">
+        <f aca="false">N34/N18</f>
         <v>1613.44665956475</v>
       </c>
-      <c r="O37" s="128" t="n">
-        <f aca="false">O33/O17</f>
+      <c r="O38" s="126" t="n">
+        <f aca="false">O34/O18</f>
         <v>1433.80143003525</v>
       </c>
-      <c r="P37" s="128" t="n">
-        <f aca="false">P33/P17</f>
+      <c r="P38" s="126" t="n">
+        <f aca="false">P34/P18</f>
         <v>1648.31921552902</v>
       </c>
-      <c r="Q37" s="128" t="n">
-        <f aca="false">Q33/Q17</f>
+      <c r="Q38" s="126" t="n">
+        <f aca="false">Q34/Q18</f>
         <v>1373.35691588641</v>
       </c>
-      <c r="R37" s="128" t="n">
-        <f aca="false">R33/R17</f>
+      <c r="R38" s="126" t="n">
+        <f aca="false">R34/R18</f>
         <v>1584.41384505725</v>
       </c>
-      <c r="S37" s="128" t="n">
-        <f aca="false">S33/S17</f>
+      <c r="S38" s="126" t="n">
+        <f aca="false">S34/S18</f>
         <v>1189.48351557772</v>
       </c>
-      <c r="T37" s="129" t="n">
-        <f aca="false">T33/T17</f>
+      <c r="T38" s="127" t="n">
+        <f aca="false">T34/T18</f>
         <v>1004.09738080262</v>
       </c>
-      <c r="U37" s="128" t="n">
-        <f aca="false">U33/U17</f>
+      <c r="U38" s="126" t="n">
+        <f aca="false">U34/U18</f>
         <v>944.815989889816</v>
       </c>
-      <c r="V37" s="128" t="n">
-        <f aca="false">V33/V17</f>
+      <c r="V38" s="126" t="n">
+        <f aca="false">V34/V18</f>
         <v>941.613279682976</v>
       </c>
-      <c r="W37" s="128" t="n">
-        <f aca="false">W33/W17</f>
+      <c r="W38" s="126" t="n">
+        <f aca="false">W34/W18</f>
         <v>965.734202048997</v>
       </c>
-      <c r="X37" s="128" t="n">
-        <f aca="false">X33/X17</f>
+      <c r="X38" s="126" t="n">
+        <f aca="false">X34/X18</f>
         <v>985.139015984678</v>
       </c>
-      <c r="Y37" s="128" t="n">
-        <f aca="false">Y33/Y17</f>
+      <c r="Y38" s="126" t="n">
+        <f aca="false">Y34/Y18</f>
         <v>1011.15082613368</v>
       </c>
-      <c r="Z37" s="130" t="n">
-        <f aca="false">Z33/Z17</f>
+      <c r="Z38" s="128" t="n">
+        <f aca="false">Z34/Z18</f>
         <v>1035.91938127696</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="115"/>
-      <c r="C38" s="147"/>
-      <c r="D38" s="153"/>
-      <c r="E38" s="153"/>
-      <c r="F38" s="153"/>
-      <c r="G38" s="153"/>
-      <c r="H38" s="153"/>
-      <c r="I38" s="153"/>
-      <c r="J38" s="153"/>
-      <c r="K38" s="154" t="n">
-        <f aca="false">K37/J37-1</f>
+    <row r="39" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B39" s="113"/>
+      <c r="C39" s="145"/>
+      <c r="D39" s="151"/>
+      <c r="E39" s="151"/>
+      <c r="F39" s="151"/>
+      <c r="G39" s="151"/>
+      <c r="H39" s="151"/>
+      <c r="I39" s="151"/>
+      <c r="J39" s="151"/>
+      <c r="K39" s="152" t="n">
+        <f aca="false">K38/J38-1</f>
         <v>0.204229823228049</v>
       </c>
-      <c r="L38" s="154" t="n">
-        <f aca="false">L37/K37-1</f>
+      <c r="L39" s="152" t="n">
+        <f aca="false">L38/K38-1</f>
         <v>0.251128146756355</v>
       </c>
-      <c r="M38" s="154" t="n">
-        <f aca="false">M37/L37-1</f>
+      <c r="M39" s="152" t="n">
+        <f aca="false">M38/L38-1</f>
         <v>0.176467170207382</v>
       </c>
-      <c r="N38" s="154" t="n">
-        <f aca="false">N37/M37-1</f>
+      <c r="N39" s="152" t="n">
+        <f aca="false">N38/M38-1</f>
         <v>0.0529360404241068</v>
       </c>
-      <c r="O38" s="154" t="n">
-        <f aca="false">O37/N37-1</f>
+      <c r="O39" s="152" t="n">
+        <f aca="false">O38/N38-1</f>
         <v>-0.111342527789523</v>
       </c>
-      <c r="P38" s="154" t="n">
-        <f aca="false">P37/O37-1</f>
+      <c r="P39" s="152" t="n">
+        <f aca="false">P38/O38-1</f>
         <v>0.149614710238145</v>
       </c>
-      <c r="Q38" s="154" t="n">
-        <f aca="false">Q37/P37-1</f>
+      <c r="Q39" s="152" t="n">
+        <f aca="false">Q38/P38-1</f>
         <v>-0.166813743995794</v>
       </c>
-      <c r="R38" s="154" t="n">
-        <f aca="false">R37/Q37-1</f>
+      <c r="R39" s="152" t="n">
+        <f aca="false">R38/Q38-1</f>
         <v>0.153679591029416</v>
       </c>
-      <c r="S38" s="154" t="n">
-        <f aca="false">S37/R37-1</f>
+      <c r="S39" s="152" t="n">
+        <f aca="false">S38/R38-1</f>
         <v>-0.24925957994596</v>
       </c>
-      <c r="T38" s="155" t="n">
-        <f aca="false">T37/S37-1</f>
+      <c r="T39" s="153" t="n">
+        <f aca="false">T38/S38-1</f>
         <v>-0.155854311848159</v>
       </c>
-      <c r="U38" s="154" t="n">
-        <f aca="false">U37/T37-1</f>
+      <c r="U39" s="152" t="n">
+        <f aca="false">U38/T38-1</f>
         <v>-0.0590394836658388</v>
       </c>
-      <c r="V38" s="154" t="n">
-        <f aca="false">V37/U37-1</f>
+      <c r="V39" s="152" t="n">
+        <f aca="false">V38/U38-1</f>
         <v>-0.00338977138523411</v>
       </c>
-      <c r="W38" s="154" t="n">
-        <f aca="false">W37/V37-1</f>
+      <c r="W39" s="152" t="n">
+        <f aca="false">W38/V38-1</f>
         <v>0.0256165911064281</v>
       </c>
-      <c r="X38" s="154" t="n">
-        <f aca="false">X37/W37-1</f>
+      <c r="X39" s="152" t="n">
+        <f aca="false">X38/W38-1</f>
         <v>0.0200933278478788</v>
       </c>
-      <c r="Y38" s="154" t="n">
-        <f aca="false">Y37/X37-1</f>
+      <c r="Y39" s="152" t="n">
+        <f aca="false">Y38/X38-1</f>
         <v>0.0264042025815043</v>
       </c>
-      <c r="Z38" s="156" t="n">
-        <f aca="false">Z37/Y37-1</f>
+      <c r="Z39" s="154" t="n">
+        <f aca="false">Z38/Y38-1</f>
         <v>0.0244954110733298</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="K39" s="148"/>
-      <c r="L39" s="148"/>
-      <c r="M39" s="148"/>
-      <c r="N39" s="148"/>
-      <c r="O39" s="148"/>
-      <c r="P39" s="148"/>
-      <c r="Q39" s="148"/>
-      <c r="R39" s="148"/>
-      <c r="S39" s="148"/>
-      <c r="T39" s="149"/>
-      <c r="U39" s="148"/>
-      <c r="V39" s="148"/>
-      <c r="W39" s="148"/>
-      <c r="X39" s="148"/>
-      <c r="Y39" s="148"/>
-      <c r="Z39" s="148"/>
-    </row>
-    <row r="40" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B40" s="115" t="s">
-        <v>69</v>
-      </c>
-      <c r="C40" s="157" t="s">
-        <v>70</v>
-      </c>
-      <c r="D40" s="117"/>
-      <c r="E40" s="117"/>
-      <c r="F40" s="117"/>
-      <c r="G40" s="117"/>
-      <c r="H40" s="117"/>
-      <c r="I40" s="117"/>
-      <c r="J40" s="117" t="n">
+    <row r="40" customFormat="false" ht="8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="K40" s="146"/>
+      <c r="L40" s="146"/>
+      <c r="M40" s="146"/>
+      <c r="N40" s="146"/>
+      <c r="O40" s="146"/>
+      <c r="P40" s="146"/>
+      <c r="Q40" s="146"/>
+      <c r="R40" s="146"/>
+      <c r="S40" s="146"/>
+      <c r="T40" s="147"/>
+      <c r="U40" s="146"/>
+      <c r="V40" s="146"/>
+      <c r="W40" s="146"/>
+      <c r="X40" s="146"/>
+      <c r="Y40" s="146"/>
+      <c r="Z40" s="146"/>
+    </row>
+    <row r="41" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B41" s="113" t="s">
+        <v>71</v>
+      </c>
+      <c r="C41" s="155" t="s">
+        <v>72</v>
+      </c>
+      <c r="D41" s="115"/>
+      <c r="E41" s="115"/>
+      <c r="F41" s="115"/>
+      <c r="G41" s="115"/>
+      <c r="H41" s="115"/>
+      <c r="I41" s="115"/>
+      <c r="J41" s="115" t="n">
         <v>47967.4775462902</v>
       </c>
-      <c r="K40" s="118" t="n">
+      <c r="K41" s="116" t="n">
         <v>52189.8299713265</v>
       </c>
-      <c r="L40" s="118" t="n">
+      <c r="L41" s="116" t="n">
         <v>46375.9225692508</v>
       </c>
-      <c r="M40" s="118" t="n">
+      <c r="M41" s="116" t="n">
         <v>43290.1997030891</v>
       </c>
-      <c r="N40" s="118" t="n">
+      <c r="N41" s="116" t="n">
         <v>30600.4433420006</v>
       </c>
-      <c r="O40" s="118" t="n">
+      <c r="O41" s="116" t="n">
         <v>31407.5471234799</v>
       </c>
-      <c r="P40" s="118" t="n">
+      <c r="P41" s="116" t="n">
         <v>25563.4818915802</v>
       </c>
-      <c r="Q40" s="118" t="n">
+      <c r="Q41" s="116" t="n">
         <v>38771.6299478871</v>
       </c>
-      <c r="R40" s="118" t="n">
+      <c r="R41" s="116" t="n">
         <v>55055.0806958486</v>
       </c>
-      <c r="S40" s="118" t="n">
+      <c r="S41" s="116" t="n">
         <v>66323.9978938135</v>
       </c>
-      <c r="T40" s="119" t="n">
+      <c r="T41" s="117" t="n">
         <v>44848.3434176476</v>
       </c>
-      <c r="U40" s="118" t="n">
+      <c r="U41" s="116" t="n">
         <v>0</v>
       </c>
-      <c r="V40" s="118" t="n">
+      <c r="V41" s="116" t="n">
         <v>0</v>
       </c>
-      <c r="W40" s="118" t="n">
+      <c r="W41" s="116" t="n">
         <v>0</v>
       </c>
-      <c r="X40" s="118" t="n">
+      <c r="X41" s="116" t="n">
         <v>0</v>
       </c>
-      <c r="Y40" s="118" t="n">
+      <c r="Y41" s="116" t="n">
         <v>0</v>
       </c>
-      <c r="Z40" s="120" t="n">
+      <c r="Z41" s="118" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="16" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="115"/>
-      <c r="C41" s="157"/>
-      <c r="D41" s="158"/>
-      <c r="E41" s="158"/>
-      <c r="F41" s="158"/>
-      <c r="G41" s="158"/>
-      <c r="H41" s="158"/>
-      <c r="I41" s="158"/>
-      <c r="J41" s="158"/>
-      <c r="K41" s="123" t="n">
-        <f aca="false">K40/J40-1</f>
+    <row r="42" customFormat="false" ht="16" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B42" s="113"/>
+      <c r="C42" s="155"/>
+      <c r="D42" s="156"/>
+      <c r="E42" s="156"/>
+      <c r="F42" s="156"/>
+      <c r="G42" s="156"/>
+      <c r="H42" s="156"/>
+      <c r="I42" s="156"/>
+      <c r="J42" s="156"/>
+      <c r="K42" s="121" t="n">
+        <f aca="false">K41/J41-1</f>
         <v>0.0880253171737375</v>
       </c>
-      <c r="L41" s="123" t="n">
-        <f aca="false">L40/K40-1</f>
+      <c r="L42" s="121" t="n">
+        <f aca="false">L41/K41-1</f>
         <v>-0.111399240144487</v>
       </c>
-      <c r="M41" s="123" t="n">
-        <f aca="false">M40/L40-1</f>
+      <c r="M42" s="121" t="n">
+        <f aca="false">M41/L41-1</f>
         <v>-0.0665371747926726</v>
       </c>
-      <c r="N41" s="123" t="n">
-        <f aca="false">N40/M40-1</f>
+      <c r="N42" s="121" t="n">
+        <f aca="false">N41/M41-1</f>
         <v>-0.293132312812661</v>
       </c>
-      <c r="O41" s="123" t="n">
-        <f aca="false">O40/N40-1</f>
+      <c r="O42" s="121" t="n">
+        <f aca="false">O41/N41-1</f>
         <v>0.0263755584341971</v>
       </c>
-      <c r="P41" s="123" t="n">
-        <f aca="false">P40/O40-1</f>
+      <c r="P42" s="121" t="n">
+        <f aca="false">P41/O41-1</f>
         <v>-0.186072003933436</v>
       </c>
-      <c r="Q41" s="123" t="n">
-        <f aca="false">Q40/P40-1</f>
+      <c r="Q42" s="121" t="n">
+        <f aca="false">Q41/P41-1</f>
         <v>0.516680322043974</v>
       </c>
-      <c r="R41" s="123" t="n">
-        <f aca="false">R40/Q40-1</f>
+      <c r="R42" s="121" t="n">
+        <f aca="false">R41/Q41-1</f>
         <v>0.419983652218079</v>
       </c>
-      <c r="S41" s="123"/>
-      <c r="T41" s="124"/>
-      <c r="U41" s="123"/>
-      <c r="V41" s="123"/>
-      <c r="W41" s="123"/>
-      <c r="X41" s="123"/>
-      <c r="Y41" s="123"/>
-      <c r="Z41" s="125"/>
-    </row>
-    <row r="42" customFormat="false" ht="16" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B42" s="115"/>
-      <c r="C42" s="159" t="s">
-        <v>71</v>
-      </c>
-      <c r="D42" s="160"/>
-      <c r="E42" s="160"/>
-      <c r="F42" s="160"/>
-      <c r="G42" s="160"/>
-      <c r="H42" s="160"/>
-      <c r="I42" s="160"/>
-      <c r="J42" s="160" t="n">
-        <v>122350.171</v>
-      </c>
-      <c r="K42" s="161" t="n">
-        <v>160407.987</v>
-      </c>
-      <c r="L42" s="161" t="n">
-        <v>222921.853</v>
-      </c>
-      <c r="M42" s="161" t="n">
-        <v>307351.516</v>
-      </c>
-      <c r="N42" s="161" t="n">
-        <v>377196.52374309</v>
-      </c>
-      <c r="O42" s="161" t="n">
-        <v>462564.475</v>
-      </c>
-      <c r="P42" s="161" t="n">
-        <v>623889.517</v>
-      </c>
-      <c r="Q42" s="161" t="n">
-        <v>821664.245</v>
-      </c>
-      <c r="R42" s="161" t="n">
-        <v>1001112.808</v>
-      </c>
-      <c r="S42" s="161" t="n">
-        <v>1396183.175</v>
-      </c>
-      <c r="T42" s="162" t="n">
-        <v>1895380.875</v>
-      </c>
-      <c r="U42" s="161" t="n">
-        <v>2589518.19995336</v>
-      </c>
-      <c r="V42" s="161" t="n">
-        <v>3830610.16262929</v>
-      </c>
-      <c r="W42" s="161" t="n">
-        <v>5467744.88169742</v>
-      </c>
-      <c r="X42" s="161" t="n">
-        <v>7476735.66466116</v>
-      </c>
-      <c r="Y42" s="161" t="n">
-        <v>9895361.86180508</v>
-      </c>
-      <c r="Z42" s="163" t="n">
-        <v>12799695.8417635</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="16" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="115"/>
-      <c r="C43" s="159"/>
+      <c r="S42" s="121"/>
+      <c r="T42" s="122"/>
+      <c r="U42" s="121"/>
+      <c r="V42" s="121"/>
+      <c r="W42" s="121"/>
+      <c r="X42" s="121"/>
+      <c r="Y42" s="121"/>
+      <c r="Z42" s="123"/>
+    </row>
+    <row r="43" customFormat="false" ht="16" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B43" s="113"/>
+      <c r="C43" s="157" t="s">
+        <v>73</v>
+      </c>
       <c r="D43" s="158"/>
       <c r="E43" s="158"/>
       <c r="F43" s="158"/>
       <c r="G43" s="158"/>
       <c r="H43" s="158"/>
       <c r="I43" s="158"/>
-      <c r="J43" s="158"/>
-      <c r="K43" s="123" t="n">
-        <f aca="false">K42/J42-1</f>
+      <c r="J43" s="158" t="n">
+        <v>122350.171</v>
+      </c>
+      <c r="K43" s="159" t="n">
+        <v>160407.987</v>
+      </c>
+      <c r="L43" s="159" t="n">
+        <v>222921.853</v>
+      </c>
+      <c r="M43" s="159" t="n">
+        <v>307351.516</v>
+      </c>
+      <c r="N43" s="159" t="n">
+        <v>377196.52374309</v>
+      </c>
+      <c r="O43" s="159" t="n">
+        <v>462564.475</v>
+      </c>
+      <c r="P43" s="159" t="n">
+        <v>623889.517</v>
+      </c>
+      <c r="Q43" s="159" t="n">
+        <v>821664.245</v>
+      </c>
+      <c r="R43" s="159" t="n">
+        <v>1001112.808</v>
+      </c>
+      <c r="S43" s="159" t="n">
+        <v>1396183.175</v>
+      </c>
+      <c r="T43" s="160" t="n">
+        <v>1895380.875</v>
+      </c>
+      <c r="U43" s="159" t="n">
+        <v>2589518.19995336</v>
+      </c>
+      <c r="V43" s="159" t="n">
+        <v>3830610.16262929</v>
+      </c>
+      <c r="W43" s="159" t="n">
+        <v>5467744.88169742</v>
+      </c>
+      <c r="X43" s="159" t="n">
+        <v>7476735.66466116</v>
+      </c>
+      <c r="Y43" s="159" t="n">
+        <v>9895361.86180508</v>
+      </c>
+      <c r="Z43" s="161" t="n">
+        <v>12799695.8417635</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="16" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B44" s="113"/>
+      <c r="C44" s="157"/>
+      <c r="D44" s="156"/>
+      <c r="E44" s="156"/>
+      <c r="F44" s="156"/>
+      <c r="G44" s="156"/>
+      <c r="H44" s="156"/>
+      <c r="I44" s="156"/>
+      <c r="J44" s="156"/>
+      <c r="K44" s="121" t="n">
+        <f aca="false">K43/J43-1</f>
         <v>0.311056500280658</v>
       </c>
-      <c r="L43" s="123" t="n">
-        <f aca="false">L42/K42-1</f>
+      <c r="L44" s="121" t="n">
+        <f aca="false">L43/K43-1</f>
         <v>0.389717913485193</v>
       </c>
-      <c r="M43" s="123" t="n">
-        <f aca="false">M42/L42-1</f>
+      <c r="M44" s="121" t="n">
+        <f aca="false">M43/L43-1</f>
         <v>0.3787410783814</v>
       </c>
-      <c r="N43" s="123" t="n">
-        <f aca="false">N42/M42-1</f>
+      <c r="N44" s="121" t="n">
+        <f aca="false">N43/M43-1</f>
         <v>0.227247968879679</v>
       </c>
-      <c r="O43" s="123" t="n">
-        <f aca="false">O42/N42-1</f>
+      <c r="O44" s="121" t="n">
+        <f aca="false">O43/N43-1</f>
         <v>0.226322211057953</v>
       </c>
-      <c r="P43" s="123" t="n">
-        <f aca="false">P42/O42-1</f>
+      <c r="P44" s="121" t="n">
+        <f aca="false">P43/O43-1</f>
         <v>0.348762282274271</v>
       </c>
-      <c r="Q43" s="123" t="n">
-        <f aca="false">Q42/P42-1</f>
+      <c r="Q44" s="121" t="n">
+        <f aca="false">Q43/P43-1</f>
         <v>0.317002806764583</v>
       </c>
-      <c r="R43" s="123" t="n">
-        <f aca="false">R42/Q42-1</f>
+      <c r="R44" s="121" t="n">
+        <f aca="false">R43/Q43-1</f>
         <v>0.218396460710055</v>
       </c>
-      <c r="S43" s="123" t="n">
-        <f aca="false">S42/R42-1</f>
+      <c r="S44" s="121" t="n">
+        <f aca="false">S43/R43-1</f>
         <v>0.394631218223311</v>
       </c>
-      <c r="T43" s="124" t="n">
-        <f aca="false">T42/S42-1</f>
+      <c r="T44" s="122" t="n">
+        <f aca="false">T43/S43-1</f>
         <v>0.357544560727141</v>
       </c>
-      <c r="U43" s="123" t="n">
-        <f aca="false">U42/T42-1</f>
+      <c r="U44" s="121" t="n">
+        <f aca="false">U43/T43-1</f>
         <v>0.366225772407543</v>
       </c>
-      <c r="V43" s="123" t="n">
-        <f aca="false">V42/U42-1</f>
+      <c r="V44" s="121" t="n">
+        <f aca="false">V43/U43-1</f>
         <v>0.479275242281859</v>
       </c>
-      <c r="W43" s="123" t="n">
-        <f aca="false">W42/V42-1</f>
+      <c r="W44" s="121" t="n">
+        <f aca="false">W43/V43-1</f>
         <v>0.427382231436576</v>
       </c>
-      <c r="X43" s="123" t="n">
-        <f aca="false">X42/W42-1</f>
+      <c r="X44" s="121" t="n">
+        <f aca="false">X43/W43-1</f>
         <v>0.367425844919828</v>
       </c>
-      <c r="Y43" s="123" t="n">
-        <f aca="false">Y42/X42-1</f>
+      <c r="Y44" s="121" t="n">
+        <f aca="false">Y43/X43-1</f>
         <v>0.323486920712681</v>
       </c>
-      <c r="Z43" s="125" t="n">
-        <f aca="false">Z42/Y42-1</f>
+      <c r="Z44" s="123" t="n">
+        <f aca="false">Z43/Y43-1</f>
         <v>0.293504575226174</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="33" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="115"/>
-      <c r="C44" s="131" t="s">
-        <v>72</v>
-      </c>
-      <c r="D44" s="164"/>
-      <c r="E44" s="164"/>
-      <c r="F44" s="164"/>
-      <c r="G44" s="164"/>
-      <c r="H44" s="164"/>
-      <c r="I44" s="164"/>
-      <c r="J44" s="164" t="n">
+    <row r="45" customFormat="false" ht="33" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B45" s="113"/>
+      <c r="C45" s="129" t="s">
+        <v>74</v>
+      </c>
+      <c r="D45" s="162"/>
+      <c r="E45" s="162"/>
+      <c r="F45" s="162"/>
+      <c r="G45" s="162"/>
+      <c r="H45" s="162"/>
+      <c r="I45" s="162"/>
+      <c r="J45" s="162" t="n">
         <v>0.444604339784699</v>
       </c>
-      <c r="K44" s="165" t="n">
+      <c r="K45" s="163" t="n">
         <v>0.552191431714681</v>
       </c>
-      <c r="L44" s="165" t="n">
+      <c r="L45" s="163" t="n">
         <v>0.377629572278856</v>
       </c>
-      <c r="M44" s="165" t="n">
+      <c r="M45" s="163" t="n">
         <v>0.324888529263021</v>
       </c>
-      <c r="N44" s="165" t="n">
+      <c r="N45" s="163" t="n">
         <v>0.293074398961226</v>
       </c>
-      <c r="O44" s="165" t="n">
+      <c r="O45" s="163" t="n">
         <v>0.609937116333891</v>
       </c>
-      <c r="P44" s="165" t="n">
+      <c r="P45" s="163" t="n">
         <v>0.668213768047653</v>
       </c>
-      <c r="Q44" s="165" t="n">
+      <c r="Q45" s="163" t="n">
         <v>0.850012172551089</v>
       </c>
-      <c r="R44" s="165" t="n">
+      <c r="R45" s="163" t="n">
         <v>1.15904189990145</v>
       </c>
-      <c r="S44" s="165"/>
-      <c r="T44" s="166"/>
-      <c r="U44" s="165"/>
-      <c r="V44" s="165"/>
-      <c r="W44" s="165"/>
-      <c r="X44" s="165"/>
-      <c r="Y44" s="165"/>
-      <c r="Z44" s="167"/>
-    </row>
-    <row r="45" customFormat="false" ht="8" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="K45" s="148"/>
-      <c r="L45" s="148"/>
-      <c r="M45" s="148"/>
-      <c r="N45" s="148"/>
-      <c r="O45" s="148"/>
-      <c r="P45" s="148"/>
-      <c r="Q45" s="148"/>
-      <c r="R45" s="148"/>
-      <c r="S45" s="148"/>
-      <c r="T45" s="149"/>
-      <c r="U45" s="148"/>
-      <c r="V45" s="148"/>
-      <c r="W45" s="148"/>
-      <c r="X45" s="148"/>
-      <c r="Y45" s="148"/>
-      <c r="Z45" s="148"/>
-    </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B46" s="168" t="s">
-        <v>73</v>
-      </c>
-      <c r="C46" s="150" t="s">
-        <v>74</v>
-      </c>
-      <c r="D46" s="117"/>
-      <c r="E46" s="117"/>
-      <c r="F46" s="117"/>
-      <c r="G46" s="117"/>
-      <c r="H46" s="117"/>
-      <c r="I46" s="117"/>
-      <c r="J46" s="117" t="n">
+      <c r="S45" s="163"/>
+      <c r="T45" s="164"/>
+      <c r="U45" s="163"/>
+      <c r="V45" s="163"/>
+      <c r="W45" s="163"/>
+      <c r="X45" s="163"/>
+      <c r="Y45" s="163"/>
+      <c r="Z45" s="165"/>
+    </row>
+    <row r="46" customFormat="false" ht="8" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="K46" s="146"/>
+      <c r="L46" s="146"/>
+      <c r="M46" s="146"/>
+      <c r="N46" s="146"/>
+      <c r="O46" s="146"/>
+      <c r="P46" s="146"/>
+      <c r="Q46" s="146"/>
+      <c r="R46" s="146"/>
+      <c r="S46" s="146"/>
+      <c r="T46" s="147"/>
+      <c r="U46" s="146"/>
+      <c r="V46" s="146"/>
+      <c r="W46" s="146"/>
+      <c r="X46" s="146"/>
+      <c r="Y46" s="146"/>
+      <c r="Z46" s="146"/>
+    </row>
+    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B47" s="166" t="s">
+        <v>75</v>
+      </c>
+      <c r="C47" s="148" t="s">
+        <v>76</v>
+      </c>
+      <c r="D47" s="115"/>
+      <c r="E47" s="115"/>
+      <c r="F47" s="115"/>
+      <c r="G47" s="115"/>
+      <c r="H47" s="115"/>
+      <c r="I47" s="115"/>
+      <c r="J47" s="115" t="n">
         <v>55672.09663613</v>
       </c>
-      <c r="K46" s="118" t="n">
+      <c r="K47" s="116" t="n">
         <v>68174.44704942</v>
       </c>
-      <c r="L46" s="118" t="n">
+      <c r="L47" s="116" t="n">
         <v>82981.09128192</v>
       </c>
-      <c r="M46" s="118" t="n">
+      <c r="M47" s="116" t="n">
         <v>79982.38788821</v>
       </c>
-      <c r="N46" s="118" t="n">
+      <c r="N47" s="116" t="n">
         <v>75962.98136107</v>
       </c>
-      <c r="O46" s="118" t="n">
+      <c r="O47" s="116" t="n">
         <v>68407.38182459</v>
       </c>
-      <c r="P46" s="118" t="n">
+      <c r="P47" s="116" t="n">
         <v>56787.98227166</v>
       </c>
-      <c r="Q46" s="118" t="n">
+      <c r="Q47" s="116" t="n">
         <v>57818.6136221641</v>
       </c>
-      <c r="R46" s="118" t="n">
+      <c r="R47" s="116" t="n">
         <v>58622</v>
       </c>
-      <c r="S46" s="118" t="n">
+      <c r="S47" s="116" t="n">
         <v>61784</v>
       </c>
-      <c r="T46" s="119" t="n">
+      <c r="T47" s="117" t="n">
         <v>65078</v>
       </c>
-      <c r="U46" s="118" t="n">
+      <c r="U47" s="116" t="n">
         <v>56853.113031735</v>
       </c>
-      <c r="V46" s="118" t="n">
+      <c r="V47" s="116" t="n">
         <v>62628.9054473068</v>
       </c>
-      <c r="W46" s="118" t="n">
+      <c r="W47" s="116" t="n">
         <v>66722.1856448769</v>
       </c>
-      <c r="X46" s="118" t="n">
+      <c r="X47" s="116" t="n">
         <v>70237.6635744378</v>
       </c>
-      <c r="Y46" s="118" t="n">
+      <c r="Y47" s="116" t="n">
         <v>73724.432854732</v>
       </c>
-      <c r="Z46" s="120" t="n">
+      <c r="Z47" s="118" t="n">
         <v>77392.3981888197</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B47" s="168"/>
-      <c r="C47" s="150"/>
-      <c r="D47" s="122"/>
-      <c r="E47" s="122"/>
-      <c r="F47" s="122"/>
-      <c r="G47" s="122"/>
-      <c r="H47" s="122"/>
-      <c r="I47" s="122"/>
-      <c r="J47" s="122"/>
-      <c r="K47" s="123" t="n">
-        <f aca="false">K46/J46-1</f>
+    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B48" s="166"/>
+      <c r="C48" s="148"/>
+      <c r="D48" s="120"/>
+      <c r="E48" s="120"/>
+      <c r="F48" s="120"/>
+      <c r="G48" s="120"/>
+      <c r="H48" s="120"/>
+      <c r="I48" s="120"/>
+      <c r="J48" s="120"/>
+      <c r="K48" s="121" t="n">
+        <f aca="false">K47/J47-1</f>
         <v>0.224571215540969</v>
       </c>
-      <c r="L47" s="123" t="n">
-        <f aca="false">L46/K46-1</f>
+      <c r="L48" s="121" t="n">
+        <f aca="false">L47/K47-1</f>
         <v>0.217187595548323</v>
       </c>
-      <c r="M47" s="123" t="n">
-        <f aca="false">M46/L46-1</f>
+      <c r="M48" s="121" t="n">
+        <f aca="false">M47/L47-1</f>
         <v>-0.0361371891762932</v>
       </c>
-      <c r="N47" s="123" t="n">
-        <f aca="false">N46/M46-1</f>
+      <c r="N48" s="121" t="n">
+        <f aca="false">N47/M47-1</f>
         <v>-0.0502536449994196</v>
       </c>
-      <c r="O47" s="123" t="n">
-        <f aca="false">O46/N46-1</f>
+      <c r="O48" s="121" t="n">
+        <f aca="false">O47/N47-1</f>
         <v>-0.0994642311439364</v>
       </c>
-      <c r="P47" s="123" t="n">
-        <f aca="false">P46/O46-1</f>
+      <c r="P48" s="121" t="n">
+        <f aca="false">P47/O47-1</f>
         <v>-0.169855931377763</v>
       </c>
-      <c r="Q47" s="123" t="n">
-        <f aca="false">Q46/P46-1</f>
+      <c r="Q48" s="121" t="n">
+        <f aca="false">Q47/P47-1</f>
         <v>0.0181487580519022</v>
       </c>
-      <c r="R47" s="123" t="n">
-        <f aca="false">R46/Q46-1</f>
+      <c r="R48" s="121" t="n">
+        <f aca="false">R47/Q47-1</f>
         <v>0.0138949436436844</v>
       </c>
-      <c r="S47" s="123" t="n">
-        <f aca="false">S46/R46-1</f>
+      <c r="S48" s="121" t="n">
+        <f aca="false">S47/R47-1</f>
         <v>0.0539387943093037</v>
       </c>
-      <c r="T47" s="124" t="n">
-        <f aca="false">T46/S46-1</f>
+      <c r="T48" s="122" t="n">
+        <f aca="false">T47/S47-1</f>
         <v>0.0533147740515343</v>
       </c>
-      <c r="U47" s="123" t="n">
-        <f aca="false">U46/T46-1</f>
+      <c r="U48" s="121" t="n">
+        <f aca="false">U47/T47-1</f>
         <v>-0.126385060516073</v>
       </c>
-      <c r="V47" s="123" t="n">
-        <f aca="false">V46/U46-1</f>
+      <c r="V48" s="121" t="n">
+        <f aca="false">V47/U47-1</f>
         <v>0.101591489147617</v>
       </c>
-      <c r="W47" s="123" t="n">
-        <f aca="false">W46/V46-1</f>
+      <c r="W48" s="121" t="n">
+        <f aca="false">W47/V47-1</f>
         <v>0.0653576837777261</v>
       </c>
-      <c r="X47" s="123" t="n">
-        <f aca="false">X46/W46-1</f>
+      <c r="X48" s="121" t="n">
+        <f aca="false">X47/W47-1</f>
         <v>0.0526882909422608</v>
       </c>
-      <c r="Y47" s="123" t="n">
-        <f aca="false">Y46/X46-1</f>
+      <c r="Y48" s="121" t="n">
+        <f aca="false">Y47/X47-1</f>
         <v>0.049642443994439</v>
       </c>
-      <c r="Z47" s="125" t="n">
-        <f aca="false">Z46/Y46-1</f>
+      <c r="Z48" s="123" t="n">
+        <f aca="false">Z47/Y47-1</f>
         <v>0.0497523709855467</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B48" s="168"/>
-      <c r="C48" s="152" t="s">
-        <v>75</v>
-      </c>
-      <c r="D48" s="127"/>
-      <c r="E48" s="127"/>
-      <c r="F48" s="127"/>
-      <c r="G48" s="127"/>
-      <c r="H48" s="127"/>
-      <c r="I48" s="127"/>
-      <c r="J48" s="127" t="n">
+    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B49" s="166"/>
+      <c r="C49" s="150" t="s">
+        <v>77</v>
+      </c>
+      <c r="D49" s="125"/>
+      <c r="E49" s="125"/>
+      <c r="F49" s="125"/>
+      <c r="G49" s="125"/>
+      <c r="H49" s="125"/>
+      <c r="I49" s="125"/>
+      <c r="J49" s="125" t="n">
         <v>38786</v>
       </c>
-      <c r="K48" s="128" t="n">
+      <c r="K49" s="126" t="n">
         <v>56793</v>
       </c>
-      <c r="L48" s="128" t="n">
+      <c r="L49" s="126" t="n">
         <v>73962</v>
       </c>
-      <c r="M48" s="128" t="n">
+      <c r="M49" s="126" t="n">
         <v>67976</v>
       </c>
-      <c r="N48" s="128" t="n">
+      <c r="N49" s="126" t="n">
         <v>74442</v>
       </c>
-      <c r="O48" s="128" t="n">
+      <c r="O49" s="126" t="n">
         <v>65735</v>
       </c>
-      <c r="P48" s="128" t="n">
+      <c r="P49" s="126" t="n">
         <v>60205</v>
       </c>
-      <c r="Q48" s="128" t="n">
+      <c r="Q49" s="126" t="n">
         <v>55852</v>
       </c>
-      <c r="R48" s="128" t="n">
+      <c r="R49" s="126" t="n">
         <v>66937</v>
       </c>
-      <c r="S48" s="128" t="n">
+      <c r="S49" s="126" t="n">
         <v>65482</v>
       </c>
-      <c r="T48" s="129" t="n">
+      <c r="T49" s="127" t="n">
         <v>49124</v>
       </c>
-      <c r="U48" s="128" t="n">
+      <c r="U49" s="126" t="n">
         <v>39476.6319283383</v>
       </c>
-      <c r="V48" s="128" t="n">
+      <c r="V49" s="126" t="n">
         <v>46311.6412458315</v>
       </c>
-      <c r="W48" s="128" t="n">
+      <c r="W49" s="126" t="n">
         <v>50952.575015106</v>
       </c>
-      <c r="X48" s="128" t="n">
+      <c r="X49" s="126" t="n">
         <v>54868.7027830181</v>
       </c>
-      <c r="Y48" s="128" t="n">
+      <c r="Y49" s="126" t="n">
         <v>58502.8295739881</v>
       </c>
-      <c r="Z48" s="130" t="n">
+      <c r="Z49" s="128" t="n">
         <v>61861.043752689</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B49" s="168"/>
-      <c r="C49" s="152"/>
-      <c r="D49" s="122"/>
-      <c r="E49" s="122"/>
-      <c r="F49" s="122"/>
-      <c r="G49" s="122"/>
-      <c r="H49" s="122"/>
-      <c r="I49" s="122"/>
-      <c r="J49" s="122"/>
-      <c r="K49" s="123" t="n">
-        <f aca="false">K48/J48-1</f>
+    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B50" s="166"/>
+      <c r="C50" s="150"/>
+      <c r="D50" s="120"/>
+      <c r="E50" s="120"/>
+      <c r="F50" s="120"/>
+      <c r="G50" s="120"/>
+      <c r="H50" s="120"/>
+      <c r="I50" s="120"/>
+      <c r="J50" s="120"/>
+      <c r="K50" s="121" t="n">
+        <f aca="false">K49/J49-1</f>
         <v>0.464265456608054</v>
       </c>
-      <c r="L49" s="123" t="n">
-        <f aca="false">L48/K48-1</f>
+      <c r="L50" s="121" t="n">
+        <f aca="false">L49/K49-1</f>
         <v>0.302308383075379</v>
       </c>
-      <c r="M49" s="123" t="n">
-        <f aca="false">M48/L48-1</f>
+      <c r="M50" s="121" t="n">
+        <f aca="false">M49/L49-1</f>
         <v>-0.0809334523133501</v>
       </c>
-      <c r="N49" s="123" t="n">
-        <f aca="false">N48/M48-1</f>
+      <c r="N50" s="121" t="n">
+        <f aca="false">N49/M49-1</f>
         <v>0.0951218076968341</v>
       </c>
-      <c r="O49" s="123" t="n">
-        <f aca="false">O48/N48-1</f>
+      <c r="O50" s="121" t="n">
+        <f aca="false">O49/N49-1</f>
         <v>-0.116963542086457</v>
       </c>
-      <c r="P49" s="123" t="n">
-        <f aca="false">P48/O48-1</f>
+      <c r="P50" s="121" t="n">
+        <f aca="false">P49/O49-1</f>
         <v>-0.0841256560432038</v>
       </c>
-      <c r="Q49" s="123" t="n">
-        <f aca="false">Q48/P48-1</f>
+      <c r="Q50" s="121" t="n">
+        <f aca="false">Q49/P49-1</f>
         <v>-0.0723029648700274</v>
       </c>
-      <c r="R49" s="123" t="n">
-        <f aca="false">R48/Q48-1</f>
+      <c r="R50" s="121" t="n">
+        <f aca="false">R49/Q49-1</f>
         <v>0.198470958962974</v>
       </c>
-      <c r="S49" s="123" t="n">
-        <f aca="false">S48/R48-1</f>
+      <c r="S50" s="121" t="n">
+        <f aca="false">S49/R49-1</f>
         <v>-0.0217368570446838</v>
       </c>
-      <c r="T49" s="124" t="n">
-        <f aca="false">T48/S48-1</f>
+      <c r="T50" s="122" t="n">
+        <f aca="false">T49/S49-1</f>
         <v>-0.249809107846431</v>
       </c>
-      <c r="U49" s="123" t="n">
-        <f aca="false">U48/T48-1</f>
+      <c r="U50" s="121" t="n">
+        <f aca="false">U49/T49-1</f>
         <v>-0.196388080605442</v>
       </c>
-      <c r="V49" s="123" t="n">
-        <f aca="false">V48/U48-1</f>
+      <c r="V50" s="121" t="n">
+        <f aca="false">V49/U49-1</f>
         <v>0.173140640009533</v>
       </c>
-      <c r="W49" s="123" t="n">
-        <f aca="false">W48/V48-1</f>
+      <c r="W50" s="121" t="n">
+        <f aca="false">W49/V49-1</f>
         <v>0.100210954404303</v>
       </c>
-      <c r="X49" s="123" t="n">
-        <f aca="false">X48/W48-1</f>
+      <c r="X50" s="121" t="n">
+        <f aca="false">X49/W49-1</f>
         <v>0.0768582896301338</v>
       </c>
-      <c r="Y49" s="123" t="n">
-        <f aca="false">Y48/X48-1</f>
+      <c r="Y50" s="121" t="n">
+        <f aca="false">Y49/X49-1</f>
         <v>0.0662331457942689</v>
       </c>
-      <c r="Z49" s="125" t="n">
-        <f aca="false">Z48/Y48-1</f>
+      <c r="Z50" s="123" t="n">
+        <f aca="false">Z49/Y49-1</f>
         <v>0.0574025940822862</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="31" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B50" s="168"/>
-      <c r="C50" s="126" t="s">
-        <v>76</v>
-      </c>
-      <c r="D50" s="169"/>
-      <c r="E50" s="170"/>
-      <c r="F50" s="170"/>
-      <c r="G50" s="170"/>
-      <c r="H50" s="170"/>
-      <c r="I50" s="170"/>
-      <c r="J50" s="171" t="n">
-        <f aca="false">J46-J48</f>
+    <row r="51" customFormat="false" ht="31" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B51" s="166"/>
+      <c r="C51" s="124" t="s">
+        <v>78</v>
+      </c>
+      <c r="D51" s="167"/>
+      <c r="E51" s="168"/>
+      <c r="F51" s="168"/>
+      <c r="G51" s="168"/>
+      <c r="H51" s="168"/>
+      <c r="I51" s="168"/>
+      <c r="J51" s="169" t="n">
+        <f aca="false">J47-J49</f>
         <v>16886.09663613</v>
       </c>
-      <c r="K50" s="171" t="n">
-        <f aca="false">K46-K48</f>
+      <c r="K51" s="169" t="n">
+        <f aca="false">K47-K49</f>
         <v>11381.44704942</v>
       </c>
-      <c r="L50" s="171" t="n">
-        <f aca="false">L46-L48</f>
+      <c r="L51" s="169" t="n">
+        <f aca="false">L47-L49</f>
         <v>9019.09128191999</v>
       </c>
-      <c r="M50" s="171" t="n">
-        <f aca="false">M46-M48</f>
+      <c r="M51" s="169" t="n">
+        <f aca="false">M47-M49</f>
         <v>12006.38788821</v>
       </c>
-      <c r="N50" s="171" t="n">
-        <f aca="false">N46-N48</f>
+      <c r="N51" s="169" t="n">
+        <f aca="false">N47-N49</f>
         <v>1520.98136107001</v>
       </c>
-      <c r="O50" s="171" t="n">
-        <f aca="false">O46-O48</f>
+      <c r="O51" s="169" t="n">
+        <f aca="false">O47-O49</f>
         <v>2672.38182459</v>
       </c>
-      <c r="P50" s="171" t="n">
-        <f aca="false">P46-P48</f>
+      <c r="P51" s="169" t="n">
+        <f aca="false">P47-P49</f>
         <v>-3417.01772834</v>
       </c>
-      <c r="Q50" s="171" t="n">
-        <f aca="false">Q46-Q48</f>
+      <c r="Q51" s="169" t="n">
+        <f aca="false">Q47-Q49</f>
         <v>1966.61362216407</v>
       </c>
-      <c r="R50" s="171" t="n">
-        <f aca="false">R46-R48</f>
+      <c r="R51" s="169" t="n">
+        <f aca="false">R47-R49</f>
         <v>-8315</v>
       </c>
-      <c r="S50" s="171" t="n">
-        <f aca="false">S46-S48</f>
+      <c r="S51" s="169" t="n">
+        <f aca="false">S47-S49</f>
         <v>-3698</v>
       </c>
-      <c r="T50" s="172" t="n">
-        <f aca="false">T46-T48</f>
+      <c r="T51" s="170" t="n">
+        <f aca="false">T47-T49</f>
         <v>15954</v>
       </c>
-      <c r="U50" s="171" t="n">
-        <f aca="false">U46-U48</f>
+      <c r="U51" s="169" t="n">
+        <f aca="false">U47-U49</f>
         <v>17376.4811033967</v>
       </c>
-      <c r="V50" s="171" t="n">
-        <f aca="false">V46-V48</f>
+      <c r="V51" s="169" t="n">
+        <f aca="false">V47-V49</f>
         <v>16317.2642014752</v>
       </c>
-      <c r="W50" s="171" t="n">
-        <f aca="false">W46-W48</f>
+      <c r="W51" s="169" t="n">
+        <f aca="false">W47-W49</f>
         <v>15769.610629771</v>
       </c>
-      <c r="X50" s="171" t="n">
-        <f aca="false">X46-X48</f>
+      <c r="X51" s="169" t="n">
+        <f aca="false">X47-X49</f>
         <v>15368.9607914197</v>
       </c>
-      <c r="Y50" s="171" t="n">
-        <f aca="false">Y46-Y48</f>
+      <c r="Y51" s="169" t="n">
+        <f aca="false">Y47-Y49</f>
         <v>15221.6032807439</v>
       </c>
-      <c r="Z50" s="173" t="n">
-        <f aca="false">Z46-Z48</f>
+      <c r="Z51" s="171" t="n">
+        <f aca="false">Z47-Z49</f>
         <v>15531.3544361307</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="33" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B51" s="168"/>
-      <c r="C51" s="147" t="s">
-        <v>77</v>
-      </c>
-      <c r="D51" s="165"/>
-      <c r="E51" s="165"/>
-      <c r="F51" s="165"/>
-      <c r="G51" s="165"/>
-      <c r="H51" s="165"/>
-      <c r="I51" s="165"/>
-      <c r="J51" s="165" t="n">
-        <f aca="false">(J46+J48)*J17/J6</f>
+    <row r="52" customFormat="false" ht="33" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B52" s="166"/>
+      <c r="C52" s="145" t="s">
+        <v>79</v>
+      </c>
+      <c r="D52" s="163"/>
+      <c r="E52" s="163"/>
+      <c r="F52" s="163"/>
+      <c r="G52" s="163"/>
+      <c r="H52" s="163"/>
+      <c r="I52" s="163"/>
+      <c r="J52" s="163" t="n">
+        <f aca="false">(J47+J49)*J18/J7</f>
         <v>0.282273896166989</v>
       </c>
-      <c r="K51" s="174" t="n">
-        <f aca="false">(K46+K48)*K17/K6</f>
+      <c r="K52" s="172" t="n">
+        <f aca="false">(K47+K49)*K18/K7</f>
         <v>0.294229192028616</v>
       </c>
-      <c r="L51" s="174" t="n">
-        <f aca="false">(L46+L48)*L17/L6</f>
+      <c r="L52" s="172" t="n">
+        <f aca="false">(L47+L49)*L18/L7</f>
         <v>0.297441320894194</v>
       </c>
-      <c r="M51" s="174" t="n">
-        <f aca="false">(M46+M48)*M17/M6</f>
+      <c r="M52" s="172" t="n">
+        <f aca="false">(M47+M49)*M18/M7</f>
         <v>0.255247772453884</v>
       </c>
-      <c r="N51" s="174" t="n">
-        <f aca="false">(N46+N48)*N17/N6</f>
+      <c r="N52" s="172" t="n">
+        <f aca="false">(N47+N49)*N18/N7</f>
         <v>0.245972739170274</v>
       </c>
-      <c r="O51" s="174" t="n">
-        <f aca="false">(O46+O48)*O17/O6</f>
+      <c r="O52" s="172" t="n">
+        <f aca="false">(O47+O49)*O18/O7</f>
         <v>0.238004002924984</v>
       </c>
-      <c r="P51" s="174" t="n">
-        <f aca="false">(P46+P48)*P17/P6</f>
+      <c r="P52" s="172" t="n">
+        <f aca="false">(P47+P49)*P18/P7</f>
         <v>0.182100470045696</v>
       </c>
-      <c r="Q51" s="174" t="n">
-        <f aca="false">(Q46+Q48)*Q17/Q6</f>
+      <c r="Q52" s="172" t="n">
+        <f aca="false">(Q47+Q49)*Q18/Q7</f>
         <v>0.204147885622916</v>
       </c>
-      <c r="R51" s="174" t="n">
-        <f aca="false">(R46+R48)*R17/R6</f>
+      <c r="R52" s="172" t="n">
+        <f aca="false">(R47+R49)*R18/R7</f>
         <v>0.195009402374668</v>
       </c>
-      <c r="S51" s="174" t="n">
-        <f aca="false">(S46+S48)*S17/S6</f>
+      <c r="S52" s="172" t="n">
+        <f aca="false">(S47+S49)*S18/S7</f>
         <v>0.246016978380513</v>
       </c>
-      <c r="T51" s="175" t="n">
-        <f aca="false">(T46+T48)*T17/T6</f>
+      <c r="T52" s="173" t="n">
+        <f aca="false">(T47+T49)*T18/T7</f>
         <v>0.256946758554481</v>
       </c>
-      <c r="U51" s="174" t="n">
-        <f aca="false">(U46+U48)*U17/U6</f>
+      <c r="U52" s="172" t="n">
+        <f aca="false">(U47+U49)*U18/U7</f>
         <v>0.25388664531759</v>
       </c>
-      <c r="V51" s="174" t="n">
-        <f aca="false">(V46+V48)*V17/V6</f>
+      <c r="V52" s="172" t="n">
+        <f aca="false">(V47+V49)*V18/V7</f>
         <v>0.266718349727499</v>
       </c>
-      <c r="W51" s="174" t="n">
-        <f aca="false">(W46+W48)*W17/W6</f>
+      <c r="W52" s="172" t="n">
+        <f aca="false">(W47+W49)*W18/W7</f>
         <v>0.275243984004861</v>
       </c>
-      <c r="X51" s="174" t="n">
-        <f aca="false">(X46+X48)*X17/X6</f>
+      <c r="X52" s="172" t="n">
+        <f aca="false">(X47+X49)*X18/X7</f>
         <v>0.281223469176697</v>
       </c>
-      <c r="Y51" s="174" t="n">
-        <f aca="false">(Y46+Y48)*Y17/Y6</f>
+      <c r="Y52" s="172" t="n">
+        <f aca="false">(Y47+Y49)*Y18/Y7</f>
         <v>0.28398464412641</v>
       </c>
-      <c r="Z51" s="176" t="n">
-        <f aca="false">(Z46+Z48)*Z17/Z6</f>
+      <c r="Z52" s="174" t="n">
+        <f aca="false">(Z47+Z49)*Z18/Z7</f>
         <v>0.287169265775646</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D52" s="108"/>
-      <c r="E52" s="108"/>
-      <c r="F52" s="108"/>
-      <c r="G52" s="108"/>
-      <c r="H52" s="108"/>
-      <c r="I52" s="108"/>
-      <c r="J52" s="108"/>
-      <c r="K52" s="108"/>
-      <c r="L52" s="108"/>
-      <c r="M52" s="108"/>
-      <c r="N52" s="108"/>
-      <c r="O52" s="108"/>
-      <c r="P52" s="108"/>
-      <c r="Q52" s="108"/>
-      <c r="R52" s="108"/>
-      <c r="S52" s="108"/>
-      <c r="T52" s="108"/>
-      <c r="U52" s="108"/>
-      <c r="V52" s="108"/>
-      <c r="W52" s="108"/>
-      <c r="X52" s="108"/>
-      <c r="Y52" s="108"/>
-      <c r="Z52" s="108"/>
-    </row>
     <row r="53" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M53" s="108"/>
-      <c r="N53" s="108"/>
-      <c r="O53" s="108"/>
-      <c r="P53" s="108"/>
-      <c r="Q53" s="108"/>
-      <c r="R53" s="108"/>
-      <c r="S53" s="108"/>
-      <c r="T53" s="108"/>
-      <c r="U53" s="108"/>
-      <c r="V53" s="108"/>
-      <c r="W53" s="108"/>
-      <c r="X53" s="108"/>
-      <c r="Y53" s="108"/>
-      <c r="Z53" s="108"/>
-    </row>
-    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="U54" s="177"/>
+      <c r="D53" s="175"/>
+      <c r="E53" s="175"/>
+      <c r="F53" s="175"/>
+      <c r="G53" s="175"/>
+      <c r="H53" s="175"/>
+      <c r="I53" s="175"/>
+      <c r="J53" s="175"/>
+      <c r="K53" s="175"/>
+      <c r="L53" s="175"/>
+      <c r="M53" s="175"/>
+      <c r="N53" s="175"/>
+      <c r="O53" s="175"/>
+      <c r="P53" s="175"/>
+      <c r="Q53" s="175"/>
+      <c r="R53" s="175"/>
+      <c r="S53" s="175"/>
+      <c r="T53" s="175"/>
+      <c r="U53" s="175"/>
+      <c r="V53" s="175"/>
+      <c r="W53" s="175"/>
+      <c r="X53" s="175"/>
+      <c r="Y53" s="175"/>
+      <c r="Z53" s="175"/>
+    </row>
+    <row r="54" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M54" s="175"/>
+      <c r="N54" s="175"/>
+      <c r="O54" s="175"/>
+      <c r="P54" s="175"/>
+      <c r="Q54" s="175"/>
+      <c r="R54" s="175"/>
+      <c r="S54" s="175"/>
+      <c r="T54" s="175"/>
+      <c r="U54" s="175"/>
+      <c r="V54" s="175"/>
+      <c r="W54" s="175"/>
+      <c r="X54" s="175"/>
+      <c r="Y54" s="175"/>
+      <c r="Z54" s="175"/>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="U55" s="107"/>
+      <c r="U55" s="176"/>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="U56" s="109"/>
+      <c r="U56" s="177"/>
+    </row>
+    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U57" s="178"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B6:B15"/>
-    <mergeCell ref="B17:B27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="B29:B38"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="B40:B44"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="B46:B51"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B7:B16"/>
+    <mergeCell ref="B18:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="B30:B39"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="B41:B45"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="B47:B52"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="C49:C50"/>
   </mergeCells>
-  <conditionalFormatting sqref="K7">
+  <conditionalFormatting sqref="K8">
     <cfRule type="cellIs" priority="2" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K13">
-    <cfRule type="cellIs" priority="3" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+  <conditionalFormatting sqref="K14">
+    <cfRule type="cellIs" priority="3" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K9">
-    <cfRule type="cellIs" priority="4" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+  <conditionalFormatting sqref="K10">
+    <cfRule type="cellIs" priority="4" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L9:Z9">
-    <cfRule type="cellIs" priority="5" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+  <conditionalFormatting sqref="L10:Z10">
+    <cfRule type="cellIs" priority="5" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K9:Z9">
-    <cfRule type="cellIs" priority="6" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
+  <conditionalFormatting sqref="K10:Z10">
+    <cfRule type="cellIs" priority="6" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="7" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
+    <cfRule type="cellIs" priority="7" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K27">
-    <cfRule type="cellIs" priority="8" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
+  <conditionalFormatting sqref="K28">
+    <cfRule type="cellIs" priority="8" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L27:Z27">
-    <cfRule type="cellIs" priority="9" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+  <conditionalFormatting sqref="L28:Z28">
+    <cfRule type="cellIs" priority="9" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K51:Q51 T51:Z51">
-    <cfRule type="cellIs" priority="10" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="8">
+  <conditionalFormatting sqref="K52:Q52 T52:Z52">
+    <cfRule type="cellIs" priority="10" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L13:Z13">
-    <cfRule type="cellIs" priority="11" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
+  <conditionalFormatting sqref="L14:Z14">
+    <cfRule type="cellIs" priority="11" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K15">
-    <cfRule type="cellIs" priority="12" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
+  <conditionalFormatting sqref="K16">
+    <cfRule type="cellIs" priority="12" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L11:Z11">
-    <cfRule type="cellIs" priority="13" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
+  <conditionalFormatting sqref="L12:Z12">
+    <cfRule type="cellIs" priority="13" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K11">
-    <cfRule type="cellIs" priority="14" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
+  <conditionalFormatting sqref="K12">
+    <cfRule type="cellIs" priority="14" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L15:Z15">
-    <cfRule type="cellIs" priority="15" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="13">
+  <conditionalFormatting sqref="L16:Z16">
+    <cfRule type="cellIs" priority="15" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L7:Z7">
-    <cfRule type="cellIs" priority="16" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
+  <conditionalFormatting sqref="L8:Z8">
+    <cfRule type="cellIs" priority="16" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K7:Z7">
-    <cfRule type="cellIs" priority="17" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="15">
+  <conditionalFormatting sqref="K8:Z8">
+    <cfRule type="cellIs" priority="17" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="18" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="16">
+    <cfRule type="cellIs" priority="18" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K11:Z11">
-    <cfRule type="cellIs" priority="19" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="17">
+  <conditionalFormatting sqref="K12:Z12">
+    <cfRule type="cellIs" priority="19" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="20" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="18">
+    <cfRule type="cellIs" priority="20" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K24:K25">
-    <cfRule type="cellIs" priority="21" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="19">
+  <conditionalFormatting sqref="K25:K26">
+    <cfRule type="cellIs" priority="21" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L25:Z25 L24:W24 Z24">
-    <cfRule type="cellIs" priority="22" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="20">
+  <conditionalFormatting sqref="L26:Z26 L25:W25 Z25">
+    <cfRule type="cellIs" priority="22" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K13:Z13">
-    <cfRule type="cellIs" priority="23" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="21">
+  <conditionalFormatting sqref="K14:Z14">
+    <cfRule type="cellIs" priority="23" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="24" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="22">
+    <cfRule type="cellIs" priority="24" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K15:Z15">
-    <cfRule type="cellIs" priority="25" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="23">
+  <conditionalFormatting sqref="K16:Z16">
+    <cfRule type="cellIs" priority="25" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="26" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="24">
+    <cfRule type="cellIs" priority="26" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K22">
-    <cfRule type="cellIs" priority="27" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="25">
+  <conditionalFormatting sqref="K23">
+    <cfRule type="cellIs" priority="27" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L22:W22 Z22">
-    <cfRule type="cellIs" priority="28" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="26">
+  <conditionalFormatting sqref="L23:W23 Z23">
+    <cfRule type="cellIs" priority="28" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K27:Z27">
-    <cfRule type="cellIs" priority="29" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="27">
+  <conditionalFormatting sqref="K28:Z28">
+    <cfRule type="cellIs" priority="29" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="30" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="28">
+    <cfRule type="cellIs" priority="30" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K25:Z25 K24:W24 Z24">
-    <cfRule type="cellIs" priority="31" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="29">
+  <conditionalFormatting sqref="K26:Z26 K25:W25 Z25">
+    <cfRule type="cellIs" priority="31" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="32" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="30">
+    <cfRule type="cellIs" priority="32" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K20">
-    <cfRule type="cellIs" priority="33" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="31">
+  <conditionalFormatting sqref="K21">
+    <cfRule type="cellIs" priority="33" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L20:Z20">
-    <cfRule type="cellIs" priority="34" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="32">
+  <conditionalFormatting sqref="L21:Z21">
+    <cfRule type="cellIs" priority="34" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K22:W22 Z22">
-    <cfRule type="cellIs" priority="35" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="33">
+  <conditionalFormatting sqref="K23:W23 Z23">
+    <cfRule type="cellIs" priority="35" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="36" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="34">
+    <cfRule type="cellIs" priority="36" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K20:Z20">
-    <cfRule type="cellIs" priority="37" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="35">
+  <conditionalFormatting sqref="K21:Z21">
+    <cfRule type="cellIs" priority="37" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="38" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="36">
+    <cfRule type="cellIs" priority="38" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K18">
-    <cfRule type="cellIs" priority="39" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="37">
+  <conditionalFormatting sqref="K19">
+    <cfRule type="cellIs" priority="39" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L18:Z18">
-    <cfRule type="cellIs" priority="40" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="38">
+  <conditionalFormatting sqref="L19:Z19">
+    <cfRule type="cellIs" priority="40" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K18:Z18">
-    <cfRule type="cellIs" priority="41" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="39">
+  <conditionalFormatting sqref="K19:Z19">
+    <cfRule type="cellIs" priority="41" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="42" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="40">
+    <cfRule type="cellIs" priority="42" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K30">
-    <cfRule type="cellIs" priority="43" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="41">
+  <conditionalFormatting sqref="K31">
+    <cfRule type="cellIs" priority="43" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L30:Z30">
-    <cfRule type="cellIs" priority="44" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="42">
+  <conditionalFormatting sqref="L31:Z31">
+    <cfRule type="cellIs" priority="44" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K30:Z30">
-    <cfRule type="cellIs" priority="45" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="43">
+  <conditionalFormatting sqref="K31:Z31">
+    <cfRule type="cellIs" priority="45" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="46" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="44">
+    <cfRule type="cellIs" priority="46" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K32">
-    <cfRule type="cellIs" priority="47" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="45">
+  <conditionalFormatting sqref="K33">
+    <cfRule type="cellIs" priority="47" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L32:Z32">
-    <cfRule type="cellIs" priority="48" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="46">
+  <conditionalFormatting sqref="L33:Z33">
+    <cfRule type="cellIs" priority="48" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K32:Z32">
-    <cfRule type="cellIs" priority="49" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="47">
+  <conditionalFormatting sqref="K33:Z33">
+    <cfRule type="cellIs" priority="49" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="50" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="48">
+    <cfRule type="cellIs" priority="50" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K34">
-    <cfRule type="cellIs" priority="51" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="49">
+  <conditionalFormatting sqref="K35">
+    <cfRule type="cellIs" priority="51" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L34:Z34">
-    <cfRule type="cellIs" priority="52" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="50">
+  <conditionalFormatting sqref="L35:Z35">
+    <cfRule type="cellIs" priority="52" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K34:Z34">
-    <cfRule type="cellIs" priority="53" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="51">
+  <conditionalFormatting sqref="K35:Z35">
+    <cfRule type="cellIs" priority="53" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="54" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="52">
+    <cfRule type="cellIs" priority="54" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K50">
-    <cfRule type="cellIs" priority="55" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="53">
+  <conditionalFormatting sqref="K51">
+    <cfRule type="cellIs" priority="55" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L50:Z50">
-    <cfRule type="cellIs" priority="56" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="54">
+  <conditionalFormatting sqref="L51:Z51">
+    <cfRule type="cellIs" priority="56" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K50:Z50">
-    <cfRule type="cellIs" priority="57" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="55">
+  <conditionalFormatting sqref="K51:Z51">
+    <cfRule type="cellIs" priority="57" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="58" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="56">
+    <cfRule type="cellIs" priority="58" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K36">
-    <cfRule type="cellIs" priority="59" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="57">
+  <conditionalFormatting sqref="K37">
+    <cfRule type="cellIs" priority="59" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L36:Z36">
-    <cfRule type="cellIs" priority="60" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="58">
+  <conditionalFormatting sqref="L37:Z37">
+    <cfRule type="cellIs" priority="60" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K36:Z36">
-    <cfRule type="cellIs" priority="61" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="59">
+  <conditionalFormatting sqref="K37:Z37">
+    <cfRule type="cellIs" priority="61" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="62" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="60">
+    <cfRule type="cellIs" priority="62" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K38">
-    <cfRule type="cellIs" priority="63" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="61">
+  <conditionalFormatting sqref="K39">
+    <cfRule type="cellIs" priority="63" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L38:Z38">
-    <cfRule type="cellIs" priority="64" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="62">
+  <conditionalFormatting sqref="L39:Z39">
+    <cfRule type="cellIs" priority="64" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K38:Z38">
-    <cfRule type="cellIs" priority="65" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="63">
+  <conditionalFormatting sqref="K39:Z39">
+    <cfRule type="cellIs" priority="65" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="66" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="64">
+    <cfRule type="cellIs" priority="66" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K41">
-    <cfRule type="cellIs" priority="67" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="65">
+  <conditionalFormatting sqref="K42">
+    <cfRule type="cellIs" priority="67" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L41:Z41">
-    <cfRule type="cellIs" priority="68" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="66">
+  <conditionalFormatting sqref="L42:Z42">
+    <cfRule type="cellIs" priority="68" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K41:Z41">
-    <cfRule type="cellIs" priority="69" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="67">
+  <conditionalFormatting sqref="K42:Z42">
+    <cfRule type="cellIs" priority="69" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="70" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="68">
+    <cfRule type="cellIs" priority="70" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K45">
+    <cfRule type="cellIs" priority="71" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L45:Z45">
+    <cfRule type="cellIs" priority="72" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K45:Z45">
+    <cfRule type="cellIs" priority="73" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="74" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K44">
-    <cfRule type="cellIs" priority="71" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="69">
+    <cfRule type="cellIs" priority="75" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L44:Z44">
-    <cfRule type="cellIs" priority="72" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="70">
+    <cfRule type="cellIs" priority="76" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K44:Z44">
-    <cfRule type="cellIs" priority="73" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="71">
+    <cfRule type="cellIs" priority="77" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="74" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="72">
+    <cfRule type="cellIs" priority="78" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K43">
-    <cfRule type="cellIs" priority="75" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="73">
+  <conditionalFormatting sqref="R52">
+    <cfRule type="cellIs" priority="79" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L43:Z43">
-    <cfRule type="cellIs" priority="76" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="74">
+  <conditionalFormatting sqref="S52">
+    <cfRule type="cellIs" priority="80" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K43:Z43">
-    <cfRule type="cellIs" priority="77" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="75">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="78" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="76">
+  <conditionalFormatting sqref="X25">
+    <cfRule type="cellIs" priority="81" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R51">
-    <cfRule type="cellIs" priority="79" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="77">
+  <conditionalFormatting sqref="X23">
+    <cfRule type="cellIs" priority="82" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S51">
-    <cfRule type="cellIs" priority="80" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="78">
+  <conditionalFormatting sqref="X25">
+    <cfRule type="cellIs" priority="83" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="84" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X24">
-    <cfRule type="cellIs" priority="81" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="79">
+  <conditionalFormatting sqref="X23">
+    <cfRule type="cellIs" priority="85" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="86" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X22">
-    <cfRule type="cellIs" priority="82" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="80">
+  <conditionalFormatting sqref="Y25">
+    <cfRule type="cellIs" priority="87" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X24">
-    <cfRule type="cellIs" priority="83" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="81">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="84" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="82">
+  <conditionalFormatting sqref="Y23">
+    <cfRule type="cellIs" priority="88" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X22">
-    <cfRule type="cellIs" priority="85" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="83">
+  <conditionalFormatting sqref="Y25">
+    <cfRule type="cellIs" priority="89" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="86" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="84">
+    <cfRule type="cellIs" priority="90" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y24">
-    <cfRule type="cellIs" priority="87" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="85">
+  <conditionalFormatting sqref="Y23">
+    <cfRule type="cellIs" priority="91" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="92" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y22">
-    <cfRule type="cellIs" priority="88" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="86">
+  <conditionalFormatting sqref="O48:Z48">
+    <cfRule type="cellIs" priority="93" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y24">
-    <cfRule type="cellIs" priority="89" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="87">
+  <conditionalFormatting sqref="O48:Z48">
+    <cfRule type="cellIs" priority="94" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="90" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="88">
+    <cfRule type="cellIs" priority="95" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y22">
-    <cfRule type="cellIs" priority="91" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="89">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="92" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="90">
+  <conditionalFormatting sqref="O50:Z50">
+    <cfRule type="cellIs" priority="96" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O47:Z47">
-    <cfRule type="cellIs" priority="93" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="91">
+  <conditionalFormatting sqref="O50:Z50">
+    <cfRule type="cellIs" priority="97" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>0</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O47:Z47">
-    <cfRule type="cellIs" priority="94" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="92">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="95" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="93">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O49:Z49">
-    <cfRule type="cellIs" priority="96" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="94">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O49:Z49">
-    <cfRule type="cellIs" priority="97" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="95">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="98" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="96">
+    <cfRule type="cellIs" priority="98" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
